--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,16 +22,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iProc_TC_ID_34</t>
-  </si>
-  <si>
-    <t>@Regression Validation of Exam section page (Offline Exam validation)</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>timedOut</t>
+    <t>iProc_TC_ID_44</t>
+  </si>
+  <si>
+    <t>@Regression Validation of  Cloud indication -  (Status is InCompleted)</t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
 </sst>
 </file>
@@ -408,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -431,17 +428,6 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -22,16 +22,16 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iProc_TC_ID_34</t>
-  </si>
-  <si>
-    <t>@Regression Validation of Exam section page (Offline Exam validation)</t>
+    <t>@Regression Validation of iProctor Extension Troubleshoot link validation.TC-73</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>@Regression Validation of iProctor Extension Troubleshoot link validation</t>
   </si>
   <si>
     <t>failed</t>
-  </si>
-  <si>
-    <t>timedOut</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -426,21 +426,23 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,16 +22,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>@Regression Validation of iProctor Extension Troubleshoot link validation.TC-73</t>
+    <t>iProc_TC_ID_44</t>
+  </si>
+  <si>
+    <t>@Regression Validation of  Cloud indication -  (Status is InCompleted)</t>
   </si>
   <si>
     <t>passed</t>
-  </si>
-  <si>
-    <t>@Regression Validation of iProctor Extension Troubleshoot link validation</t>
-  </si>
-  <si>
-    <t>failed</t>
   </si>
 </sst>
 </file>
@@ -408,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -426,24 +423,11 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,13 +22,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iProc_TC_ID_44</t>
-  </si>
-  <si>
-    <t>@Regression Validation of  Cloud indication -  (Status is InCompleted)</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Elumina Create Exam with survey section</t>
   </si>
   <si>
     <t>passed</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Elumina Registration</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Validation of Survey screen EluminaRegressioniProctorTC_083</t>
   </si>
 </sst>
 </file>
@@ -405,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -427,6 +433,28 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,13 +22,22 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iProc_TC_ID_44</t>
-  </si>
-  <si>
-    <t>@Regression Validation of  Cloud indication -  (Status is InCompleted)</t>
+    <t xml:space="preserve"> Exam_Prerequisit_for_iProc_TC_ID_79</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Elumina Create Exam with survey section</t>
   </si>
   <si>
     <t>passed</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Elumina Registration</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_79</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Validation of Candidate answering survey questions</t>
   </si>
 </sst>
 </file>
@@ -405,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -427,6 +436,28 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve"> Exam_Prerequisit_for_iProc_TC_ID_79</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>@iProctorRegression Verify Elumina Create Exam with survey section</t>
@@ -34,10 +34,7 @@
     <t>@iProctorRegression Verify Elumina Registration</t>
   </si>
   <si>
-    <t>iProc_TC_ID_79</t>
-  </si>
-  <si>
-    <t>@iProctorRegression Verify Validation of Candidate answering survey questions</t>
+    <t>@iProctorRegression Verify Validation of Survey screen EluminaRegressioniProctorTC_083</t>
   </si>
 </sst>
 </file>
@@ -452,10 +449,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,19 +22,22 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>@iProctorRegression Verify Elumina Create Exam with survey section</t>
+    <t>Exam_Prerequisit_for_iProc_TC_ID_166</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Elumina Login with diff venu</t>
   </si>
   <si>
     <t>passed</t>
   </si>
   <si>
-    <t>@iProctorRegression Verify Elumina Registration</t>
-  </si>
-  <si>
-    <t>@iProctorRegression Verify Validation of Survey screen EluminaRegressioniProctorTC_083</t>
+    <t>@iProctorRegression Verify Elumina Registration and adding existing user</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_166</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Candidate attends exam within browser screen and not in Full-screen mode</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="258">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,22 +22,769 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Exam_Prerequisit_for_iProc_TC_ID_166</t>
+    <t xml:space="preserve"> Exam_Prerequisit_for_iProc_TC_ID_26A</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Elumina Login</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exam_Prerequisit_for_iProc_TC_ID_26B</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Elumina Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exam_Prerequisit_for_iProc_TC_ID_26C</t>
   </si>
   <si>
     <t>@iProctorRegression Verify Elumina Login with diff venu</t>
   </si>
   <si>
-    <t>passed</t>
+    <t xml:space="preserve"> Exam_Prerequisit_for_iProc_TC_ID_26D</t>
   </si>
   <si>
     <t>@iProctorRegression Verify Elumina Registration and adding existing user</t>
   </si>
   <si>
+    <t xml:space="preserve"> iProc_TC_ID_4</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of user authentication by invalid Candidate Creadentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_7</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Validation of Candidate App Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_9</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of multiple candidate trying to login to same Exam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_16</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Timer Validation before Exam starts - After clicking on "Start Exam"</t>
+  </si>
+  <si>
+    <t>timedOut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_18</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Browser back button on Candidate Dashboard</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_19</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Browser Reload option on Candidate Dashboard</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_20</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of  function keys on Candidate Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_21A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iProctorRegression Validation of Changing Font Size to increase on the Dashboard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iProc_TC_ID_21B </t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Changing Font Size to Decrease on the Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_22</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of the "Timer" - After clicking on "Start Exam" Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Questions, Videos &amp; audio being downloaded as soon as the Exam Started</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_26</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of candidate/s taking exam from different timezones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_27</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of "Flag for Review" option</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_31</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Adding &amp; Saving notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_32</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Calculator</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_43</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of  Cloud indication -  (Status is Completed) Reg_iProctor_46 "</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_52</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Validation of adding notes in the Exam RegressioniProctorTC_055</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_46</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Validation of candidate navigating to multiple window</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_48</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify CandidatesExam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_49</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Elumina Invigilator Dashboard</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_50</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Question numbers are displayed in Red, when Flag for Review is selected</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_51</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Validation of Question numbers are displayed in Orange when InProgress</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_55A</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Candidate while attending exam - Candidate abruptly closed the browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_55B</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Elumina candidate attends the exam after abrupt closure of browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_60</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of "Pause-Exam"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_62</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of filter as Invigilator - Location &amp; Venue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_63</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation marking attendance for individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_64</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of marking all attendance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_72</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of "Time Remaining" on Right top corner of the Candidate page"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_73</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of login for invigilator for valid credential</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_74</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Invigilator Dashboard after the Exam Completion by candidate (With in the specified time line)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_75</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Invigilator Dashboard after the Exam Completion by candidate (once the time exceeds)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_76</t>
+  </si>
+  <si>
+    <t>@iProctorRegression extending exam for the candidate by invigilator</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_83A</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Admin &gt; Proctoring &gt; Camera Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_83B</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Admin &gt; Proctoring &gt; Camera Links</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_84A</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Enable iProctor Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_84B</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Admin &gt; Proctoring &gt; Microphone Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_85A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_85B</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Admin &gt; Proctoring &gt; Browser Check Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_87A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_87B</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Admin&gt; Proctoring &gt; Terms And Condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_88</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_89</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Internet Connection Check</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_92</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of adding prompt candidate message</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_93</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Live monitor &gt; Proctoring View</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_94</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify candidate choosing proctoring exam in dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_95</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Candidate Exam Disclaimer Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_96</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Candidate &gt; Peripheral verification screen Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_98</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Validation Camera verification check done</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_99</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Candidate &gt; Peripheral verification &gt; Allow Mic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_100</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Validation of Screen Capture verification check done</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_101</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Candidate&gt; Enforce Hardware Check &gt; True</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_102</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Candidate&gt; Enforce Hardware Check &gt; False</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_103</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_107</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Candidate ( i-Exam ) &gt; Manual authentication "</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_108</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Exam Event with Login Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_109</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Exam Event &gt; Camera Verified</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_110</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Exam Event &gt; Microphone Verified</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_111</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Exam Event &gt; Screen Share Enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_112</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Internet Connection Verified</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_114</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Exam Event &gt; Candidate Authentication Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_115</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Exam Event &gt; Candidate Authentication Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_116</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Exam Event &gt; Viewed Exam instruction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_117</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Exam Event &gt; Awaiting Exam Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_53</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Elumina Invigilator terminating exam for candidate EluminaRegressioniProctorTC_056</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exam_Prerequisit_for_iProc_TC_ID_119</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Create iProctor exam with password</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_119</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Exam Events In Admin Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_120</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Exam Events &gt; Status &gt; Exam Paused</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_121</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Exam Events &gt; Exam Extened</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_122</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Exam Events &gt; Exam Resumed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_123</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Exam Events &gt; Exam Interrupted</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_126</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Exam Events &gt; No Face Detected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_131</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Exam &gt; Live streaming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_133</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Exam &gt; Fragment streaming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_134</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Exam with Screenshots</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_135</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Exam &gt; Traffic light Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_137</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Exam &gt; Completed</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_69</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Completed Exam candidate &gt; Video fragments, screenshots.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_139</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Completed Exam candidate &gt; Complete user journey events validation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_140</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Completed candidate Exam &gt; Answer validation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exam_Prerequisit_for_iProc_TC_ID_54A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exam_Prerequisit_for_iProc_TC_ID_54B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_54</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Candidate Attend practice exam EluminaRegressionProctorTC_057</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_118</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Proctoring Exam Events In Admin Section EluminaRegressioniProctorTC_124</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exam_Prerequisit_for_iProc_TC_ID_17</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Elumina Login fpr AM</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Elumina Registration for AM</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Elumina Login for PM</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Elumina Registration for PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_17</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Browser Reload option on Candidate Dashboard for AM EluminaRegressioniProctorTC_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exam_Prerequisit_for_iProc_TC_ID_78</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Elumina Create Exam with survey section</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_78</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Validation of Survey screen EluminaRegressioniProctorTC_083</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_79</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Validation of Candidate answering survey questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exam_Prerequisit_for_iProc_TC_ID_35</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Elumina Login and Create Exam</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Verify Elumina RegistrationInv and add User and Invigilator</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_35</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of different Question types - Able to Answer all types EluminaRegressioniProctorTC_036</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_33</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Exam Section &gt; Highlighter tool highlights save scenario 1</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_36</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validating of VSAQ - Maximum number of lines that can be written</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_104</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Candidate &gt; Peripheral verification &gt; Verify Identity &gt; PASS</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_142A</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of iProctor Extension Troubleshoot link validation.TC-73</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_142B</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of iProctor Extension Troubleshoot link validation</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iProctorRegression Validation of Exam Section&gt; Image Inline viewer </t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_44</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of  Cloud indication -  (Status is InCompleted)</t>
+  </si>
+  <si>
+    <t>Exam_Prerequisit_for_iProc_TC_ID_29</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_29</t>
+  </si>
+  <si>
+    <t>@iProctorRegression Validation of Exam Section&gt; Image viewer</t>
+  </si>
+  <si>
     <t>iProc_TC_ID_166</t>
   </si>
   <si>
-    <t>@iProctorRegression Validation of Candidate attends exam within browser screen and not in Full-screen mode</t>
+    <t>@iProctorRegression Validation of Candidate attends exam in Full-screen mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exam_Prerequisit_for_iProc_TC_ID_80</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Create iProctor exam with password</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Verify Elumina Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_80</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Validation of Admin &gt; Proctoring &gt; Video Recording (Toggle Button) TC-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_81</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Validation of Admin &gt; Proctoring &gt; Audio Recording  (Toggle Button) TC-01</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_168</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Validation of Admin &gt; Proctoring &gt; Enable Screenshot TC-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_83</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Validation of Admin &gt; Proctoring &gt; Camera Link TC-005</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_84</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Validation of Admin &gt; Proctoring &gt; Microphone Link TC-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_85</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Validation of Admin &gt; Proctoring &gt; Browser Check Link TC-007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_87</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Validation of Admin&gt; Proctoring &gt; Terms And Condition TC-009</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Validation of Enable iProctor Extension TC-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_82</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Validation of Admin &gt; Proctoring &gt; Video Fragment Size TC-066</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_86</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Validation of Internet Connection Check TC-068</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_90</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Validation of Internet Upload Speed TC-069</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_91</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Validation of Internet Download Speed</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Validation of Prompt Candidate TC-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_162</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Verify Validation of Exam section page  &gt; Chat App TC-171</t>
+  </si>
+  <si>
+    <t>iProc_TC_167,TC-172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@LowPriorityiProctorCases Verify Validation of Review Exam page  &gt; Chat App </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_165</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Validation of textbox capabilities of chat app</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_144A</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Validation of Microphone Troubleshoot link validation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_144B</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Validation of Microphone Troubleshoot link</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_159</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Validation of Candidate Dashboard page - Chat App</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_160</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_161</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Validation of Candidate Proctoring Exam pheripheral checkup page - Chat App TC-169</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Validation of Proctoring Exam &gt; Traffic light Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iProc_TC_ID_164</t>
+  </si>
+  <si>
+    <t>@LowPriorityiProctorCases Verify Validation of Submit Exam page  &gt; Chat App TC-173</t>
   </si>
 </sst>
 </file>
@@ -414,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C149"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -441,10 +1188,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -452,13 +1199,1608 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>146</v>
+      </c>
+      <c r="B77" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>152</v>
+      </c>
+      <c r="B80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>171</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>172</v>
+      </c>
+      <c r="B92" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>174</v>
+      </c>
+      <c r="B93" t="s">
+        <v>175</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>176</v>
+      </c>
+      <c r="B94" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>176</v>
+      </c>
+      <c r="B95" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>183</v>
+      </c>
+      <c r="B99" t="s">
+        <v>184</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>183</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>185</v>
+      </c>
+      <c r="B101" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>187</v>
+      </c>
+      <c r="B102" t="s">
+        <v>188</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" t="s">
+        <v>190</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>189</v>
+      </c>
+      <c r="B104" t="s">
+        <v>191</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>194</v>
+      </c>
+      <c r="B106" t="s">
+        <v>195</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107" t="s">
+        <v>197</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>198</v>
+      </c>
+      <c r="B108" t="s">
+        <v>199</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>200</v>
+      </c>
+      <c r="B109" t="s">
+        <v>201</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>202</v>
+      </c>
+      <c r="B110" t="s">
+        <v>203</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>204</v>
+      </c>
+      <c r="B111" t="s">
+        <v>205</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>206</v>
+      </c>
+      <c r="B112" t="s">
+        <v>207</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>208</v>
+      </c>
+      <c r="B113" t="s">
+        <v>190</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>208</v>
+      </c>
+      <c r="B114" t="s">
+        <v>191</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>209</v>
+      </c>
+      <c r="B115" t="s">
+        <v>210</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>211</v>
+      </c>
+      <c r="B116" t="s">
+        <v>212</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>213</v>
+      </c>
+      <c r="B117" t="s">
+        <v>214</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>213</v>
+      </c>
+      <c r="B118" t="s">
+        <v>215</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>216</v>
+      </c>
+      <c r="B119" t="s">
+        <v>217</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>218</v>
+      </c>
+      <c r="B120" t="s">
+        <v>219</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>220</v>
+      </c>
+      <c r="B121" t="s">
+        <v>221</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>222</v>
+      </c>
+      <c r="B122" t="s">
+        <v>223</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>224</v>
+      </c>
+      <c r="B123" t="s">
+        <v>225</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>226</v>
+      </c>
+      <c r="B124" t="s">
+        <v>227</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>228</v>
+      </c>
+      <c r="B125" t="s">
+        <v>229</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>94</v>
+      </c>
+      <c r="B126" t="s">
+        <v>230</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>231</v>
+      </c>
+      <c r="B127" t="s">
+        <v>232</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>233</v>
+      </c>
+      <c r="B128" t="s">
+        <v>234</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>235</v>
+      </c>
+      <c r="B129" t="s">
+        <v>236</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>237</v>
+      </c>
+      <c r="B130" t="s">
+        <v>238</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>97</v>
+      </c>
+      <c r="B131" t="s">
+        <v>239</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>240</v>
+      </c>
+      <c r="B132" t="s">
+        <v>241</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>242</v>
+      </c>
+      <c r="B133" t="s">
+        <v>243</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>244</v>
+      </c>
+      <c r="B134" t="s">
+        <v>245</v>
+      </c>
+      <c r="C134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>244</v>
+      </c>
+      <c r="B135" t="s">
+        <v>245</v>
+      </c>
+      <c r="C135" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>246</v>
+      </c>
+      <c r="B136" t="s">
+        <v>247</v>
+      </c>
+      <c r="C136" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>246</v>
+      </c>
+      <c r="B137" t="s">
+        <v>247</v>
+      </c>
+      <c r="C137" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>248</v>
+      </c>
+      <c r="B138" t="s">
+        <v>249</v>
+      </c>
+      <c r="C138" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>248</v>
+      </c>
+      <c r="B139" t="s">
+        <v>249</v>
+      </c>
+      <c r="C139" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>250</v>
+      </c>
+      <c r="B140" t="s">
+        <v>251</v>
+      </c>
+      <c r="C140" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>250</v>
+      </c>
+      <c r="B141" t="s">
+        <v>251</v>
+      </c>
+      <c r="C141" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>252</v>
+      </c>
+      <c r="B142" t="s">
+        <v>251</v>
+      </c>
+      <c r="C142" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>252</v>
+      </c>
+      <c r="B143" t="s">
+        <v>251</v>
+      </c>
+      <c r="C143" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>253</v>
+      </c>
+      <c r="B144" t="s">
+        <v>254</v>
+      </c>
+      <c r="C144" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>253</v>
+      </c>
+      <c r="B145" t="s">
+        <v>254</v>
+      </c>
+      <c r="C145" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>160</v>
+      </c>
+      <c r="B146" t="s">
+        <v>255</v>
+      </c>
+      <c r="C146" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>160</v>
+      </c>
+      <c r="B147" t="s">
+        <v>255</v>
+      </c>
+      <c r="C147" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>256</v>
+      </c>
+      <c r="B148" t="s">
+        <v>257</v>
+      </c>
+      <c r="C148" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>256</v>
+      </c>
+      <c r="B149" t="s">
+        <v>257</v>
+      </c>
+      <c r="C149" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,13 +22,40 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_177</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Delivery-&gt;Manage Delivery page via more (...)</t>
+    <t>iEX_TC_ID_97,iEX_TC_ID_98,iEX_TC_ID_99,iEX_TC_ID_101,iEX_TC_ID_102,iEX_TC_ID_103,iEX_TC_ID_105</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of each component for all type of questions in Candidate flow.</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_54</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam section page.</t>
   </si>
   <si>
     <t>passed</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Exam Section &gt; Font Size </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_64</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam Section &gt; Highlighter tool highlights save scenario 1</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Exam section &gt; Candidate attend the exam in normal flow </t>
   </si>
 </sst>
 </file>
@@ -405,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -430,6 +457,72 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,40 +22,146 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iEX_TC_ID_97,iEX_TC_ID_98,iEX_TC_ID_99,iEX_TC_ID_101,iEX_TC_ID_102,iEX_TC_ID_103,iEX_TC_ID_105</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of each component for all type of questions in Candidate flow.</t>
+    <t>iProc_TC_ID_1</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Elumina Login</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_1A</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Elumina Registration</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_3</t>
+  </si>
+  <si>
+    <t>@Smoke Verify CandidatesInvExam</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@SmokeValidation of user authentication by valid Candidate Creadentials
+</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_8</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of candidate choosing proctoring exam in dashboard</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_23</t>
+  </si>
+  <si>
+    <t>@iProctorlink Verify CandidatesExam</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_25</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_28</t>
+  </si>
+  <si>
+    <t>@iProctorlink Verify Elumina Invigilator Dashboard</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_56</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Validation of Invigilator Dashboard Proctor</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_57</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of Navigating to an exam from the dashboard to invigilate</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iProctorlink Verify Validation of "Start Exam" (All Candidates) Proctor </t>
+  </si>
+  <si>
+    <t>timedOut</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_59</t>
+  </si>
+  <si>
+    <t>@iProctorlink Verify Validation of "Lock Exam" from Live monitor Proctor</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_61</t>
+  </si>
+  <si>
+    <t>@iProctorlink Verify Validation of "Resume Exam" from Live monitor Proctor</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_64</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Validation of "Mark Attendance" (All Candidates) Proctor</t>
   </si>
   <si>
     <t>failed</t>
   </si>
   <si>
-    <t>iEX_TC_ID_54</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Exam section page.</t>
-  </si>
-  <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Validation of Exam Section &gt; Font Size </t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_64</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Exam Section &gt; Highlighter tool highlights save scenario 1</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Validation of Exam section &gt; Candidate attend the exam in normal flow </t>
+    <t>iProc_TC_ID_70</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of Questions answered / Inprogress on the RHS of the Candidate page</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_71</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of all the events generated on the RHS of the Candidate page</t>
+  </si>
+  <si>
+    <t>Exam_Prerequisit_ID_01</t>
+  </si>
+  <si>
+    <t>@iProctorlink Verify Create Exam With Content Section and Content Section Page</t>
+  </si>
+  <si>
+    <t>Reg_Prerequisit_ID_01A</t>
+  </si>
+  <si>
+    <t>@iProctorlink Verify Elumina Registration</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_40</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Elumina Login and Create Exam</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Elumina RegistrationInv and add User and Invigilator</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_11</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of "I Authorise" checkbox - To access Webcam, Microphone &amp; Terms &amp; Condition</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_34</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of Exam section page (Offline Exam validation)</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_39</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of submitting when the Candidate has not answered all Questions</t>
   </si>
 </sst>
 </file>
@@ -432,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C25"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -459,10 +565,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -470,32 +576,32 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -503,24 +609,205 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -20,42 +20,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_97,iEX_TC_ID_98,iEX_TC_ID_99,iEX_TC_ID_101,iEX_TC_ID_102,iEX_TC_ID_103,iEX_TC_ID_105</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of each component for all type of questions in Candidate flow.</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_54</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Exam section page.</t>
-  </si>
-  <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Validation of Exam Section &gt; Font Size </t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_64</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Exam Section &gt; Highlighter tool highlights save scenario 1</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Validation of Exam section &gt; Candidate attend the exam in normal flow </t>
   </si>
 </sst>
 </file>
@@ -432,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -446,83 +410,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -20,6 +20,148 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_1</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Elumina Login</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_1A</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Elumina Registration</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_3</t>
+  </si>
+  <si>
+    <t>@Smoke Verify CandidatesInvExam</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@SmokeValidation of user authentication by valid Candidate Creadentials
+</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_8</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of candidate choosing proctoring exam in dashboard</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_23</t>
+  </si>
+  <si>
+    <t>@iProctorlink Verify CandidatesExam</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_25</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_28</t>
+  </si>
+  <si>
+    <t>@iProctorlink Verify Elumina Invigilator Dashboard</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_56</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Validation of Invigilator Dashboard Proctor</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_57</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of Navigating to an exam from the dashboard to invigilate</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iProctorlink Verify Validation of "Start Exam" (All Candidates) Proctor </t>
+  </si>
+  <si>
+    <t>timedOut</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_59</t>
+  </si>
+  <si>
+    <t>@iProctorlink Verify Validation of "Lock Exam" from Live monitor Proctor</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_61</t>
+  </si>
+  <si>
+    <t>@iProctorlink Verify Validation of "Resume Exam" from Live monitor Proctor</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_64</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Validation of "Mark Attendance" (All Candidates) Proctor</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_70</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of Questions answered / Inprogress on the RHS of the Candidate page</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_71</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of all the events generated on the RHS of the Candidate page</t>
+  </si>
+  <si>
+    <t>Exam_Prerequisit_ID_01</t>
+  </si>
+  <si>
+    <t>@iProctorlink Verify Create Exam With Content Section and Content Section Page</t>
+  </si>
+  <si>
+    <t>Reg_Prerequisit_ID_01A</t>
+  </si>
+  <si>
+    <t>@iProctorlink Verify Elumina Registration</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_40</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Elumina Login and Create Exam</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Elumina RegistrationInv and add User and Invigilator</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_11</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of "I Authorise" checkbox - To access Webcam, Microphone &amp; Terms &amp; Condition</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_34</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of Exam section page (Offline Exam validation)</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_39</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of submitting when the Candidate has not answered all Questions</t>
   </si>
 </sst>
 </file>
@@ -396,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C25"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -410,6 +552,264 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,146 +22,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iProc_TC_ID_1</t>
-  </si>
-  <si>
-    <t>@Smoke Verify Elumina Login</t>
+    <t>iAU_TC_ID_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Centralize Login page (Negative Scenario 1) </t>
   </si>
   <si>
     <t>passed</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_1A</t>
-  </si>
-  <si>
-    <t>@Smoke Verify Elumina Registration</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_3</t>
-  </si>
-  <si>
-    <t>@Smoke Verify CandidatesInvExam</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@SmokeValidation of user authentication by valid Candidate Creadentials
-</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_8</t>
-  </si>
-  <si>
-    <t>@Smoke Validation of candidate choosing proctoring exam in dashboard</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_23</t>
-  </si>
-  <si>
-    <t>@iProctorlink Verify CandidatesExam</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_25</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_28</t>
-  </si>
-  <si>
-    <t>@iProctorlink Verify Elumina Invigilator Dashboard</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_56</t>
-  </si>
-  <si>
-    <t>@Smoke Verify Validation of Invigilator Dashboard Proctor</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_57</t>
-  </si>
-  <si>
-    <t>@Smoke Validation of Navigating to an exam from the dashboard to invigilate</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iProctorlink Verify Validation of "Start Exam" (All Candidates) Proctor </t>
-  </si>
-  <si>
-    <t>timedOut</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_59</t>
-  </si>
-  <si>
-    <t>@iProctorlink Verify Validation of "Lock Exam" from Live monitor Proctor</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_61</t>
-  </si>
-  <si>
-    <t>@iProctorlink Verify Validation of "Resume Exam" from Live monitor Proctor</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_64</t>
-  </si>
-  <si>
-    <t>@Smoke Verify Validation of "Mark Attendance" (All Candidates) Proctor</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_70</t>
-  </si>
-  <si>
-    <t>@Smoke Validation of Questions answered / Inprogress on the RHS of the Candidate page</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_71</t>
-  </si>
-  <si>
-    <t>@Smoke Validation of all the events generated on the RHS of the Candidate page</t>
-  </si>
-  <si>
-    <t>Exam_Prerequisit_ID_01</t>
-  </si>
-  <si>
-    <t>@iProctorlink Verify Create Exam With Content Section and Content Section Page</t>
-  </si>
-  <si>
-    <t>Reg_Prerequisit_ID_01A</t>
-  </si>
-  <si>
-    <t>@iProctorlink Verify Elumina Registration</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_40</t>
-  </si>
-  <si>
-    <t>@Smoke Verify Elumina Login and Create Exam</t>
-  </si>
-  <si>
-    <t>@Smoke Verify Elumina RegistrationInv and add User and Invigilator</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_11</t>
-  </si>
-  <si>
-    <t>@Smoke Validation of "I Authorise" checkbox - To access Webcam, Microphone &amp; Terms &amp; Condition</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_34</t>
-  </si>
-  <si>
-    <t>@Smoke Validation of Exam section page (Offline Exam validation)</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_39</t>
-  </si>
-  <si>
-    <t>@Smoke Validation of submitting when the Candidate has not answered all Questions</t>
   </si>
 </sst>
 </file>
@@ -538,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -560,253 +427,6 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,146 +22,61 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iProc_TC_ID_1</t>
-  </si>
-  <si>
-    <t>@Smoke Verify Elumina Login</t>
+    <t xml:space="preserve"> iAU_TC_ID_181</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
   </si>
   <si>
     <t>passed</t>
   </si>
   <si>
-    <t>iProc_TC_ID_1A</t>
-  </si>
-  <si>
-    <t>@Smoke Verify Elumina Registration</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_3</t>
-  </si>
-  <si>
-    <t>@Smoke Verify CandidatesInvExam</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@SmokeValidation of user authentication by valid Candidate Creadentials
-</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_8</t>
-  </si>
-  <si>
-    <t>@Smoke Validation of candidate choosing proctoring exam in dashboard</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_23</t>
-  </si>
-  <si>
-    <t>@iProctorlink Verify CandidatesExam</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_25</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_28</t>
-  </si>
-  <si>
-    <t>@iProctorlink Verify Elumina Invigilator Dashboard</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_56</t>
-  </si>
-  <si>
-    <t>@Smoke Verify Validation of Invigilator Dashboard Proctor</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_57</t>
-  </si>
-  <si>
-    <t>@Smoke Validation of Navigating to an exam from the dashboard to invigilate</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iProctorlink Verify Validation of "Start Exam" (All Candidates) Proctor </t>
+    <t xml:space="preserve"> iAU_TC_ID_181.,iAU_TC_ID_183</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request Verify Elumina RegistrationInv and add User and Invigilator</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Delete Users </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_182.,iAU_TC_ID_184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery--&gt; Delete Users (Negative Scenario) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_190</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery--&gt; Assign Venue and Booking Details</t>
   </si>
   <si>
     <t>timedOut</t>
   </si>
   <si>
-    <t>iProc_TC_ID_59</t>
-  </si>
-  <si>
-    <t>@iProctorlink Verify Validation of "Lock Exam" from Live monitor Proctor</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_61</t>
-  </si>
-  <si>
-    <t>@iProctorlink Verify Validation of "Resume Exam" from Live monitor Proctor</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_64</t>
-  </si>
-  <si>
-    <t>@Smoke Verify Validation of "Mark Attendance" (All Candidates) Proctor</t>
+    <t xml:space="preserve"> iAU_TC_ID_185</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Manage Delivery --&gt; Download User Details "</t>
   </si>
   <si>
     <t>failed</t>
   </si>
   <si>
-    <t>iProc_TC_ID_70</t>
-  </si>
-  <si>
-    <t>@Smoke Validation of Questions answered / Inprogress on the RHS of the Candidate page</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_71</t>
-  </si>
-  <si>
-    <t>@Smoke Validation of all the events generated on the RHS of the Candidate page</t>
-  </si>
-  <si>
-    <t>Exam_Prerequisit_ID_01</t>
-  </si>
-  <si>
-    <t>@iProctorlink Verify Create Exam With Content Section and Content Section Page</t>
-  </si>
-  <si>
-    <t>Reg_Prerequisit_ID_01A</t>
-  </si>
-  <si>
-    <t>@iProctorlink Verify Elumina Registration</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_40</t>
-  </si>
-  <si>
-    <t>@Smoke Verify Elumina Login and Create Exam</t>
-  </si>
-  <si>
-    <t>@Smoke Verify Elumina RegistrationInv and add User and Invigilator</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_11</t>
-  </si>
-  <si>
-    <t>@Smoke Validation of "I Authorise" checkbox - To access Webcam, Microphone &amp; Terms &amp; Condition</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_34</t>
-  </si>
-  <si>
-    <t>@Smoke Validation of Exam section page (Offline Exam validation)</t>
-  </si>
-  <si>
-    <t>iProc_TC_ID_39</t>
-  </si>
-  <si>
-    <t>@Smoke Validation of submitting when the Candidate has not answered all Questions</t>
+    <t xml:space="preserve"> iAU_TC_ID_189</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery--&gt; Generate Temp ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Bulk Download User Details </t>
   </si>
 </sst>
 </file>
@@ -538,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -604,210 +519,40 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,61 +22,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve"> iAU_TC_ID_181</t>
-  </si>
-  <si>
-    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
+    <t>iAU_TC_ID_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Centralize Login page (Negative Scenario 1) </t>
   </si>
   <si>
     <t>passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iAU_TC_ID_181.,iAU_TC_ID_183</t>
-  </si>
-  <si>
-    <t>@RegressionA Pre-Request Verify Elumina RegistrationInv and add User and Invigilator</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Delete Users </t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_182.,iAU_TC_ID_184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Manage Delivery--&gt; Delete Users (Negative Scenario) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iAU_TC_ID_190</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Manage Delivery--&gt; Assign Venue and Booking Details</t>
-  </si>
-  <si>
-    <t>timedOut</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iAU_TC_ID_185</t>
-  </si>
-  <si>
-    <t>@RegressionA "Validation of Manage Delivery --&gt; Download User Details "</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iAU_TC_ID_189</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Manage Delivery--&gt; Generate Temp ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iAU_TC_ID_187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Bulk Download User Details </t>
   </si>
 </sst>
 </file>
@@ -453,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -476,83 +428,6 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,13 +22,79 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Centralize Login page (Negative Scenario 1) </t>
+    <t xml:space="preserve"> iAU_TC_ID_181</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
   </si>
   <si>
     <t>passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_181.,iAU_TC_ID_183.,iAU_TC_ID_199</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request "Validation of Delivery --&gt; Add New Users"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Delete Users </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_190</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery--&gt; Assign Venue and Booking Details</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_182.,iAU_TC_ID_184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery--&gt; Delete Users (Negative Scenario) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_185.,iAU_TC_ID_186</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery --&gt; Download User Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_189</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery--&gt; Generate Temp ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_196</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery--&gt; Reset Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_198</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery --  Exam Administrator Manages Special Consideration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_187.,iAU_TC_ID_195.,iAU_TC_ID_200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Bulk Download User Details , Validation of Delivery --&gt; Add New Users(Negative scenario) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_201</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery --&gt; Add Existing Users</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_197</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery --&gt; Bulk Candidate Response Download</t>
   </si>
 </sst>
 </file>
@@ -405,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -430,6 +496,127 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="138">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,13 +22,412 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Centralize Login page (Negative Scenario 1) </t>
+    <t>iEX_TC_ID_010</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Sign out at Exam Start Page</t>
   </si>
   <si>
     <t>passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of user authentication by valid Candidate Creadentials</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Sign out at Candidate Dashboard Page</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validate login with inactive user</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Empty Field validation</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Candidate Start Exam</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Candidate App Dashboard Details</t>
+  </si>
+  <si>
+    <t>@iExamRegression Password will not be asked after clicking on "Start Exam"</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of multiple candidate trying to login to same Exam</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Browser back button on Candidate Dashboard</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of  function keys on Candidate Dashboard</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Browser Reload option on Candidate Dashboard</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Changing Font Size to Decrease on the Dashboard</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Changing Font Size to increase on the Dashboard</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of the "Timer" - After clicking on "Start Exam" Button</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Browser back button after Exam Starts</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_224</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of  function keys after Exam Starts</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Browser Reload option after Exam Starts</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_225</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Candidate while attending exam - Offline - try to press any F1 to F12 keys</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of abrupt closure of browser</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Flag for Review</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Updated cloud symbol</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Candidate is able to close the broswer and answered questions are saved after logging in again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of the following in the Exam Section
+Exam name, Candidate name, Exam timer, no of questions as per exam created EluminaRegressioniExamTC_051</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_59</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify candidate adds and saves Notes EluminaRegressioniExamTC_038</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of "Time Remaining" pop-up when the just before the exam time runs out</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of candidate able to submit the exam when not answering all questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of using Calculator EluminaRegressioniExamTC_039 </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_97,iEX_TC_ID_98,iEX_TC_ID_99,iEX_TC_ID_101,iEX_TC_ID_102,iEX_TC_ID_103,iEX_TC_ID_105</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of each component for all type of questions in Candidate flow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of using Highlighter EluminaRegressioniExamTC_040 </t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate attends All Question type</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of VSAQ Question type EluminaRegressioniExamTC_043</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Exam content page -&gt;Timer verification in all pages </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_54</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam section page.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Exam Section &gt; Font Size </t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Timer Expires Alert Box  in Exam Content page</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validate the Exam sheet where the Question numbers are displayed are Gray by Default</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_69,iEX_TC_ID_240</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam Section &gt; Question and Answer save navigation validation using Previous / Next buttons.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_64</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam Section &gt; Highlighter tool highlights save scenario 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validate the Exam sheet where the Question numbers are displayed in Red, when Flag for Review is selected
+Verification of Timer Expires Alert Box  in Exam Content page</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate dashboard - Exam scheduled Date / Time is over EluminaRegressioniExamTC_024</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate dashboard - Exam scheduled Date / Time is over EluminaRegressioniExamTC_024A</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validate the Exam sheet where the Question numbers are displayed in Orange when In Progress</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Exam section &gt; Candidate attend the exam in normal flow </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_79</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate attends All Question type in offline</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Exam content section page contents and details</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Exam content page - Timer Validation (Before Timer Expires)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validate the Exam sheet where the Question numbers are displayed in Pink, when Notes are added while answering </t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Exam content page - Scroll bar</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Exam content page  - Check box</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of login for invigilator for Invalid credential</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of login for invigilator for valid credential</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_242,243,61</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate attend Practice Exam</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Invigilator marks attendance for All candidates</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_95</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_25D</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Login Application for PM</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Invigilator Dashboard after the Exam Completion by candidate (once the time exceeds)</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_57</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam Section&gt; Image viewer</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_199</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validate auto response when chat is initiated out of working hours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of Invigilator Dashboard </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_236</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Candidate dashboard &gt; Exam scheduled Date / Time is over.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Candidate dashboard &gt; with Unassigned / Cancelled Exam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of Survey screen and Validate Survey screen where candidate
+    can provide feedback in comment section TC-084 and TC-085</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_92</t>
+  </si>
+  <si>
+    <t>@iExamRegression Survey section &gt; Flag for review.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_032</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_91</t>
+  </si>
+  <si>
+    <t>@iExamRegression Survey section &gt; validate exam name, candidate name, exam timer, no of questions is as per exam settings.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_93</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Survey section &gt; Before Exam Time Expires</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Client Logo and name, color, font size and font type of different elements in the login page</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_5</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of User Id Field</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_6</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Password popup Field</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_77</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam section &gt; Candidate attend the exam by answering the questions randomly (Example: Monkey Jump)</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Login using Invalid credentials Scenario 1 TC-09</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Login using Invalid credentials Scenario 2 TC-10</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_89</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam section &gt; After Exam Time Expires</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_229</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Login using valid credentials in browser offline</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Sign out at Candidate Dashboard Page TC-14</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Sign out at Exam Start Page TC-15</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_89A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Exam section &gt; After Exam Time Expires </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_60</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify candidate adds and saves Notes EluminaRegressioniExamTC_038</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_94</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Survey section &gt; After Exam Time Expires</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate Dashboard page - Chat App</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate dashboard &gt; Exam Start page Font size validation</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content section &gt;  Chat App</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; Questions download at content section-&gt; Browser shut down</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; (Terms &amp; Conditions) Font size validation TC-33</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Exam section page  &gt; Chat App</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of copy paste in password field</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Candidate while attending exam - Online - try to press any F1 to F12 keys TC-201</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; Questions download at content section-&gt; Browser shut down TC-40</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_198</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validate when user go offline while using chat app.</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases No other key combinations could cause the candidates to logout and/or lose data TC-205</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of textbox capabilities of chat app</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of multiple candidate trying to login to same Exam</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_53</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; Questions download at content section-&gt; Candidate goes offline</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Candidate attends All Question type</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate Attending Exam in Online (Abort and Resume Exam)</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation Candidate Login again</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_108,iEX_TC_ID_115</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate attending Exam in Online - Offline and submit in Offline Mode</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Review Exam page  &gt; Chat App TC-173</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Submit Exam page  &gt; Chat App TC-173</t>
   </si>
 </sst>
 </file>
@@ -405,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C102"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -430,6 +829,1106 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>126</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>128</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>137</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve"> iAU_TC_ID_181</t>
+    <t xml:space="preserve"> iAU_TC_ID_205</t>
   </si>
   <si>
     <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
@@ -31,70 +31,25 @@
     <t>passed</t>
   </si>
   <si>
-    <t xml:space="preserve"> iAU_TC_ID_181.,iAU_TC_ID_183.,iAU_TC_ID_199</t>
-  </si>
-  <si>
     <t>@RegressionA Pre-Request "Validation of Delivery --&gt; Add New Users"</t>
   </si>
   <si>
-    <t>iAU_TC_ID_181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Delete Users </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iAU_TC_ID_190</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Manage Delivery--&gt; Assign Venue and Booking Details</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_182.,iAU_TC_ID_184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Manage Delivery--&gt; Delete Users (Negative Scenario) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iAU_TC_ID_185.,iAU_TC_ID_186</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Manage Delivery --&gt; Download User Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iAU_TC_ID_189</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Manage Delivery--&gt; Generate Temp ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iAU_TC_ID_196</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Manage Delivery--&gt; Reset Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iAU_TC_ID_198</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Manage Delivery --  Exam Administrator Manages Special Consideration</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iAU_TC_ID_187.,iAU_TC_ID_195.,iAU_TC_ID_200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Bulk Download User Details , Validation of Delivery --&gt; Add New Users(Negative scenario) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iAU_TC_ID_201</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Delivery --&gt; Add Existing Users</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iAU_TC_ID_197</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Manage Delivery --&gt; Bulk Candidate Response Download</t>
+    <t>iAU_TC_ID_180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Edit user </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery --&gt; Venue Summary </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery --&gt; Live Monitor Dashboard </t>
   </si>
 </sst>
 </file>
@@ -471,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -498,10 +453,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -509,10 +464,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -520,10 +475,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -531,89 +486,12 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
         <v>5</v>
       </c>
     </row>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,34 +22,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve"> iAU_TC_ID_205</t>
-  </si>
-  <si>
-    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
+    <t>iAU_TC_ID_131</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – Start from scratch(Negative Scenario)</t>
   </si>
   <si>
     <t>passed</t>
-  </si>
-  <si>
-    <t>@RegressionA Pre-Request "Validation of Delivery --&gt; Add New Users"</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Edit user </t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Delivery --&gt; Venue Summary </t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Delivery --&gt; Live Monitor Dashboard </t>
   </si>
 </sst>
 </file>
@@ -426,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -448,50 +427,6 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,34 +22,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve"> iAU_TC_ID_205</t>
-  </si>
-  <si>
-    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
-  </si>
-  <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>@RegressionA Pre-Request "Validation of Delivery --&gt; Add New Users"</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Edit user </t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Delivery --&gt; Venue Summary </t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Delivery --&gt; Live Monitor Dashboard </t>
+    <t>iAU_TC_ID_48</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (Type-B) - Negative Scenario.</t>
+  </si>
+  <si>
+    <t>timedOut</t>
   </si>
 </sst>
 </file>
@@ -426,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -448,50 +427,6 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -22,13 +22,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_48</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Create Question (Type-B) - Negative Scenario.</t>
-  </si>
-  <si>
-    <t>timedOut</t>
+    <t>iAU_TC_ID_131</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – Start from scratch(Negative Scenario)</t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
 </sst>
 </file>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -22,10 +22,10 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_131</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Create Exam – Start from scratch(Negative Scenario)</t>
+    <t>iAU_TC_ID_123</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Version History</t>
   </si>
   <si>
     <t>passed</t>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,13 +22,22 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_131</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Create Exam – Start from scratch(Negative Scenario)</t>
+    <t xml:space="preserve"> iAU_TC_ID_212</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
   </si>
   <si>
     <t>passed</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request "Validation of Delivery --&gt; Add New Users"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery--&gt; Live Monitor all exam status  </t>
   </si>
 </sst>
 </file>
@@ -405,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -427,6 +436,28 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,22 +22,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve"> iAU_TC_ID_212</t>
-  </si>
-  <si>
-    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
+    <t>iAU_TC_ID_123</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Version History</t>
   </si>
   <si>
     <t>passed</t>
-  </si>
-  <si>
-    <t>@RegressionA Pre-Request "Validation of Delivery --&gt; Add New Users"</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Delivery--&gt; Live Monitor all exam status  </t>
   </si>
 </sst>
 </file>
@@ -414,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -436,28 +427,6 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,13 +22,34 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_123</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Blueprint Version History</t>
+    <t xml:space="preserve"> iAU_TC_ID_212</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
   </si>
   <si>
     <t>passed</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request "Validation of Delivery --&gt; Add New Users"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_218</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Live Monitor - Candidate answer response Validation</t>
+  </si>
+  <si>
+    <t>timedOut</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_219</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Live Monitor - Live Streaming page</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
 </sst>
 </file>
@@ -405,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -428,6 +449,39 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -22,10 +22,10 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_123</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Blueprint Version History</t>
+    <t>iAU_TC_ID_169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Print </t>
   </si>
   <si>
     <t>passed</t>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,13 +22,34 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Exam Print </t>
+    <t xml:space="preserve"> iAU_TC_ID_212</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
   </si>
   <si>
     <t>passed</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request "Validation of Delivery --&gt; Add New Users"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_218</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Live Monitor - Candidate answer response Validation</t>
+  </si>
+  <si>
+    <t>timedOut</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_219</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Live Monitor - Live Streaming page</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
 </sst>
 </file>
@@ -405,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -428,6 +449,39 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,34 +22,16 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve"> iAU_TC_ID_212</t>
-  </si>
-  <si>
-    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
+    <t>iAU_TC_ID_250</t>
+  </si>
+  <si>
+    <t>@RegressionA Prerequisite Validation of Exam Approve"</t>
   </si>
   <si>
     <t>passed</t>
   </si>
   <si>
-    <t>@RegressionA Pre-Request "Validation of Delivery --&gt; Add New Users"</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_218</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Delivery--&gt; Live Monitor - Candidate answer response Validation</t>
-  </si>
-  <si>
-    <t>timedOut</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_219</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Delivery--&gt; Live Monitor - Live Streaming page</t>
-  </si>
-  <si>
-    <t>failed</t>
+    <t>@RegressionA Validation of Exam Approve</t>
   </si>
 </sst>
 </file>
@@ -426,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,28 +442,6 @@
       </c>
       <c r="C3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,16 +22,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_250</t>
-  </si>
-  <si>
-    <t>@RegressionA Prerequisite Validation of Exam Approve"</t>
-  </si>
-  <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Exam Approve</t>
+    <t>iAU_TC_ID_245</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Submit for Approval</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
 </sst>
 </file>
@@ -408,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -430,17 +427,6 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,16 +22,28 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_250</t>
-  </si>
-  <si>
-    <t>@RegressionA Prerequisite Validation of Exam Approve"</t>
+    <t xml:space="preserve"> iAU_TC_ID_239</t>
+  </si>
+  <si>
+    <t>Exam_Prerequisit_for_iAU_TC_ID_239</t>
   </si>
   <si>
     <t>passed</t>
   </si>
   <si>
-    <t>@RegressionA Validation of Exam Approve</t>
+    <t>iAU_TC_ID_239</t>
+  </si>
+  <si>
+    <t>@RegressionA candidate answering questions</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_240</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Marker score card</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
 </sst>
 </file>
@@ -408,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -435,13 +447,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,25 +22,10 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve"> iAU_TC_ID_239</t>
-  </si>
-  <si>
-    <t>Exam_Prerequisit_for_iAU_TC_ID_239</t>
-  </si>
-  <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_239</t>
-  </si>
-  <si>
-    <t>@RegressionA candidate answering questions</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_240</t>
-  </si>
-  <si>
-    <t>@RegressionA Verify Marker score card</t>
+    <t>iAU_TC_ID_245</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Submit for Approval</t>
   </si>
   <si>
     <t>failed</t>
@@ -420,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -443,50 +428,6 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -22,13 +22,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_245</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Exam Submit for Approval</t>
-  </si>
-  <si>
-    <t>failed</t>
+    <t>iAU_TC_ID_107</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprints list page</t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
 </sst>
 </file>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,13 +22,25 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_245</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Exam Submit for Approval</t>
+    <t>iAU_TC_ID_250</t>
+  </si>
+  <si>
+    <t>@RegressionA Prerequisite Validation of Exam Approve"</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_127</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exams list page</t>
   </si>
   <si>
     <t>failed</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Approve</t>
   </si>
 </sst>
 </file>
@@ -405,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -428,6 +440,28 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,25 +22,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_250</t>
-  </si>
-  <si>
-    <t>@RegressionA Prerequisite Validation of Exam Approve"</t>
+    <t>iAU_TC_ID_107</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprints list page</t>
   </si>
   <si>
     <t>passed</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_127</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Exams list page</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Exam Approve</t>
   </si>
 </sst>
 </file>
@@ -417,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -440,28 +428,6 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -22,10 +22,10 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_107</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Blueprints list page</t>
+    <t>iAU_TC_ID_108</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprints list page(Negative Scenario)</t>
   </si>
   <si>
     <t>passed</t>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,13 +22,49 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_108</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Blueprints list page(Negative Scenario)</t>
+    <t xml:space="preserve"> iAU_TC_ID_239</t>
+  </si>
+  <si>
+    <t>Exam_Prerequisit_for_iAU_TC_ID_239</t>
   </si>
   <si>
     <t>passed</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_239</t>
+  </si>
+  <si>
+    <t>@RegressionA candidate answering questions</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_218</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Delivery--&gt; Marking"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_240.,iAU_TC_ID_241</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Marker score card</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_221.,iAU_TC_ID_222</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Elumina</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_242</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Elumina Markers</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_227</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
 </sst>
 </file>
@@ -405,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -430,6 +466,94 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="276">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,13 +22,845 @@
     <t>Status</t>
   </si>
   <si>
+    <t>@RegressionA Validation of Assess App URL</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Client Logo and name, color, font size and font type of different elements in the login page</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Empty Field validation</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Password Masking</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of User Id Field</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of password Field</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Login using valid credentials with Username and Password</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Login using Invalid credentials Scenario 1</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Login using Invalid credentials Scenario 3</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of copy paste in password field </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_13</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Login using valid credentials in browser offline</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Centralize Login page (Negative Scenario 1) </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_21</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Login page (Negative Scenario 2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_26</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Rate Limit Login</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question list page</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_17</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Centralize Login page</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question &gt; Choose question</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (MCQ-SBA)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_33</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (MCQ/Type A)-Negative Scenario</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (VSAQ)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_36</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (VSAQ)-Negative Scenario</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (ISAWE)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Questions list page(Negative Scenario) </t>
+  </si>
+  <si>
+    <t>timedOut</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_38</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (ISAWE)-Negative Scenario.</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (SAQ / Essay)</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (Type-X)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_48</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (Type-B) - Negative Scenario.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_40</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (SAQ / Essay) - Negative Scenario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Create Question (SJT)/ Rating </t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (Type-B)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_62</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (SJT)/ Rating - Negative Scenario.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_94</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Edit Question(Negative Scenarios)".</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_96</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Checkout and delete which is attached to the Approved / Archived Exam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Question Preview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Edit Question </t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question checkout</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_100</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Approval Workflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Question Save as New version  </t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Duplicate</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Preview</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question  Delete</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_107</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprints list page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Statistics </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_106B</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Statistics</t>
+  </si>
+  <si>
     <t>iAU_TC_ID_108</t>
   </si>
   <si>
     <t>@RegressionA Validation of Blueprints list page(Negative Scenario)</t>
   </si>
   <si>
-    <t>passed</t>
+    <t>iAU_TC_ID_110</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Create Blueprint(Negative Scenarios)"</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit Blueprint</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Add Multiple cart in one blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_113</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Edit Blueprint(Negative Scenarios)".</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_118</t>
+  </si>
+  <si>
+    <t>@RegressionA ""Validation of Blueprint  Archive(only for Approved Blueprints)"</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Edit Blueprint Add question Cart"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Blueprint  Archive Negative scenario (only for Approved Blueprints)
+Archive Blueprint used in up coming exam"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_115</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Edit Blueprint View Cart"</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Duplicate Blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_121</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Preview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Blueprint Save as New version </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_123</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Version History</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_129</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – How do you want to get started ?:</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_130</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – Start from scratch</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_131</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – Start from scratch(Negative Scenario)</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delete Blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 1 -
+Add 1x Session (i.e AM Session)and 1x Section (i.e Exam Section Only)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_126</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint  Direct workflow</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 2 -
+Add 1x Session (i.e AM Session) and 2x Section( i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 3 -  Add 1x Session (i.e AM Session) and
+Add 3 sections (i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Create Exam – Copy an existing exam </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 1 -
+Add 1x Session (i.e Exam Section Only)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 5 -
+Add 2x sessions  (i.e AM and PM Sessions (with duplicate sections)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 4 - Add 1x Session (i.e AM Session) and
+Add 4x sections (i.e Content + Exam 1 Section + Exam 2 Section + Exam 3 Section + Survey Section)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 2 -
+Add 2x Sessions ( i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 3 -
+Add 3 sections (i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 4 -
+Add 4x sections (i.e Content + Exam 1 Section + Exam 2 Section + Exam 3 Section + Survey Section)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_136B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 5 -
+Add 2x sessions (with duplicate sections)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 5 -
+Add 2x sessions (with duplicate sections)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Create Exam – Copy from template </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_142B</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Blueprint  Approval Workflow </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_147</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_145</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_149</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_148</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_153</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – How do you want to get started? - Using Blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_151</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_150</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 1 -
+Add 1x Session (i.e Exam Section Only)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 2 -
+Add 2x Sessions ( i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_151B</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 3 -
+Add 3 sections (i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_159</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit an Exam ( Previleges: Applicable only for Exam Admin)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Choose Question Scenario- 4 -
+Add 4x sections (i.e Content + Exam 1 Section + Exam 2 Section + Exam 3 Section + Survey Section)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_160</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit an Exam Section ( Previleges: Applicable only for Exam Admin)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_161</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit Exam (Negative Scenario)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_158</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Duplicate </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Exam Preview(PDF) " </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Exam Preview(WEB) " </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Exam Preview
+( Reviewer, Approver, Examiner) "</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_168</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Verify image size, image Quality and resolution</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Save as New version </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Print </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Version History </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Delete </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_158B</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_173</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Checkout</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_175</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery list page(Negative scenario)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_172</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Export</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_176</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery-&gt;Manage Delivery page via Exam name link.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_171</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Archive</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_174</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery list page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_181</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_177</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery-&gt;Manage Delivery page via more (...)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_178</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery page Left side Panel</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_207</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Delivery--&gt; Live Dashboard filters"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_192</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_181.,iAU_TC_ID_183.,iAU_TC_ID_199</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request "Validation of Delivery --&gt; Add New Users"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Delete Users </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_192.,iAU_TC_ID_193.,iAU_TC_ID_194</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_205</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_212</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_217</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Live Monitor - Candidate answer response Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_190</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery--&gt; Assign Venue and Booking Details</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_179</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Edit user </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery --&gt; Venue Summary </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_212.,iAU_TC_ID_213.,iAU_TC_ID_216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery --&gt; Live Monitor </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_182.,iAU_TC_ID_184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery--&gt; Delete Users (Negative Scenario) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iAU_TC_ID_206.,iAU_TC_ID_210.,iAU_TC_ID_209.,iAU_TC_ID_211 @RegressionA Validation of Delivery --&gt; Live Dashboard </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_219</t>
+  </si>
+  <si>
+    <t>Exam_Prerequisit_for_iAU_TC_ID_219</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_214.,iAU_TC_ID_215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery--&gt; Live Monitor all exam status  </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_218</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_185.,iAU_TC_ID_186</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery --&gt; Download User Details</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_219.,iAU_TC_ID_220</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_219</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Live Monitor - Live Streaming page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery –-&gt; Bulk Upload Users(Negative scenario)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_189</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery--&gt; Generate Temp ID</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_203</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Bulk Upload Users - Sample csv  file</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_196</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery--&gt; Reset Password</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_226</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Gradebook list page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_239</t>
+  </si>
+  <si>
+    <t>Exam_Prerequisit_for_iAU_TC_ID_239</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_198</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery --  Exam Administrator Manages Special Consideration</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_252</t>
+  </si>
+  <si>
+    <t>@RegressionA (iAU_TC_ID_152)Prerequisite Validation of Exam Workflow"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_187.,iAU_TC_ID_195.,iAU_TC_ID_200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Bulk Download User Details , Validation of Delivery --&gt; Add New Users(Negative scenario) </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_239</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_201</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery --&gt; Add Existing Users</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_223</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Delivery--&gt; Workflow"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_197</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery --&gt; Bulk Candidate Response Download</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_243</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation Question of Submit for Approval</t>
+  </si>
+  <si>
+    <t>@RegressionA candidate answering questions</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_248</t>
+  </si>
+  <si>
+    <t>@RegressionA Prerequisite Validation of Create Question (MCQ-SBA)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_244</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Submit for Approval</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_245</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Submit for Approval</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation Question Approve</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_250</t>
+  </si>
+  <si>
+    <t>@RegressionA Prerequisite Validation of Exam Approve"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_127</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exams list page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_128</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exams list page &gt; Negative Scenario</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Approve</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_240.,iAU_TC_ID_241</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Marker score card</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_221.,iAU_TC_ID_222</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Elumina</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_249</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_242</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Elumina Markers</t>
+  </si>
+  <si>
+    <t>@RegressionA (iAU_TC_ID_152)Validation of Exam Approve</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Approve</t>
   </si>
 </sst>
 </file>
@@ -405,7 +1237,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C177"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -423,11 +1255,1828 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>119</v>
+      </c>
+      <c r="B81" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>125</v>
+      </c>
+      <c r="B84" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" t="s">
+        <v>124</v>
+      </c>
+      <c r="C92" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>137</v>
+      </c>
+      <c r="B93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>140</v>
+      </c>
+      <c r="B95" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>142</v>
+      </c>
+      <c r="B96" t="s">
+        <v>124</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>145</v>
+      </c>
+      <c r="B98" t="s">
+        <v>146</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99" t="s">
+        <v>148</v>
+      </c>
+      <c r="C99" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>149</v>
+      </c>
+      <c r="B100" t="s">
+        <v>150</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>151</v>
+      </c>
+      <c r="B101" t="s">
+        <v>152</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>153</v>
+      </c>
+      <c r="B102" t="s">
+        <v>122</v>
+      </c>
+      <c r="C102" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" t="s">
+        <v>155</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>156</v>
+      </c>
+      <c r="B104" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" t="s">
+        <v>159</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" t="s">
+        <v>161</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" t="s">
+        <v>163</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>164</v>
+      </c>
+      <c r="B108" t="s">
+        <v>165</v>
+      </c>
+      <c r="C108" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109" t="s">
+        <v>167</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>168</v>
+      </c>
+      <c r="B110" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>170</v>
+      </c>
+      <c r="B111" t="s">
+        <v>171</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>172</v>
+      </c>
+      <c r="B112" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>173</v>
+      </c>
+      <c r="B113" t="s">
+        <v>174</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>175</v>
+      </c>
+      <c r="B114" t="s">
+        <v>176</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>177</v>
+      </c>
+      <c r="B115" t="s">
+        <v>178</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>179</v>
+      </c>
+      <c r="B116" t="s">
+        <v>180</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>181</v>
+      </c>
+      <c r="B117" t="s">
+        <v>182</v>
+      </c>
+      <c r="C117" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>183</v>
+      </c>
+      <c r="B118" t="s">
+        <v>184</v>
+      </c>
+      <c r="C118" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>185</v>
+      </c>
+      <c r="B119" t="s">
+        <v>186</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>187</v>
+      </c>
+      <c r="B120" t="s">
+        <v>188</v>
+      </c>
+      <c r="C120" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>189</v>
+      </c>
+      <c r="B121" t="s">
+        <v>190</v>
+      </c>
+      <c r="C121" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>191</v>
+      </c>
+      <c r="B122" t="s">
+        <v>192</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>193</v>
+      </c>
+      <c r="B123" t="s">
+        <v>186</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>194</v>
+      </c>
+      <c r="B124" t="s">
+        <v>195</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>196</v>
+      </c>
+      <c r="B125" t="s">
+        <v>197</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>198</v>
+      </c>
+      <c r="B126" t="s">
+        <v>195</v>
+      </c>
+      <c r="C126" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>199</v>
+      </c>
+      <c r="B127" t="s">
+        <v>186</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>200</v>
+      </c>
+      <c r="B128" t="s">
+        <v>186</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>199</v>
+      </c>
+      <c r="B129" t="s">
+        <v>195</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>200</v>
+      </c>
+      <c r="B130" t="s">
+        <v>195</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>201</v>
+      </c>
+      <c r="B131" t="s">
+        <v>202</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>203</v>
+      </c>
+      <c r="B132" t="s">
+        <v>204</v>
+      </c>
+      <c r="C132" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>205</v>
+      </c>
+      <c r="B133" t="s">
+        <v>188</v>
+      </c>
+      <c r="C133" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>200</v>
+      </c>
+      <c r="B134" t="s">
+        <v>186</v>
+      </c>
+      <c r="C134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>206</v>
+      </c>
+      <c r="B135" t="s">
+        <v>207</v>
+      </c>
+      <c r="C135" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>208</v>
+      </c>
+      <c r="B136" t="s">
+        <v>209</v>
+      </c>
+      <c r="C136" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>200</v>
+      </c>
+      <c r="B137" t="s">
+        <v>195</v>
+      </c>
+      <c r="C137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>210</v>
+      </c>
+      <c r="B138" t="s">
+        <v>211</v>
+      </c>
+      <c r="C138" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>212</v>
+      </c>
+      <c r="B139" t="s">
+        <v>213</v>
+      </c>
+      <c r="C139" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>214</v>
+      </c>
+      <c r="C140" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>215</v>
+      </c>
+      <c r="B141" t="s">
+        <v>216</v>
+      </c>
+      <c r="C141" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>217</v>
+      </c>
+      <c r="B142" t="s">
+        <v>218</v>
+      </c>
+      <c r="C142" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>219</v>
+      </c>
+      <c r="B143" t="s">
+        <v>202</v>
+      </c>
+      <c r="C143" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>220</v>
+      </c>
+      <c r="B144" t="s">
+        <v>221</v>
+      </c>
+      <c r="C144" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>222</v>
+      </c>
+      <c r="B145" t="s">
+        <v>216</v>
+      </c>
+      <c r="C145" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>223</v>
+      </c>
+      <c r="B146" t="s">
+        <v>224</v>
+      </c>
+      <c r="C146" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>225</v>
+      </c>
+      <c r="B147" t="s">
+        <v>226</v>
+      </c>
+      <c r="C147" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>227</v>
+      </c>
+      <c r="B148" t="s">
+        <v>228</v>
+      </c>
+      <c r="C148" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>229</v>
+      </c>
+      <c r="B149" t="s">
+        <v>230</v>
+      </c>
+      <c r="C149" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>231</v>
+      </c>
+      <c r="B150" t="s">
+        <v>232</v>
+      </c>
+      <c r="C150" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>233</v>
+      </c>
+      <c r="B151" t="s">
+        <v>234</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>235</v>
+      </c>
+      <c r="B152" t="s">
+        <v>236</v>
+      </c>
+      <c r="C152" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>237</v>
+      </c>
+      <c r="B153" t="s">
+        <v>238</v>
+      </c>
+      <c r="C153" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>239</v>
+      </c>
+      <c r="B154" t="s">
+        <v>240</v>
+      </c>
+      <c r="C154" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>241</v>
+      </c>
+      <c r="B155" t="s">
+        <v>242</v>
+      </c>
+      <c r="C155" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>243</v>
+      </c>
+      <c r="B156" t="s">
+        <v>236</v>
+      </c>
+      <c r="C156" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>244</v>
+      </c>
+      <c r="B157" t="s">
+        <v>245</v>
+      </c>
+      <c r="C157" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>246</v>
+      </c>
+      <c r="B158" t="s">
+        <v>247</v>
+      </c>
+      <c r="C158" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>248</v>
+      </c>
+      <c r="B159" t="s">
+        <v>249</v>
+      </c>
+      <c r="C159" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>250</v>
+      </c>
+      <c r="B160" t="s">
+        <v>251</v>
+      </c>
+      <c r="C160" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>243</v>
+      </c>
+      <c r="B161" t="s">
+        <v>252</v>
+      </c>
+      <c r="C161" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>243</v>
+      </c>
+      <c r="B162" t="s">
+        <v>236</v>
+      </c>
+      <c r="C162" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>253</v>
+      </c>
+      <c r="B163" t="s">
+        <v>254</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>255</v>
+      </c>
+      <c r="B164" t="s">
+        <v>256</v>
+      </c>
+      <c r="C164" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>257</v>
+      </c>
+      <c r="B165" t="s">
+        <v>258</v>
+      </c>
+      <c r="C165" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>253</v>
+      </c>
+      <c r="B166" t="s">
+        <v>259</v>
+      </c>
+      <c r="C166" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>260</v>
+      </c>
+      <c r="B167" t="s">
+        <v>261</v>
+      </c>
+      <c r="C167" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>262</v>
+      </c>
+      <c r="B168" t="s">
+        <v>263</v>
+      </c>
+      <c r="C168" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>264</v>
+      </c>
+      <c r="B169" t="s">
+        <v>265</v>
+      </c>
+      <c r="C169" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>239</v>
+      </c>
+      <c r="B170" t="s">
+        <v>240</v>
+      </c>
+      <c r="C170" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>260</v>
+      </c>
+      <c r="B171" t="s">
+        <v>266</v>
+      </c>
+      <c r="C171" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>267</v>
+      </c>
+      <c r="B172" t="s">
+        <v>268</v>
+      </c>
+      <c r="C172" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>269</v>
+      </c>
+      <c r="B173" t="s">
+        <v>270</v>
+      </c>
+      <c r="C173" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>271</v>
+      </c>
+      <c r="B174" t="s">
+        <v>74</v>
+      </c>
+      <c r="C174" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>272</v>
+      </c>
+      <c r="B175" t="s">
+        <v>273</v>
+      </c>
+      <c r="C175" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>239</v>
+      </c>
+      <c r="B176" t="s">
+        <v>274</v>
+      </c>
+      <c r="C176" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>271</v>
+      </c>
+      <c r="B177" t="s">
+        <v>275</v>
+      </c>
+      <c r="C177" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,49 +22,34 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve"> iAU_TC_ID_239</t>
-  </si>
-  <si>
-    <t>Exam_Prerequisit_for_iAU_TC_ID_239</t>
+    <t xml:space="preserve"> iAU_TC_ID_205</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
   </si>
   <si>
     <t>passed</t>
   </si>
   <si>
-    <t>iAU_TC_ID_239</t>
-  </si>
-  <si>
-    <t>@RegressionA candidate answering questions</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_218</t>
-  </si>
-  <si>
-    <t>@RegressionA "Validation of Delivery--&gt; Marking"</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_240.,iAU_TC_ID_241</t>
-  </si>
-  <si>
-    <t>@RegressionA Verify Marker score card</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_221.,iAU_TC_ID_222</t>
-  </si>
-  <si>
-    <t>@RegressionA Verify Elumina</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_242</t>
-  </si>
-  <si>
-    <t>@RegressionA Verify Elumina Markers</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_227</t>
-  </si>
-  <si>
-    <t>failed</t>
+    <t>@RegressionA Pre-Request "Validation of Delivery --&gt; Add New Users"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Edit user </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery --&gt; Venue Summary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iAU_TC_ID_206.,iAU_TC_ID_210.,iAU_TC_ID_209.,iAU_TC_ID_211 @RegressionA Validation of Delivery --&gt; Live Dashboard </t>
+  </si>
+  <si>
+    <t>timedOut</t>
   </si>
 </sst>
 </file>
@@ -441,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -468,10 +453,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -479,10 +464,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -490,10 +475,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -501,57 +486,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="203">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,49 +22,608 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve"> iAU_TC_ID_239</t>
-  </si>
-  <si>
-    <t>Exam_Prerequisit_for_iAU_TC_ID_239</t>
+    <t>iEX_TC_ID_14</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validate login with inactive user</t>
   </si>
   <si>
     <t>passed</t>
   </si>
   <si>
-    <t>iAU_TC_ID_239</t>
-  </si>
-  <si>
-    <t>@RegressionA candidate answering questions</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_218</t>
-  </si>
-  <si>
-    <t>@RegressionA "Validation of Delivery--&gt; Marking"</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_240.,iAU_TC_ID_241</t>
-  </si>
-  <si>
-    <t>@RegressionA Verify Marker score card</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_221.,iAU_TC_ID_222</t>
-  </si>
-  <si>
-    <t>@RegressionA Verify Elumina</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_242</t>
-  </si>
-  <si>
-    <t>@RegressionA Verify Elumina Markers</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_227</t>
+    <t>iEX_TC_ID_9</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of user authentication by valid Candidate Creadentials</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_16</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Sign out at Candidate Dashboard Page</t>
   </si>
   <si>
     <t>failed</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_10</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Sign out at Exam Start Page</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_20</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Candidate Start Exam</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_4</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Empty Field validation</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_19</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Candidate App Dashboard Details</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_31</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Browser back button on Candidate Dashboard</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_22,iEX_TC_ID_78</t>
+  </si>
+  <si>
+    <t>@iExamRegression Password will not be asked after clicking on "Start Exam"</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_18</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of multiple candidate trying to login to same Exam</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_34</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of  function keys on Candidate Dashboard</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_36</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Changing Font Size to increase on the Dashboard</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_33</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Browser Reload option on Candidate Dashboard</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_45</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of the "Timer" - After clicking on "Start Exam" Button</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_36B</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Changing Font Size to Decrease on the Dashboard</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_32,iEX_TC_ID_42</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Browser back button after Exam Starts</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_43</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of  function keys after Exam Starts</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_41</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Browser Reload option after Exam Starts</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_225</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Candidate while attending exam - Offline - try to press any F1 to F12 keys</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_50</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Updated cloud symbol</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_56,iEX_TC_ID_212</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of abrupt closure of browser</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_74</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Flag for Review</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_55,iEX_TC_ID_238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of the following in the Exam Section
+Exam name, Candidate name, Exam timer, no of questions as per exam created EluminaRegressioniExamTC_051</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_59</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify candidate adds and saves Notes EluminaRegressioniExamTC_038</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_56B</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Candidate is able to close the broswer and answered questions are saved after logging in again</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_83</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of candidate able to submit the exam when not answering all questions</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of using Calculator EluminaRegressioniExamTC_039 </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_88</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of "Time Remaining" pop-up when the just before the exam time runs out</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_68</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate attends All Question type</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of using Highlighter EluminaRegressioniExamTC_040 </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Exam content page -&gt;Timer verification in all pages </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_97,iEX_TC_ID_98,iEX_TC_ID_99,iEX_TC_ID_101,iEX_TC_ID_102,iEX_TC_ID_103,iEX_TC_ID_105</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of each component for all type of questions in Candidate flow.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_99</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of VSAQ Question type EluminaRegressioniExamTC_043</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_48</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Timer Expires Alert Box  in Exam Content page</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_54</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam section page.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_69,iEX_TC_ID_240</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam Section &gt; Question and Answer save navigation validation using Previous / Next buttons.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Exam Section &gt; Font Size </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_70</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validate the Exam sheet where the Question numbers are displayed are Gray by Default</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validate the Exam sheet where the Question numbers are displayed in Red, when Flag for Review is selected
+Verification of Timer Expires Alert Box  in Exam Content page</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_79</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate attends All Question type in offline</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam Section &gt; Highlighter tool highlights save scenario 1</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_72</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validate the Exam sheet where the Question numbers are displayed in Orange when In Progress</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Exam section &gt; Candidate attend the exam in normal flow </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_95</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validate the Exam sheet where the Question numbers are displayed in Pink, when Notes are added while answering </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_39</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Exam content section page contents and details</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Exam content page - Timer Validation (Before Timer Expires)</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_46</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Exam content page - Scroll bar</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_47</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Exam content page  - Check box</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_127</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of login for invigilator for Invalid credential</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_126</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of login for invigilator for valid credential</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_242,243,iEX_TC_ID_244,iEX_TC_ID_234,iEX_TC_ID_241</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate attend Practice Exam</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_152</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Invigilator marks attendance for All candidates</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_148</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Invigilator Dashboard after the Exam Completion by candidate (once the time exceeds)</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_30</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate dashboard - Exam scheduled Date / Time is over EluminaRegressioniExamTC_024</t>
+  </si>
+  <si>
+    <t>timedOut</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_25D</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Login Application for PM</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_30B</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate dashboard - Exam scheduled Date / Time is over EluminaRegressioniExamTC_024A</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_148B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of Invigilator Dashboard </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_199</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validate auto response when chat is initiated out of working hours.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Candidate dashboard &gt; with Unassigned / Cancelled Exam </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_236</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Candidate dashboard &gt; Exam scheduled Date / Time is over.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_57</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam Section&gt; Image viewer</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_90,iEX_TC_ID_96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of Survey screen and Validate Survey screen where candidate
+    can provide feedback in comment section TC-084 and TC-085</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_91</t>
+  </si>
+  <si>
+    <t>@iExamRegression Survey section &gt; validate exam name, candidate name, exam timer, no of questions is as per exam settings.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_92</t>
+  </si>
+  <si>
+    <t>@iExamRegression Survey section &gt; Flag for review.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_032</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_77</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam section &gt; Candidate attend the exam by answering the questions randomly (Example: Monkey Jump)</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_93</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Survey section &gt; Before Exam Time Expires</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_3</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Client Logo and name, color, font size and font type of different elements in the login page</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_5</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of User Id Field</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_11</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Login using Invalid credentials Scenario 1 TC-09</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_6</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Password popup Field</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_94</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Survey section &gt; After Exam Time Expires</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_12,iEX_TC_ID_13</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Login using Invalid credentials Scenario 2 TC-10</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_89</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam section &gt; After Exam Time Expires</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_229</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Login using valid credentials in browser offline</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_192</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate Dashboard page - Chat App</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_17</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Sign out at Candidate Dashboard Page TC-14</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_191</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate Login page</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Sign out at Exam Start Page TC-15</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_89A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Exam section &gt; After Exam Time Expires </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_193</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content section &gt;  Chat App</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_60</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify candidate adds and saves Notes EluminaRegressioniExamTC_038</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_52</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; Questions download at content section-&gt; Browser shut down</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_230</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of copy paste in password field</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate dashboard &gt; Exam Start page Font size validation</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_194</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Exam section page  &gt; Chat App</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_44</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; (Terms &amp; Conditions) Font size validation TC-33</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_198</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validate when user go offline while using chat app.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_224</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Candidate while attending exam - Online - try to press any F1 to F12 keys TC-201</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_220</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate Recovery Sync Page Validation</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; Questions download at content section-&gt; Browser shut down TC-40</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_197</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of textbox capabilities of chat app</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_53</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; Questions download at content section-&gt; Candidate goes offline</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_228</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases No other key combinations could cause the candidates to logout and/or lose data TC-205</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@LowPriorityiExamCases "Validation of 
+exam response recovery page with no recovery file available in Download offline recovery file"</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_108,iEX_TC_ID_115</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate attending Exam in Online - Offline and submit in Offline Mode</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_114</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Candidate attends All Question type</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_116</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate Attending Exam in Online (Abort and Resume Exam)</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_116B</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation Candidate Login again</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_195</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Review Exam page  &gt; Chat App TC-173</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_196</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Submit Exam page  &gt; Chat App TC-173</t>
   </si>
 </sst>
 </file>
@@ -441,7 +1000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C103"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -471,7 +1030,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -479,21 +1038,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -501,10 +1060,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -512,10 +1071,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -523,10 +1082,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -534,10 +1093,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -545,13 +1104,1036 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>167</v>
+      </c>
+      <c r="B93" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>193</v>
+      </c>
+      <c r="B99" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B101" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,34 +22,28 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve"> iAU_TC_ID_205</t>
-  </si>
-  <si>
-    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
+    <t>iAU_TC_ID_247</t>
+  </si>
+  <si>
+    <t>@RegressionA Prerequisite Validation of Exam Approve"</t>
   </si>
   <si>
     <t>passed</t>
   </si>
   <si>
-    <t>@RegressionA Pre-Request "Validation of Delivery --&gt; Add New Users"</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Edit user </t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Delivery --&gt; Venue Summary </t>
-  </si>
-  <si>
-    <t xml:space="preserve">iAU_TC_ID_206.,iAU_TC_ID_210.,iAU_TC_ID_209.,iAU_TC_ID_211 @RegressionA Validation of Delivery --&gt; Live Dashboard </t>
-  </si>
-  <si>
-    <t>timedOut</t>
+    <t xml:space="preserve">@RegressionA Validation of Blueprint  Approval Workflow </t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_250</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Approve</t>
+  </si>
+  <si>
+    <t>@RegressionA Exam Reject</t>
   </si>
 </sst>
 </file>
@@ -426,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -459,15 +453,15 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -475,21 +469,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,28 +22,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_247</t>
-  </si>
-  <si>
-    <t>@RegressionA Prerequisite Validation of Exam Approve"</t>
-  </si>
-  <si>
-    <t>passed</t>
+    <t>iAU_TC_ID_144</t>
   </si>
   <si>
     <t xml:space="preserve">@RegressionA Validation of Blueprint  Approval Workflow </t>
   </si>
   <si>
     <t>failed</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_250</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Exam Approve</t>
-  </si>
-  <si>
-    <t>@RegressionA Exam Reject</t>
   </si>
 </sst>
 </file>
@@ -420,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -442,39 +427,6 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,28 +22,240 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_247</t>
-  </si>
-  <si>
-    <t>@RegressionA Prerequisite Validation of Exam Approve"</t>
+    <t>iEX_TC_ID_1</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Elumina Login and Create Exam</t>
   </si>
   <si>
     <t>passed</t>
   </si>
   <si>
-    <t xml:space="preserve">@RegressionA Validation of Blueprint  Approval Workflow </t>
+    <t>iEX_TC_ID_1A</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Elumina RegistrationInv and add User and Invigilator</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_2</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Validation of Candidate App URL, Login Page</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_13</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Validation of user authentication by invalid Candidate Creadentials</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_19</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Validation of Candidate App Dashboard</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_21</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Validation of password entered after clicking on "Start Exam"</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Smoke Verify Validation of the following in the Exam Section
+Exam name, Candidate name, Exam timer, no of questions as per exam created</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_67</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Validation of Candidate able to answer the Question and the answer being saved</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_75</t>
+  </si>
+  <si>
+    <t>@Smoke Verify The candidate should be able to Review at any point of the exam time</t>
   </si>
   <si>
     <t>failed</t>
   </si>
   <si>
-    <t>iAU_TC_ID_250</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Exam Approve</t>
-  </si>
-  <si>
-    <t>@RegressionA Exam Reject</t>
+    <t>iEX_TC_ID_80</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Validation of Review Section</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_126</t>
+  </si>
+  <si>
+    <t>@Smoke Login as an invigilator - Validation of UN, PWD &amp; the URL</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_128,iEX_TC_ID_159</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Validation of Invigilator Dashboard</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_129</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Entering an exam from the invigilator dashboard to invigilate</t>
+  </si>
+  <si>
+    <t>timedOut</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Smoke Verify Validation of "Lock Exam" from Live monitor Proctor </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_151</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Elumina Invigilator Dashboard</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_152</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_158</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_1</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Elumina Login</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_1A</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Elumina Registration</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_3</t>
+  </si>
+  <si>
+    <t>@Smoke Verify CandidatesInvExam</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@SmokeValidation of user authentication by valid Candidate Creadentials
+</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_8</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of candidate choosing proctoring exam in dashboard</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_23</t>
+  </si>
+  <si>
+    <t>@iProctorlink Verify CandidatesExam</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_25</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_28</t>
+  </si>
+  <si>
+    <t>@iProctorlink Verify Elumina Invigilator Dashboard</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_56</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Validation of Invigilator Dashboard Proctor</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_57</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of Navigating to an exam from the dashboard to invigilate</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iProctorlink Verify Validation of "Start Exam" (All Candidates) Proctor </t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_59</t>
+  </si>
+  <si>
+    <t>@iProctorlink Verify Validation of "Lock Exam" from Live monitor Proctor</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_61</t>
+  </si>
+  <si>
+    <t>@iProctorlink Verify Validation of "Resume Exam" from Live monitor Proctor</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_64</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Validation of "Mark Attendance" (All Candidates) Proctor</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_70</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of Questions answered / Inprogress on the RHS of the Candidate page</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_71</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of all the events generated on the RHS of the Candidate page</t>
+  </si>
+  <si>
+    <t>Exam_Prerequisit_ID_01</t>
+  </si>
+  <si>
+    <t>@iProctorlink Verify Create Exam With Content Section and Content Section Page</t>
+  </si>
+  <si>
+    <t>Reg_Prerequisit_ID_01A</t>
+  </si>
+  <si>
+    <t>@iProctorlink Verify Elumina Registration</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_40</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_11</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of "I Authorise" checkbox - To access Webcam, Microphone &amp; Terms &amp; Condition</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_34</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of Exam section page (Offline Exam validation)</t>
+  </si>
+  <si>
+    <t>iProc_TC_ID_39</t>
+  </si>
+  <si>
+    <t>@Smoke Validation of submitting when the Candidate has not answered all Questions</t>
+  </si>
+  <si>
+    <t>interrupted</t>
   </si>
 </sst>
 </file>
@@ -420,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C42"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -447,13 +659,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -469,13 +681,414 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -22,28 +22,28 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_247</t>
-  </si>
-  <si>
-    <t>@RegressionA Prerequisite Validation of Exam Approve"</t>
+    <t xml:space="preserve"> iAU_TC_ID_218</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
   </si>
   <si>
     <t>passed</t>
   </si>
   <si>
-    <t xml:space="preserve">@RegressionA Validation of Blueprint  Approval Workflow </t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_250</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Exam Approve</t>
-  </si>
-  <si>
-    <t>@RegressionA Exam Reject</t>
+    <t>@RegressionA Pre-Request "Validation of Delivery --&gt; Add New Users"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_218</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Live Monitor - Candidate answer response Validation</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_219A</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Live Monitor - Live Streaming page</t>
   </si>
 </sst>
 </file>
@@ -453,15 +453,15 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,28 +22,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve"> iAU_TC_ID_218</t>
-  </si>
-  <si>
-    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
-  </si>
-  <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>@RegressionA Pre-Request "Validation of Delivery --&gt; Add New Users"</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_218</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Delivery--&gt; Live Monitor - Candidate answer response Validation</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_219A</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Delivery--&gt; Live Monitor - Live Streaming page</t>
+    <t>iAU_TC_ID_144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Blueprint  Approval Workflow </t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
 </sst>
 </file>
@@ -420,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -442,39 +427,6 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -22,13 +22,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Blueprint  Approval Workflow </t>
-  </si>
-  <si>
-    <t>failed</t>
+    <t>iAU_TC_ID_126</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint  Direct workflow</t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
 </sst>
 </file>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,13 +22,34 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Blueprint  Approval Workflow </t>
-  </si>
-  <si>
-    <t>failed</t>
+    <t xml:space="preserve"> iAU_TC_ID_205</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request "Validation of Delivery --&gt; Add New Users"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Edit user </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery --&gt; Venue Summary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iAU_TC_ID_206.,iAU_TC_ID_210.,iAU_TC_ID_209.,iAU_TC_ID_211 @RegressionA Validation of Delivery --&gt; Live Dashboard </t>
+  </si>
+  <si>
+    <t>timedOut</t>
   </si>
 </sst>
 </file>
@@ -405,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -430,6 +451,47 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,34 +22,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve"> iAU_TC_ID_205</t>
-  </si>
-  <si>
-    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
+    <t>iAU_TC_ID_126</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint  Direct workflow</t>
   </si>
   <si>
     <t>passed</t>
-  </si>
-  <si>
-    <t>@RegressionA Pre-Request "Validation of Delivery --&gt; Add New Users"</t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Edit user </t>
-  </si>
-  <si>
-    <t>iAU_TC_ID_205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Delivery --&gt; Venue Summary </t>
-  </si>
-  <si>
-    <t xml:space="preserve">iAU_TC_ID_206.,iAU_TC_ID_210.,iAU_TC_ID_209.,iAU_TC_ID_211 @RegressionA Validation of Delivery --&gt; Live Dashboard </t>
-  </si>
-  <si>
-    <t>timedOut</t>
   </si>
 </sst>
 </file>
@@ -426,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -449,47 +428,6 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -22,13 +22,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_126</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Blueprint  Direct workflow</t>
-  </si>
-  <si>
-    <t>passed</t>
+    <t>iAU_TC_ID_104</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Duplicate</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
 </sst>
 </file>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -22,13 +22,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_126</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Blueprint  Direct workflow</t>
-  </si>
-  <si>
-    <t>passed</t>
+    <t>iEX_TC_ID_1</t>
+  </si>
+  <si>
+    <t>@Smoke Verify Elumina Login and Create Exam</t>
+  </si>
+  <si>
+    <t>interrupted</t>
   </si>
 </sst>
 </file>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -22,13 +22,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iEX_TC_ID_1</t>
-  </si>
-  <si>
-    <t>@Smoke Verify Elumina Login and Create Exam</t>
-  </si>
-  <si>
-    <t>interrupted</t>
+    <t>iAU_TC_ID_104</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Duplicate</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
 </sst>
 </file>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -22,13 +22,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_104</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Question Duplicate</t>
-  </si>
-  <si>
-    <t>failed</t>
+    <t>iAU_TC_ID_33</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (MCQ/Type A)-Negative Scenario</t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
 </sst>
 </file>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -22,13 +22,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_104</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Question Duplicate</t>
-  </si>
-  <si>
-    <t>failed</t>
+    <t>iAU_TC_ID_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Questions list page(Negative Scenario) </t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
 </sst>
 </file>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -22,10 +22,10 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA Validation of Questions list page(Negative Scenario) </t>
+    <t>iAU_TC_ID_33</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (MCQ/Type A)-Negative Scenario</t>
   </si>
   <si>
     <t>passed</t>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="203">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,13 +22,608 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_33</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Create Question (MCQ/Type A)-Negative Scenario</t>
+    <t>iEX_TC_ID_10</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Sign out at Exam Start Page</t>
   </si>
   <si>
     <t>passed</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_9</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of user authentication by valid Candidate Creadentials</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_16</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Sign out at Candidate Dashboard Page</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_4</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Empty Field validation</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_14</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validate login with inactive user</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_20</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Candidate Start Exam</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_31</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Browser back button on Candidate Dashboard</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_22,iEX_TC_ID_78</t>
+  </si>
+  <si>
+    <t>@iExamRegression Password will not be asked after clicking on "Start Exam"</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_18</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of multiple candidate trying to login to same Exam</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_19</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Candidate App Dashboard Details</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_36B</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Changing Font Size to Decrease on the Dashboard</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_34</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of  function keys on Candidate Dashboard</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_36</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Changing Font Size to increase on the Dashboard</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_33</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Browser Reload option on Candidate Dashboard</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_45</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of the "Timer" - After clicking on "Start Exam" Button</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_32,iEX_TC_ID_42</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Browser back button after Exam Starts</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_43</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of  function keys after Exam Starts</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_41</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Browser Reload option after Exam Starts</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_56,iEX_TC_ID_212</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of abrupt closure of browser</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_225</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Candidate while attending exam - Offline - try to press any F1 to F12 keys</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_74</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Flag for Review</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_50</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Updated cloud symbol</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_56B</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Candidate is able to close the broswer and answered questions are saved after logging in again</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_59</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify candidate adds and saves Notes EluminaRegressioniExamTC_038</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_55,iEX_TC_ID_238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of the following in the Exam Section
+Exam name, Candidate name, Exam timer, no of questions as per exam created EluminaRegressioniExamTC_051</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_88</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of "Time Remaining" pop-up when the just before the exam time runs out</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of using Calculator EluminaRegressioniExamTC_039 </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_83</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of candidate able to submit the exam when not answering all questions</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_97,iEX_TC_ID_98,iEX_TC_ID_99,iEX_TC_ID_101,iEX_TC_ID_102,iEX_TC_ID_103,iEX_TC_ID_105</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of each component for all type of questions in Candidate flow.</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of using Highlighter EluminaRegressioniExamTC_040 </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_99</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of VSAQ Question type EluminaRegressioniExamTC_043</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Exam content page -&gt;Timer verification in all pages </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_68</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate attends All Question type</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_54</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam section page.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Exam Section &gt; Font Size </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_48</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Timer Expires Alert Box  in Exam Content page</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_70</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validate the Exam sheet where the Question numbers are displayed are Gray by Default</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_69,iEX_TC_ID_240</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam Section &gt; Question and Answer save navigation validation using Previous / Next buttons.</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam Section &gt; Highlighter tool highlights save scenario 1</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validate the Exam sheet where the Question numbers are displayed in Red, when Flag for Review is selected
+Verification of Timer Expires Alert Box  in Exam Content page</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_30</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate dashboard - Exam scheduled Date / Time is over EluminaRegressioniExamTC_024</t>
+  </si>
+  <si>
+    <t>timedOut</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_72</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validate the Exam sheet where the Question numbers are displayed in Orange when In Progress</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Exam section &gt; Candidate attend the exam in normal flow </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_79</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate attends All Question type in offline</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_30B</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate dashboard - Exam scheduled Date / Time is over EluminaRegressioniExamTC_024A</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_39</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Exam content section page contents and details</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Exam content page - Timer Validation (Before Timer Expires)</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validate the Exam sheet where the Question numbers are displayed in Pink, when Notes are added while answering </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_46</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Exam content page - Scroll bar</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_47</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Exam content page  - Check box</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_127</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of login for invigilator for Invalid credential</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_126</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of login for invigilator for valid credential</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_242,243,iEX_TC_ID_244,iEX_TC_ID_234,iEX_TC_ID_241</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate attend Practice Exam</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_152</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Invigilator marks attendance for All candidates</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_95</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_148</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Invigilator Dashboard after the Exam Completion by candidate (once the time exceeds)</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_25D</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Login Application for PM</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_57</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam Section&gt; Image viewer</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_148B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of Invigilator Dashboard </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_199</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validate auto response when chat is initiated out of working hours.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_236</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Candidate dashboard &gt; Exam scheduled Date / Time is over.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Candidate dashboard &gt; with Unassigned / Cancelled Exam </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_90,iEX_TC_ID_96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of Survey screen and Validate Survey screen where candidate
+    can provide feedback in comment section TC-084 and TC-085</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_91</t>
+  </si>
+  <si>
+    <t>@iExamRegression Survey section &gt; validate exam name, candidate name, exam timer, no of questions is as per exam settings.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_032</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_92</t>
+  </si>
+  <si>
+    <t>@iExamRegression Survey section &gt; Flag for review.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_77</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam section &gt; Candidate attend the exam by answering the questions randomly (Example: Monkey Jump)</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_3</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Client Logo and name, color, font size and font type of different elements in the login page</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_5</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of User Id Field</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_6</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Password popup Field</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_11</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Login using Invalid credentials Scenario 1 TC-09</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_93</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Survey section &gt; Before Exam Time Expires</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_12,iEX_TC_ID_13</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Login using Invalid credentials Scenario 2 TC-10</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_89</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam section &gt; After Exam Time Expires</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_229</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Login using valid credentials in browser offline</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_17</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Sign out at Candidate Dashboard Page TC-14</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Sign out at Exam Start Page TC-15</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_89A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Exam section &gt; After Exam Time Expires </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_192</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate Dashboard page - Chat App</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_191</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate Login page</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_60</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify candidate adds and saves Notes EluminaRegressioniExamTC_038</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate dashboard &gt; Exam Start page Font size validation</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_94</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Survey section &gt; After Exam Time Expires</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_193</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content section &gt;  Chat App</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_194</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Exam section page  &gt; Chat App</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_44</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; (Terms &amp; Conditions) Font size validation TC-33</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_52</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; Questions download at content section-&gt; Browser shut down</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_230</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of copy paste in password field</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; Questions download at content section-&gt; Browser shut down TC-40</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_198</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validate when user go offline while using chat app.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_220</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate Recovery Sync Page Validation</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_224</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Candidate while attending exam - Online - try to press any F1 to F12 keys TC-201</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_197</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of textbox capabilities of chat app</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_228</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases No other key combinations could cause the candidates to logout and/or lose data TC-205</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@LowPriorityiExamCases "Validation of 
+exam response recovery page with no recovery file available in Download offline recovery file"</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_53</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; Questions download at content section-&gt; Candidate goes offline</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_114</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Candidate attends All Question type</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_116</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate Attending Exam in Online (Abort and Resume Exam)</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_116B</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation Candidate Login again</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_108,iEX_TC_ID_115</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate attending Exam in Online - Offline and submit in Offline Mode</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_195</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Review Exam page  &gt; Chat App TC-173</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_196</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Submit Exam page  &gt; Chat App TC-173</t>
   </si>
 </sst>
 </file>
@@ -405,7 +1000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C103"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -430,6 +1025,1117 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" t="s">
+        <v>163</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>181</v>
+      </c>
+      <c r="B93" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>193</v>
+      </c>
+      <c r="B99" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B101" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -22,10 +22,10 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_33</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Create Question (MCQ/Type A)-Negative Scenario</t>
+    <t>iAU_TC_ID_159</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit an Exam ( Previleges: Applicable only for Exam Admin)</t>
   </si>
   <si>
     <t>passed</t>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="203">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,13 +22,608 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_159</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Edit an Exam ( Previleges: Applicable only for Exam Admin)</t>
+    <t>iEX_TC_ID_10</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Sign out at Exam Start Page</t>
   </si>
   <si>
     <t>passed</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_9</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of user authentication by valid Candidate Creadentials</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_16</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Sign out at Candidate Dashboard Page</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_4</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Empty Field validation</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_14</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validate login with inactive user</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_20</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Candidate Start Exam</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_31</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Browser back button on Candidate Dashboard</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_22,iEX_TC_ID_78</t>
+  </si>
+  <si>
+    <t>@iExamRegression Password will not be asked after clicking on "Start Exam"</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_18</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of multiple candidate trying to login to same Exam</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_19</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Candidate App Dashboard Details</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_36B</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Changing Font Size to Decrease on the Dashboard</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_34</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of  function keys on Candidate Dashboard</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_36</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Changing Font Size to increase on the Dashboard</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_33</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Browser Reload option on Candidate Dashboard</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_45</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of the "Timer" - After clicking on "Start Exam" Button</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_32,iEX_TC_ID_42</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Browser back button after Exam Starts</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_43</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of  function keys after Exam Starts</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_41</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Browser Reload option after Exam Starts</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_56,iEX_TC_ID_212</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of abrupt closure of browser</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_225</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Candidate while attending exam - Offline - try to press any F1 to F12 keys</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_74</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Flag for Review</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_50</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Updated cloud symbol</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_56B</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Candidate is able to close the broswer and answered questions are saved after logging in again</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_59</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify candidate adds and saves Notes EluminaRegressioniExamTC_038</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_55,iEX_TC_ID_238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of the following in the Exam Section
+Exam name, Candidate name, Exam timer, no of questions as per exam created EluminaRegressioniExamTC_051</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_88</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of "Time Remaining" pop-up when the just before the exam time runs out</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of using Calculator EluminaRegressioniExamTC_039 </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_83</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of candidate able to submit the exam when not answering all questions</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_97,iEX_TC_ID_98,iEX_TC_ID_99,iEX_TC_ID_101,iEX_TC_ID_102,iEX_TC_ID_103,iEX_TC_ID_105</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of each component for all type of questions in Candidate flow.</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of using Highlighter EluminaRegressioniExamTC_040 </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_99</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of VSAQ Question type EluminaRegressioniExamTC_043</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Exam content page -&gt;Timer verification in all pages </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_68</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate attends All Question type</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_54</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam section page.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Exam Section &gt; Font Size </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_48</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Timer Expires Alert Box  in Exam Content page</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_70</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validate the Exam sheet where the Question numbers are displayed are Gray by Default</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_69,iEX_TC_ID_240</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam Section &gt; Question and Answer save navigation validation using Previous / Next buttons.</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam Section &gt; Highlighter tool highlights save scenario 1</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validate the Exam sheet where the Question numbers are displayed in Red, when Flag for Review is selected
+Verification of Timer Expires Alert Box  in Exam Content page</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_30</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate dashboard - Exam scheduled Date / Time is over EluminaRegressioniExamTC_024</t>
+  </si>
+  <si>
+    <t>timedOut</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_72</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validate the Exam sheet where the Question numbers are displayed in Orange when In Progress</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Exam section &gt; Candidate attend the exam in normal flow </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_79</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate attends All Question type in offline</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_30B</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate dashboard - Exam scheduled Date / Time is over EluminaRegressioniExamTC_024A</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_39</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Exam content section page contents and details</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Exam content page - Timer Validation (Before Timer Expires)</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validate the Exam sheet where the Question numbers are displayed in Pink, when Notes are added while answering </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_46</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Exam content page - Scroll bar</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_47</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Exam content page  - Check box</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_127</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of login for invigilator for Invalid credential</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_126</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of login for invigilator for valid credential</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_242,243,iEX_TC_ID_244,iEX_TC_ID_234,iEX_TC_ID_241</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate attend Practice Exam</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_152</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Invigilator marks attendance for All candidates</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_95</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_148</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Invigilator Dashboard after the Exam Completion by candidate (once the time exceeds)</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_25D</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Login Application for PM</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_57</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam Section&gt; Image viewer</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_148B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of Invigilator Dashboard </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_199</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validate auto response when chat is initiated out of working hours.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_236</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Candidate dashboard &gt; Exam scheduled Date / Time is over.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Candidate dashboard &gt; with Unassigned / Cancelled Exam </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_90,iEX_TC_ID_96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of Survey screen and Validate Survey screen where candidate
+    can provide feedback in comment section TC-084 and TC-085</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_91</t>
+  </si>
+  <si>
+    <t>@iExamRegression Survey section &gt; validate exam name, candidate name, exam timer, no of questions is as per exam settings.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_032</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_92</t>
+  </si>
+  <si>
+    <t>@iExamRegression Survey section &gt; Flag for review.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_77</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam section &gt; Candidate attend the exam by answering the questions randomly (Example: Monkey Jump)</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_3</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Client Logo and name, color, font size and font type of different elements in the login page</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_5</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of User Id Field</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_6</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Password popup Field</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_11</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Login using Invalid credentials Scenario 1 TC-09</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_93</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Survey section &gt; Before Exam Time Expires</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_12,iEX_TC_ID_13</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Login using Invalid credentials Scenario 2 TC-10</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_89</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam section &gt; After Exam Time Expires</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_229</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Login using valid credentials in browser offline</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_17</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Sign out at Candidate Dashboard Page TC-14</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Sign out at Exam Start Page TC-15</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_89A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Exam section &gt; After Exam Time Expires </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_192</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate Dashboard page - Chat App</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_191</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate Login page</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_60</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify candidate adds and saves Notes EluminaRegressioniExamTC_038</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate dashboard &gt; Exam Start page Font size validation</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_94</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Survey section &gt; After Exam Time Expires</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_193</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content section &gt;  Chat App</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_194</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Exam section page  &gt; Chat App</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_44</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; (Terms &amp; Conditions) Font size validation TC-33</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_52</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; Questions download at content section-&gt; Browser shut down</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_230</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of copy paste in password field</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; Questions download at content section-&gt; Browser shut down TC-40</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_198</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validate when user go offline while using chat app.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_220</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate Recovery Sync Page Validation</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_224</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Candidate while attending exam - Online - try to press any F1 to F12 keys TC-201</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_197</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of textbox capabilities of chat app</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_228</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases No other key combinations could cause the candidates to logout and/or lose data TC-205</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@LowPriorityiExamCases "Validation of 
+exam response recovery page with no recovery file available in Download offline recovery file"</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_53</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; Questions download at content section-&gt; Candidate goes offline</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_114</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Candidate attends All Question type</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_116</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate Attending Exam in Online (Abort and Resume Exam)</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_116B</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation Candidate Login again</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_108,iEX_TC_ID_115</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate attending Exam in Online - Offline and submit in Offline Mode</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_195</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Review Exam page  &gt; Chat App TC-173</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_196</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Verify Validation of Submit Exam page  &gt; Chat App TC-173</t>
   </si>
 </sst>
 </file>
@@ -405,7 +1000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C103"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -430,6 +1025,1117 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" t="s">
+        <v>163</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>181</v>
+      </c>
+      <c r="B93" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>193</v>
+      </c>
+      <c r="B99" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B101" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -43,16 +43,22 @@
     <t>@iExamRegression Validation of Sign out at Candidate Dashboard Page</t>
   </si>
   <si>
+    <t>iEX_TC_ID_14</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validate login with inactive user</t>
+  </si>
+  <si>
     <t>iEX_TC_ID_4</t>
   </si>
   <si>
     <t>@iExamRegression Validation of Empty Field validation</t>
   </si>
   <si>
-    <t>iEX_TC_ID_14</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validate login with inactive user</t>
+    <t>iEX_TC_ID_19</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Candidate App Dashboard Details</t>
   </si>
   <si>
     <t>iEX_TC_ID_20</t>
@@ -61,28 +67,40 @@
     <t>@iExamRegression Validation of Candidate Start Exam</t>
   </si>
   <si>
+    <t>iEX_TC_ID_22,iEX_TC_ID_78</t>
+  </si>
+  <si>
+    <t>@iExamRegression Password will not be asked after clicking on "Start Exam"</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_18</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of multiple candidate trying to login to same Exam</t>
+  </si>
+  <si>
     <t>iEX_TC_ID_31</t>
   </si>
   <si>
     <t>@iExamRegression Verify Validation of Browser back button on Candidate Dashboard</t>
   </si>
   <si>
-    <t>iEX_TC_ID_22,iEX_TC_ID_78</t>
-  </si>
-  <si>
-    <t>@iExamRegression Password will not be asked after clicking on "Start Exam"</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_18</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of multiple candidate trying to login to same Exam</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_19</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Candidate App Dashboard Details</t>
+    <t>iEX_TC_ID_34</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of  function keys on Candidate Dashboard</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_36</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Changing Font Size to increase on the Dashboard</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_33</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Browser Reload option on Candidate Dashboard</t>
   </si>
   <si>
     <t>iEX_TC_ID_36B</t>
@@ -91,24 +109,6 @@
     <t>@iExamRegression Verify Validation of Changing Font Size to Decrease on the Dashboard</t>
   </si>
   <si>
-    <t>iEX_TC_ID_34</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of  function keys on Candidate Dashboard</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_36</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Changing Font Size to increase on the Dashboard</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_33</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Browser Reload option on Candidate Dashboard</t>
-  </si>
-  <si>
     <t>iEX_TC_ID_45</t>
   </si>
   <si>
@@ -121,16 +121,22 @@
     <t>@iExamRegression Verify Validation of Browser back button after Exam Starts</t>
   </si>
   <si>
+    <t>iEX_TC_ID_41</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Browser Reload option after Exam Starts</t>
+  </si>
+  <si>
     <t>iEX_TC_ID_43</t>
   </si>
   <si>
     <t>@iExamRegression Verify Validation of  function keys after Exam Starts</t>
   </si>
   <si>
-    <t>iEX_TC_ID_41</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Browser Reload option after Exam Starts</t>
+    <t>iEX_TC_ID_225</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Candidate while attending exam - Offline - try to press any F1 to F12 keys</t>
   </si>
   <si>
     <t>iEX_TC_ID_56,iEX_TC_ID_212</t>
@@ -139,34 +145,16 @@
     <t>@iExamRegression Verify Validation of abrupt closure of browser</t>
   </si>
   <si>
-    <t>iEX_TC_ID_225</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Candidate while attending exam - Offline - try to press any F1 to F12 keys</t>
+    <t>iEX_TC_ID_50</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Updated cloud symbol</t>
   </si>
   <si>
     <t>iEX_TC_ID_74</t>
   </si>
   <si>
     <t>@iExamRegression Verify Validation of Flag for Review</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_50</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Updated cloud symbol</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_56B</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Candidate is able to close the broswer and answered questions are saved after logging in again</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_59</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify candidate adds and saves Notes EluminaRegressioniExamTC_038</t>
   </si>
   <si>
     <t>iEX_TC_ID_55,iEX_TC_ID_238</t>
@@ -176,6 +164,24 @@
 Exam name, Candidate name, Exam timer, no of questions as per exam created EluminaRegressioniExamTC_051</t>
   </si>
   <si>
+    <t>iEX_TC_ID_59</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify candidate adds and saves Notes EluminaRegressioniExamTC_038</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_56B</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Candidate is able to close the broswer and answered questions are saved after logging in again</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_83</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of candidate able to submit the exam when not answering all questions</t>
+  </si>
+  <si>
     <t>iEX_TC_ID_88</t>
   </si>
   <si>
@@ -188,12 +194,6 @@
     <t xml:space="preserve">@iExamRegression Verify Validation of using Calculator EluminaRegressioniExamTC_039 </t>
   </si>
   <si>
-    <t>iEX_TC_ID_83</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of candidate able to submit the exam when not answering all questions</t>
-  </si>
-  <si>
     <t>iEX_TC_ID_97,iEX_TC_ID_98,iEX_TC_ID_99,iEX_TC_ID_101,iEX_TC_ID_102,iEX_TC_ID_103,iEX_TC_ID_105</t>
   </si>
   <si>
@@ -209,6 +209,12 @@
     <t xml:space="preserve">@iExamRegression Verify Validation of using Highlighter EluminaRegressioniExamTC_040 </t>
   </si>
   <si>
+    <t>iEX_TC_ID_68</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate attends All Question type</t>
+  </si>
+  <si>
     <t>iEX_TC_ID_99</t>
   </si>
   <si>
@@ -221,12 +227,6 @@
     <t xml:space="preserve">@iExamRegression Validation of Exam content page -&gt;Timer verification in all pages </t>
   </si>
   <si>
-    <t>iEX_TC_ID_68</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Candidate attends All Question type</t>
-  </si>
-  <si>
     <t>iEX_TC_ID_54</t>
   </si>
   <si>
@@ -245,16 +245,16 @@
     <t>@iExamRegression Verify Timer Expires Alert Box  in Exam Content page</t>
   </si>
   <si>
+    <t>iEX_TC_ID_69,iEX_TC_ID_240</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam Section &gt; Question and Answer save navigation validation using Previous / Next buttons.</t>
+  </si>
+  <si>
     <t>iEX_TC_ID_70</t>
   </si>
   <si>
     <t>@iExamRegression Validate the Exam sheet where the Question numbers are displayed are Gray by Default</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_69,iEX_TC_ID_240</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Exam Section &gt; Question and Answer save navigation validation using Previous / Next buttons.</t>
   </si>
   <si>
     <t>@iExamRegression Validation of Exam Section &gt; Highlighter tool highlights save scenario 1</t>
@@ -276,43 +276,49 @@
     <t>timedOut</t>
   </si>
   <si>
+    <t>iEX_TC_ID_79</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate attends All Question type in offline</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Exam section &gt; Candidate attend the exam in normal flow </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_30B</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Candidate dashboard - Exam scheduled Date / Time is over EluminaRegressioniExamTC_024A</t>
+  </si>
+  <si>
     <t>iEX_TC_ID_72</t>
   </si>
   <si>
     <t>@iExamRegression Validate the Exam sheet where the Question numbers are displayed in Orange when In Progress</t>
   </si>
   <si>
-    <t>iEX_TC_ID_76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Validation of Exam section &gt; Candidate attend the exam in normal flow </t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_79</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Candidate attends All Question type in offline</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_30B</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Candidate dashboard - Exam scheduled Date / Time is over EluminaRegressioniExamTC_024A</t>
-  </si>
-  <si>
     <t>iEX_TC_ID_39</t>
   </si>
   <si>
     <t>@iExamRegression Verify Validation of Exam content section page contents and details</t>
   </si>
   <si>
+    <t>iEX_TC_ID_73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validate the Exam sheet where the Question numbers are displayed in Pink, when Notes are added while answering </t>
+  </si>
+  <si>
     <t>@iExamRegression Verify Validation of Exam content page - Timer Validation (Before Timer Expires)</t>
   </si>
   <si>
-    <t>iEX_TC_ID_73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Verify Validate the Exam sheet where the Question numbers are displayed in Pink, when Notes are added while answering </t>
+    <t>iEX_TC_ID_47</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Validation of Exam content page  - Check box</t>
   </si>
   <si>
     <t>iEX_TC_ID_46</t>
@@ -321,12 +327,6 @@
     <t>@iExamRegression Verify Validation of Exam content page - Scroll bar</t>
   </si>
   <si>
-    <t>iEX_TC_ID_47</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Exam content page  - Check box</t>
-  </si>
-  <si>
     <t>iEX_TC_ID_127</t>
   </si>
   <si>
@@ -339,61 +339,55 @@
     <t>@iExamRegression Verify Validation of login for invigilator for valid credential</t>
   </si>
   <si>
+    <t>iEX_TC_ID_95</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_152</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Invigilator marks attendance for All candidates</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_148</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Invigilator Dashboard after the Exam Completion by candidate (once the time exceeds)</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_25D</t>
+  </si>
+  <si>
+    <t>@iExamRegression Verify Login Application for PM</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_148B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Verify Validation of Invigilator Dashboard </t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_199</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validate auto response when chat is initiated out of working hours.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Candidate dashboard &gt; with Unassigned / Cancelled Exam </t>
+  </si>
+  <si>
     <t>iEX_TC_ID_242,243,iEX_TC_ID_244,iEX_TC_ID_234,iEX_TC_ID_241</t>
   </si>
   <si>
     <t>@iExamRegression Verify Validation of Candidate attend Practice Exam</t>
   </si>
   <si>
-    <t>iEX_TC_ID_152</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Invigilator marks attendance for All candidates</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_95</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_148</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Invigilator Dashboard after the Exam Completion by candidate (once the time exceeds)</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_25D</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Login Application for PM</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_57</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Exam Section&gt; Image viewer</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_148B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Verify Validation of Invigilator Dashboard </t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_199</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validate auto response when chat is initiated out of working hours.</t>
-  </si>
-  <si>
     <t>iEX_TC_ID_236</t>
   </si>
   <si>
     <t>@iExamRegression Validation of Candidate dashboard &gt; Exam scheduled Date / Time is over.</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Validation of Candidate dashboard &gt; with Unassigned / Cancelled Exam </t>
   </si>
   <si>
     <t>iEX_TC_ID_90,iEX_TC_ID_96</t>
@@ -409,21 +403,39 @@
     <t>@iExamRegression Survey section &gt; validate exam name, candidate name, exam timer, no of questions is as per exam settings.</t>
   </si>
   <si>
+    <t>iEX_TC_ID_92</t>
+  </si>
+  <si>
+    <t>@iExamRegression Survey section &gt; Flag for review.</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_57</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam Section&gt; Image viewer</t>
+  </si>
+  <si>
     <t>iEX_TC_ID_032</t>
   </si>
   <si>
-    <t>iEX_TC_ID_92</t>
-  </si>
-  <si>
-    <t>@iExamRegression Survey section &gt; Flag for review.</t>
-  </si>
-  <si>
     <t>iEX_TC_ID_77</t>
   </si>
   <si>
     <t>@iExamRegression Validation of Exam section &gt; Candidate attend the exam by answering the questions randomly (Example: Monkey Jump)</t>
   </si>
   <si>
+    <t>iEX_TC_ID_93</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Survey section &gt; Before Exam Time Expires</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_89</t>
+  </si>
+  <si>
+    <t>@iExamRegression Validation of Exam section &gt; After Exam Time Expires</t>
+  </si>
+  <si>
     <t>iEX_TC_ID_3</t>
   </si>
   <si>
@@ -436,63 +448,51 @@
     <t>@LowPriorityiExamCases Verify Validation of User Id Field</t>
   </si>
   <si>
+    <t>iEX_TC_ID_11</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Login using Invalid credentials Scenario 1 TC-09</t>
+  </si>
+  <si>
     <t>iEX_TC_ID_6</t>
   </si>
   <si>
     <t>@LowPriorityiExamCases Verify Validation of Password popup Field</t>
   </si>
   <si>
-    <t>iEX_TC_ID_11</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Login using Invalid credentials Scenario 1 TC-09</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_93</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Survey section &gt; Before Exam Time Expires</t>
-  </si>
-  <si>
     <t>iEX_TC_ID_12,iEX_TC_ID_13</t>
   </si>
   <si>
     <t>@LowPriorityiExamCases Validation of Login using Invalid credentials Scenario 2 TC-10</t>
   </si>
   <si>
-    <t>iEX_TC_ID_89</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Exam section &gt; After Exam Time Expires</t>
-  </si>
-  <si>
     <t>iEX_TC_ID_229</t>
   </si>
   <si>
     <t>@LowPriorityiExamCases Verify Validation of Login using valid credentials in browser offline</t>
   </si>
   <si>
+    <t>iEX_TC_ID_89A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iExamRegression Validation of Exam section &gt; After Exam Time Expires </t>
+  </si>
+  <si>
     <t>iEX_TC_ID_17</t>
   </si>
   <si>
     <t>@LowPriorityiExamCases Validation of Sign out at Candidate Dashboard Page TC-14</t>
   </si>
   <si>
+    <t>iEX_TC_ID_192</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate Dashboard page - Chat App</t>
+  </si>
+  <si>
     <t>@LowPriorityiExamCases Validation of Sign out at Exam Start Page TC-15</t>
   </si>
   <si>
-    <t>iEX_TC_ID_89A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Validation of Exam section &gt; After Exam Time Expires </t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_192</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Candidate Dashboard page - Chat App</t>
-  </si>
-  <si>
     <t>iEX_TC_ID_191</t>
   </si>
   <si>
@@ -505,6 +505,12 @@
     <t>@LowPriorityiExamCases Verify candidate adds and saves Notes EluminaRegressioniExamTC_038</t>
   </si>
   <si>
+    <t>iEX_TC_ID_193</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content section &gt;  Chat App</t>
+  </si>
+  <si>
     <t>@LowPriorityiExamCases Validation of Candidate dashboard &gt; Exam Start page Font size validation</t>
   </si>
   <si>
@@ -514,10 +520,16 @@
     <t>@iExamRegression Validation of Survey section &gt; After Exam Time Expires</t>
   </si>
   <si>
-    <t>iEX_TC_ID_193</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Exam content section &gt;  Chat App</t>
+    <t>iEX_TC_ID_52</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; Questions download at content section-&gt; Browser shut down</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_230</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of copy paste in password field</t>
   </si>
   <si>
     <t>iEX_TC_ID_194</t>
@@ -532,18 +544,6 @@
     <t>@LowPriorityiExamCases Validation of Exam content page -&gt; (Terms &amp; Conditions) Font size validation TC-33</t>
   </si>
   <si>
-    <t>iEX_TC_ID_52</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; Questions download at content section-&gt; Browser shut down</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_230</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of copy paste in password field</t>
-  </si>
-  <si>
     <t>@LowPriorityiExamCases Validation of Exam content page -&gt; Questions download at content section-&gt; Browser shut down TC-40</t>
   </si>
   <si>
@@ -553,28 +553,28 @@
     <t>@LowPriorityiExamCases Validate when user go offline while using chat app.</t>
   </si>
   <si>
+    <t>iEX_TC_ID_224</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Candidate while attending exam - Online - try to press any F1 to F12 keys TC-201</t>
+  </si>
+  <si>
     <t>iEX_TC_ID_220</t>
   </si>
   <si>
     <t>@LowPriorityiExamCases Validation of Candidate Recovery Sync Page Validation</t>
   </si>
   <si>
-    <t>iEX_TC_ID_224</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Candidate while attending exam - Online - try to press any F1 to F12 keys TC-201</t>
-  </si>
-  <si>
     <t>iEX_TC_ID_197</t>
   </si>
   <si>
     <t>@LowPriorityiExamCases Validation of textbox capabilities of chat app</t>
   </si>
   <si>
-    <t>iEX_TC_ID_228</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases No other key combinations could cause the candidates to logout and/or lose data TC-205</t>
+    <t>iEX_TC_ID_53</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; Questions download at content section-&gt; Candidate goes offline</t>
   </si>
   <si>
     <t>iEX_TC_ID_222</t>
@@ -584,10 +584,16 @@
 exam response recovery page with no recovery file available in Download offline recovery file"</t>
   </si>
   <si>
-    <t>iEX_TC_ID_53</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; Questions download at content section-&gt; Candidate goes offline</t>
+    <t>iEX_TC_ID_228</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases No other key combinations could cause the candidates to logout and/or lose data TC-205</t>
+  </si>
+  <si>
+    <t>iEX_TC_ID_108,iEX_TC_ID_115</t>
+  </si>
+  <si>
+    <t>@LowPriorityiExamCases Validation of Candidate attending Exam in Online - Offline and submit in Offline Mode</t>
   </si>
   <si>
     <t>iEX_TC_ID_114</t>
@@ -606,12 +612,6 @@
   </si>
   <si>
     <t>@LowPriorityiExamCases Validation Candidate Login again</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_108,iEX_TC_ID_115</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Candidate attending Exam in Online - Offline and submit in Offline Mode</t>
   </si>
   <si>
     <t>iEX_TC_ID_195</t>
@@ -1522,10 +1522,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
         <v>99</v>
@@ -1591,7 +1591,7 @@
         <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1599,10 +1599,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
         <v>110</v>
-      </c>
-      <c r="B55" t="s">
-        <v>111</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1610,10 +1610,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" t="s">
         <v>112</v>
-      </c>
-      <c r="B56" t="s">
-        <v>92</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1671,7 +1671,7 @@
         <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1723,18 +1723,18 @@
         <v>131</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1847,15 +1847,15 @@
         <v>153</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1863,18 +1863,18 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C79" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B80" t="s">
         <v>158</v>
@@ -1907,10 +1907,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="B84" t="s">
         <v>165</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B90" t="s">
         <v>176</v>
@@ -2133,7 +2133,7 @@
         <v>202</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="322">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,608 +22,983 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iEX_TC_ID_10</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Sign out at Exam Start Page</t>
+    <t>iAU_TC_ID_01</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Assess App URL</t>
   </si>
   <si>
     <t>passed</t>
   </si>
   <si>
-    <t>iEX_TC_ID_9</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of user authentication by valid Candidate Creadentials</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_16</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Sign out at Candidate Dashboard Page</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_4</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Empty Field validation</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_14</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validate login with inactive user</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_20</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Candidate Start Exam</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_31</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Browser back button on Candidate Dashboard</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_22,iEX_TC_ID_78</t>
-  </si>
-  <si>
-    <t>@iExamRegression Password will not be asked after clicking on "Start Exam"</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_18</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of multiple candidate trying to login to same Exam</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_19</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Candidate App Dashboard Details</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_36B</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Changing Font Size to Decrease on the Dashboard</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_34</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of  function keys on Candidate Dashboard</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_36</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Changing Font Size to increase on the Dashboard</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_33</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Browser Reload option on Candidate Dashboard</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_45</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of the "Timer" - After clicking on "Start Exam" Button</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_32,iEX_TC_ID_42</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Browser back button after Exam Starts</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_43</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of  function keys after Exam Starts</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_41</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Browser Reload option after Exam Starts</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_56,iEX_TC_ID_212</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of abrupt closure of browser</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_225</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Candidate while attending exam - Offline - try to press any F1 to F12 keys</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_74</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Flag for Review</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_50</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Updated cloud symbol</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_56B</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Candidate is able to close the broswer and answered questions are saved after logging in again</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_59</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify candidate adds and saves Notes EluminaRegressioniExamTC_038</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_55,iEX_TC_ID_238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Verify Validation of the following in the Exam Section
-Exam name, Candidate name, Exam timer, no of questions as per exam created EluminaRegressioniExamTC_051</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_88</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of "Time Remaining" pop-up when the just before the exam time runs out</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Verify Validation of using Calculator EluminaRegressioniExamTC_039 </t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_83</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of candidate able to submit the exam when not answering all questions</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_97,iEX_TC_ID_98,iEX_TC_ID_99,iEX_TC_ID_101,iEX_TC_ID_102,iEX_TC_ID_103,iEX_TC_ID_105</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of each component for all type of questions in Candidate flow.</t>
+    <t>iAU_TC_ID_02</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Client Logo and name, color, font size and font type of different elements in the login page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_03</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Empty Field validation</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_04</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of User Id Field</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_06</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Password Masking</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_05</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of password Field</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_08</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Login using Invalid credentials Scenario 1</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_07</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Login using valid credentials with Username and Password</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_10</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Login using Invalid credentials Scenario 3</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_09</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of copy paste in password field </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_13</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Login using valid credentials in browser offline</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_11</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_21</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Centralize Login page (Negative Scenario 1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_26</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Rate Limit Login</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Login page (Negative Scenario 2) </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_29</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question list page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_17</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Centralize Login page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_31</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question &gt; Choose question</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_34</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_33</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (MCQ/Type A)-Negative Scenario</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_32</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (MCQ-SBA)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_35</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (VSAQ)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_36</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (VSAQ)-Negative Scenario</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_37</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (ISAWE)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_38</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (ISAWE)-Negative Scenario.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_39</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (SAQ / Essay)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_40</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (SAQ / Essay) - Negative Scenario.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_43</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (Type-X)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_47</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (Type-B)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_48</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (Type-B) - Negative Scenario.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Questions list page(Negative Scenario) </t>
+  </si>
+  <si>
+    <t>timedOut</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Question Preview </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Edit Question </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_94</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Edit Question(Negative Scenarios)".</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Create Question (SJT)/ Rating </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_62</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (SJT)/ Rating - Negative Scenario.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Question Save as New version  </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_95</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question checkout</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Question  Version Histroy </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_102</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question  Delete</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Question  No Workflow  </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_100</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Approval Workflow</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_105</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Preview</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_104</t>
+  </si>
+  <si>
+    <t>@RegressionA Create Question</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_96</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Checkout and delete which is attached to the Approved / Archived Exam</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_107</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprints list page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_104A</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Duplicate</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_110</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Create Blueprint(Negative Scenarios)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_108</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprints list page(Negative Scenario)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_111</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Add Multiple cart in one blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_112A</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_113</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Edit Blueprint(Negative Scenarios)".</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_114A</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_115</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Edit Blueprint View Cart"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_114</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Edit Blueprint Add question Cart"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_103</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_249</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_117A</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Duplicate Blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_118</t>
+  </si>
+  <si>
+    <t>@RegressionA ""Validation of Blueprint  Archive(only for Approved Blueprints)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_117B</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delete Blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Blueprint Save as New version </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_121</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Preview</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Blueprint  Archive Negative scenario (only for Approved Blueprints)
+Archive Blueprint used in up coming exam"</t>
   </si>
   <si>
     <t>failed</t>
   </si>
   <si>
-    <t>iEX_TC_ID_64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Verify Validation of using Highlighter EluminaRegressioniExamTC_040 </t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_99</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of VSAQ Question type EluminaRegressioniExamTC_043</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Validation of Exam content page -&gt;Timer verification in all pages </t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_68</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Candidate attends All Question type</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_54</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Exam section page.</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Validation of Exam Section &gt; Font Size </t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_48</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Timer Expires Alert Box  in Exam Content page</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_70</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validate the Exam sheet where the Question numbers are displayed are Gray by Default</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_69,iEX_TC_ID_240</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Exam Section &gt; Question and Answer save navigation validation using Previous / Next buttons.</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Exam Section &gt; Highlighter tool highlights save scenario 1</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Verify Validate the Exam sheet where the Question numbers are displayed in Red, when Flag for Review is selected
-Verification of Timer Expires Alert Box  in Exam Content page</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_30</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Candidate dashboard - Exam scheduled Date / Time is over EluminaRegressioniExamTC_024</t>
-  </si>
-  <si>
-    <t>timedOut</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_72</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validate the Exam sheet where the Question numbers are displayed in Orange when In Progress</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Validation of Exam section &gt; Candidate attend the exam in normal flow </t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_79</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Candidate attends All Question type in offline</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_30B</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Candidate dashboard - Exam scheduled Date / Time is over EluminaRegressioniExamTC_024A</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_39</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Exam content section page contents and details</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Exam content page - Timer Validation (Before Timer Expires)</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Verify Validate the Exam sheet where the Question numbers are displayed in Pink, when Notes are added while answering </t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_46</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Exam content page - Scroll bar</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_47</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Exam content page  - Check box</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_127</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of login for invigilator for Invalid credential</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_126</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of login for invigilator for valid credential</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_242,243,iEX_TC_ID_244,iEX_TC_ID_234,iEX_TC_ID_241</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Validation of Candidate attend Practice Exam</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_152</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Invigilator marks attendance for All candidates</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_95</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_148</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Invigilator Dashboard after the Exam Completion by candidate (once the time exceeds)</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_25D</t>
-  </si>
-  <si>
-    <t>@iExamRegression Verify Login Application for PM</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_57</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Exam Section&gt; Image viewer</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_148B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Verify Validation of Invigilator Dashboard </t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_199</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validate auto response when chat is initiated out of working hours.</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_236</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Candidate dashboard &gt; Exam scheduled Date / Time is over.</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Validation of Candidate dashboard &gt; with Unassigned / Cancelled Exam </t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_90,iEX_TC_ID_96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Verify Validation of Survey screen and Validate Survey screen where candidate
-    can provide feedback in comment section TC-084 and TC-085</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_91</t>
-  </si>
-  <si>
-    <t>@iExamRegression Survey section &gt; validate exam name, candidate name, exam timer, no of questions is as per exam settings.</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_032</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_92</t>
-  </si>
-  <si>
-    <t>@iExamRegression Survey section &gt; Flag for review.</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_77</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Exam section &gt; Candidate attend the exam by answering the questions randomly (Example: Monkey Jump)</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_3</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Client Logo and name, color, font size and font type of different elements in the login page</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_5</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Verify Validation of User Id Field</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_6</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Verify Validation of Password popup Field</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_11</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Login using Invalid credentials Scenario 1 TC-09</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_93</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Survey section &gt; Before Exam Time Expires</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_12,iEX_TC_ID_13</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Login using Invalid credentials Scenario 2 TC-10</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_89</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Exam section &gt; After Exam Time Expires</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_229</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Verify Validation of Login using valid credentials in browser offline</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_17</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Sign out at Candidate Dashboard Page TC-14</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Sign out at Exam Start Page TC-15</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_89A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iExamRegression Validation of Exam section &gt; After Exam Time Expires </t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_192</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Candidate Dashboard page - Chat App</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_191</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Candidate Login page</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_60</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Verify candidate adds and saves Notes EluminaRegressioniExamTC_038</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Candidate dashboard &gt; Exam Start page Font size validation</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_94</t>
-  </si>
-  <si>
-    <t>@iExamRegression Validation of Survey section &gt; After Exam Time Expires</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_193</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Exam content section &gt;  Chat App</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_194</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Verify Validation of Exam section page  &gt; Chat App</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_44</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; (Terms &amp; Conditions) Font size validation TC-33</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_52</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; Questions download at content section-&gt; Browser shut down</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_230</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of copy paste in password field</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; Questions download at content section-&gt; Browser shut down TC-40</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_198</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validate when user go offline while using chat app.</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_220</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Candidate Recovery Sync Page Validation</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_224</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Candidate while attending exam - Online - try to press any F1 to F12 keys TC-201</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_197</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of textbox capabilities of chat app</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_228</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases No other key combinations could cause the candidates to logout and/or lose data TC-205</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@LowPriorityiExamCases "Validation of 
-exam response recovery page with no recovery file available in Download offline recovery file"</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_53</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Exam content page -&gt; Questions download at content section-&gt; Candidate goes offline</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_114</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Verify Validation of Candidate attends All Question type</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_116</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Candidate Attending Exam in Online (Abort and Resume Exam)</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_116B</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation Candidate Login again</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_108,iEX_TC_ID_115</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Validation of Candidate attending Exam in Online - Offline and submit in Offline Mode</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_195</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Verify Validation of Review Exam page  &gt; Chat App TC-173</t>
-  </si>
-  <si>
-    <t>iEX_TC_ID_196</t>
-  </si>
-  <si>
-    <t>@LowPriorityiExamCases Verify Validation of Submit Exam page  &gt; Chat App TC-173</t>
+    <t>iAU_TC_ID_129</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – How do you want to get started ?:</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_112</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit Blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_130</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – Start from scratch</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_123</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Version History</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_126</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint  Direct workflow</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 2 -
+Add 1x Session (i.e AM Session) and 2x Section( i.e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iAU_TC_ID_134 @RegressionA "Validation of Choose Question Scenario- 3 -  Add 1x Session (i.e AM Session) and
+Add 3 sections (i.e</t>
+  </si>
+  <si>
+    <t>Content + Exam Section + Survey Section)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_131</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – Start from scratch(Negative Scenario)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 1 -
+Add 1x Session (i.e AM Session)and 1x Section (i.e Exam Section Only)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 5 -
+Add 2x sessions  (i.e AM and PM Sessions (with duplicate sections)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Create Exam – Copy an existing exam </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 4 - Add 1x Session (i.e AM Session) and
+Add 4x sections (i.e Content + Exam 1 Section + Exam 2 Section + Exam 3 Section + Survey Section)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_138</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Choose Question Scenario- 1 - Add 1x Session (i.e Exam Section Only)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_140</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Choose Question Scenario- 3 -Add 3 sections (i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 2 -
+Add 2x Sessions ( i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_136B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 5 -
+Add 2x sessions (with duplicate sections)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_145</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Blueprint  Approval Workflow </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 4 -
+Add 4x sections (i.e Content + Exam 1 Section + Exam 2 Section + Exam 3 Section + Survey Section)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 5 -
+Add 2x sessions (with duplicate sections)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Create Exam – Copy from template </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 1 -
+Add 1x Session (i.e Exam Section Only)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_148</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_142B</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 3 -
+Add 3 sections (i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_153</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – How do you want to get started? - Using Blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_151</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 1 -
+Add 1x Session (i.e Exam Section Only)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_150</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 2 -
+Add 2x Sessions ( i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_151B</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 3 -
+Add 3 sections (i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_159</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit an Exam ( Previleges: Applicable only for Exam Admin)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_158</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Choose Question Scenario- 4 -
+Add 4x sections (i.e Content + Exam 1 Section + Exam 2 Section + Exam 3 Section + Survey Section)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_161</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit Exam (Negative Scenario)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Version History </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Duplicate </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Exam Preview(PDF) " </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_158B</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_160</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit an Exam Section ( Previleges: Applicable only for Exam Admin)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Exam Preview(WEB) " </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Exam Preview
+( Reviewer, Approver, Examiner) "</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_168</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Verify image size, image Quality and resolution</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Print </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Save as New version </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Delete </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_171</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Archive</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_172</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Export</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_175</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery list page(Negative scenario)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_173</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Checkout</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_176</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery-&gt;Manage Delivery page via Exam name link.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_174</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery list page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_177</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery-&gt;Manage Delivery page via more (...)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_178</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery page Left side Panel</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_207</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Delivery--&gt; Live Dashboard filters"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_181</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_205</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_192</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_212</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_181.,iAU_TC_ID_183.,iAU_TC_ID_199</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request "Validation of Delivery --&gt; Add New Users"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Delete Users </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_190</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery--&gt; Assign Venue and Booking Details</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_217</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Live Monitor - Candidate answer response Validation</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_182.,iAU_TC_ID_184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery--&gt; Delete Users (Negative Scenario) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_192.,iAU_TC_ID_193.,iAU_TC_ID_194</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_185.,iAU_TC_ID_186</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery --&gt; Download User Details</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_179</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_212.,iAU_TC_ID_213.,iAU_TC_ID_216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery --&gt; Live Monitor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_189</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery--&gt; Generate Temp ID</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_214.,iAU_TC_ID_215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery--&gt; Live Monitor all exam status  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_196</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery--&gt; Reset Password</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery –-&gt; Bulk Upload Users(Negative scenario)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_218</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_198</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery --  Exam Administrator Manages Special Consideration</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_203</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Bulk Upload Users - Sample csv  file</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Edit user </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery --&gt; Venue Summary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iAU_TC_ID_206.,iAU_TC_ID_210.,iAU_TC_ID_209.,iAU_TC_ID_211 @RegressionA Validation of Delivery --&gt; Live Dashboard </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_219</t>
+  </si>
+  <si>
+    <t>Exam_Prerequisit_for_iAU_TC_ID_219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_187.,iAU_TC_ID_195.,iAU_TC_ID_200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Bulk Download User Details , Validation of Delivery --&gt; Add New Users(Negative scenario) </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_226</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Gradebook list page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_201</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery --&gt; Add Existing Users</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_239</t>
+  </si>
+  <si>
+    <t>Exam_Prerequisit_for_iAU_TC_ID_239</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_197</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery --&gt; Bulk Candidate Response Download</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_219.,iAU_TC_ID_220</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_218</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_219A</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Live Monitor - Live Streaming page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_239</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_243</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation Question of Submit for Approval</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_245</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Submit for Approval</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_244</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Submit for Approval</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_247</t>
+  </si>
+  <si>
+    <t>@RegressionA Prerequisite Validation of Exam Approve"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_248</t>
+  </si>
+  <si>
+    <t>@RegressionA Prerequisite Validation of Create Question (MCQ-SBA)</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Approve</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation Question Approve</t>
+  </si>
+  <si>
+    <t>@RegressionA candidate answering questions</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_250</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_252</t>
+  </si>
+  <si>
+    <t>@RegressionA (iAU_TC_ID_152)Prerequisite Validation of Exam Workflow"</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Approve</t>
+  </si>
+  <si>
+    <t>@RegressionA Exam Reject</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_127</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exams list page</t>
+  </si>
+  <si>
+    <t>@RegressionA (iAU_TC_ID_152)Validation of Exam Approve</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_128</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exams list page &gt; Negative Scenario</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_218A</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Delivery--&gt; Marking"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_240.,iAU_TC_ID_241</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Marker score card</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_221.,iAU_TC_ID_222</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Elumina</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_242,iAU_TC_ID_223</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Elumina Markers</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_227</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Elumina GradeBook</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_228</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C184"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1118,7 +1493,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1126,10 +1501,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1137,10 +1512,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1148,10 +1523,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1159,10 +1534,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1170,10 +1545,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1181,10 +1556,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1192,10 +1567,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1203,10 +1578,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1214,10 +1589,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1225,10 +1600,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1236,10 +1611,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1247,10 +1622,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1258,10 +1633,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1269,10 +1644,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1280,10 +1655,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1291,10 +1666,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1302,10 +1677,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1313,10 +1688,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1324,21 +1699,21 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1346,10 +1721,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1357,10 +1732,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1368,21 +1743,21 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1390,10 +1765,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1401,10 +1776,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1412,10 +1787,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1423,10 +1798,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1434,10 +1809,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1445,10 +1820,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1456,21 +1831,21 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1478,10 +1853,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1489,10 +1864,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1500,10 +1875,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1511,10 +1886,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1522,10 +1897,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1533,10 +1908,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1544,10 +1919,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1555,10 +1930,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1566,10 +1941,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1577,10 +1952,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1588,10 +1963,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1599,10 +1974,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1610,10 +1985,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1621,10 +1996,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1632,10 +2007,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1643,10 +2018,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1654,21 +2029,21 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1676,21 +2051,21 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C62" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1698,10 +2073,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1709,10 +2084,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1720,10 +2095,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1731,21 +2106,21 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1753,21 +2128,21 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1775,10 +2150,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1786,10 +2161,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1797,10 +2172,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1808,10 +2183,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1819,32 +2194,32 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1852,10 +2227,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1863,54 +2238,54 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C79" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -1918,54 +2293,54 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -1973,10 +2348,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -1984,10 +2359,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -1995,21 +2370,21 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2017,10 +2392,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2028,10 +2403,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2039,10 +2414,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B95" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2050,21 +2425,21 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C96" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B97" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2072,10 +2447,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2083,10 +2458,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2094,10 +2469,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2105,10 +2480,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2116,24 +2491,912 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B102" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C102" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>191</v>
+      </c>
+      <c r="B103" t="s">
+        <v>192</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>193</v>
+      </c>
+      <c r="B104" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>197</v>
+      </c>
+      <c r="B106" t="s">
+        <v>198</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>199</v>
+      </c>
+      <c r="B107" t="s">
+        <v>159</v>
+      </c>
+      <c r="C107" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>200</v>
+      </c>
+      <c r="B108" t="s">
         <v>201</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C108" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>202</v>
       </c>
-      <c r="C103" t="s">
-        <v>5</v>
+      <c r="B109" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>204</v>
+      </c>
+      <c r="B110" t="s">
+        <v>205</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>206</v>
+      </c>
+      <c r="B111" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>208</v>
+      </c>
+      <c r="B112" t="s">
+        <v>209</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>210</v>
+      </c>
+      <c r="B113" t="s">
+        <v>211</v>
+      </c>
+      <c r="C113" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>212</v>
+      </c>
+      <c r="B114" t="s">
+        <v>213</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>214</v>
+      </c>
+      <c r="B115" t="s">
+        <v>215</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>216</v>
+      </c>
+      <c r="B116" t="s">
+        <v>217</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>218</v>
+      </c>
+      <c r="B117" t="s">
+        <v>219</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>220</v>
+      </c>
+      <c r="B118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>222</v>
+      </c>
+      <c r="B119" t="s">
+        <v>223</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>224</v>
+      </c>
+      <c r="B120" t="s">
+        <v>225</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>226</v>
+      </c>
+      <c r="B121" t="s">
+        <v>227</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>228</v>
+      </c>
+      <c r="B122" t="s">
+        <v>229</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>230</v>
+      </c>
+      <c r="B123" t="s">
+        <v>231</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>232</v>
+      </c>
+      <c r="B124" t="s">
+        <v>233</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>234</v>
+      </c>
+      <c r="B125" t="s">
+        <v>233</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>235</v>
+      </c>
+      <c r="B126" t="s">
+        <v>233</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>236</v>
+      </c>
+      <c r="B127" t="s">
+        <v>233</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>237</v>
+      </c>
+      <c r="B128" t="s">
+        <v>238</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>239</v>
+      </c>
+      <c r="B129" t="s">
+        <v>240</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>236</v>
+      </c>
+      <c r="B130" t="s">
+        <v>238</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>241</v>
+      </c>
+      <c r="B131" t="s">
+        <v>242</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>243</v>
+      </c>
+      <c r="B132" t="s">
+        <v>244</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>245</v>
+      </c>
+      <c r="B133" t="s">
+        <v>246</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>247</v>
+      </c>
+      <c r="B134" t="s">
+        <v>238</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>248</v>
+      </c>
+      <c r="B135" t="s">
+        <v>249</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>250</v>
+      </c>
+      <c r="B136" t="s">
+        <v>227</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>251</v>
+      </c>
+      <c r="B137" t="s">
+        <v>252</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>253</v>
+      </c>
+      <c r="B138" t="s">
+        <v>254</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>255</v>
+      </c>
+      <c r="B139" t="s">
+        <v>256</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>257</v>
+      </c>
+      <c r="B140" t="s">
+        <v>258</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>259</v>
+      </c>
+      <c r="B141" t="s">
+        <v>260</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>261</v>
+      </c>
+      <c r="B142" t="s">
+        <v>233</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>262</v>
+      </c>
+      <c r="B143" t="s">
+        <v>263</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>234</v>
+      </c>
+      <c r="B144" t="s">
+        <v>238</v>
+      </c>
+      <c r="C144" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>264</v>
+      </c>
+      <c r="B145" t="s">
+        <v>265</v>
+      </c>
+      <c r="C145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>266</v>
+      </c>
+      <c r="B146" t="s">
+        <v>267</v>
+      </c>
+      <c r="C146" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>268</v>
+      </c>
+      <c r="B147" t="s">
+        <v>269</v>
+      </c>
+      <c r="C147" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>270</v>
+      </c>
+      <c r="C148" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>271</v>
+      </c>
+      <c r="B149" t="s">
+        <v>272</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>273</v>
+      </c>
+      <c r="B150" t="s">
+        <v>274</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>275</v>
+      </c>
+      <c r="B151" t="s">
+        <v>276</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>261</v>
+      </c>
+      <c r="B152" t="s">
+        <v>238</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>277</v>
+      </c>
+      <c r="B153" t="s">
+        <v>278</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>279</v>
+      </c>
+      <c r="B154" t="s">
+        <v>280</v>
+      </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>281</v>
+      </c>
+      <c r="B155" t="s">
+        <v>282</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>283</v>
+      </c>
+      <c r="B156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>284</v>
+      </c>
+      <c r="B157" t="s">
+        <v>244</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>285</v>
+      </c>
+      <c r="B158" t="s">
+        <v>286</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>287</v>
+      </c>
+      <c r="B159" t="s">
+        <v>280</v>
+      </c>
+      <c r="C159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>288</v>
+      </c>
+      <c r="B160" t="s">
+        <v>289</v>
+      </c>
+      <c r="C160" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>290</v>
+      </c>
+      <c r="B161" t="s">
+        <v>291</v>
+      </c>
+      <c r="C161" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>292</v>
+      </c>
+      <c r="B162" t="s">
+        <v>293</v>
+      </c>
+      <c r="C162" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>294</v>
+      </c>
+      <c r="B163" t="s">
+        <v>295</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>114</v>
+      </c>
+      <c r="B164" t="s">
+        <v>100</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>296</v>
+      </c>
+      <c r="B165" t="s">
+        <v>297</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>114</v>
+      </c>
+      <c r="B166" t="s">
+        <v>298</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>296</v>
+      </c>
+      <c r="B167" t="s">
+        <v>299</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>287</v>
+      </c>
+      <c r="B168" t="s">
+        <v>300</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>294</v>
+      </c>
+      <c r="B169" t="s">
+        <v>162</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>287</v>
+      </c>
+      <c r="B170" t="s">
+        <v>280</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>301</v>
+      </c>
+      <c r="B171" t="s">
+        <v>295</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>302</v>
+      </c>
+      <c r="B172" t="s">
+        <v>303</v>
+      </c>
+      <c r="C172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>301</v>
+      </c>
+      <c r="B173" t="s">
+        <v>304</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>301</v>
+      </c>
+      <c r="B174" t="s">
+        <v>305</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>306</v>
+      </c>
+      <c r="B175" t="s">
+        <v>307</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>302</v>
+      </c>
+      <c r="B176" t="s">
+        <v>308</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>309</v>
+      </c>
+      <c r="B177" t="s">
+        <v>310</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>311</v>
+      </c>
+      <c r="B178" t="s">
+        <v>312</v>
+      </c>
+      <c r="C178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>313</v>
+      </c>
+      <c r="B179" t="s">
+        <v>314</v>
+      </c>
+      <c r="C179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>315</v>
+      </c>
+      <c r="B180" t="s">
+        <v>316</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>317</v>
+      </c>
+      <c r="B181" t="s">
+        <v>318</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>319</v>
+      </c>
+      <c r="B182" t="s">
+        <v>320</v>
+      </c>
+      <c r="C182" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>321</v>
+      </c>
+      <c r="B183" t="s">
+        <v>320</v>
+      </c>
+      <c r="C183" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>301</v>
+      </c>
+      <c r="B184" t="s">
+        <v>304</v>
+      </c>
+      <c r="C184" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="322">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -20,6 +20,500 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_01</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Assess App URL</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_02</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Client Logo and name, color, font size and font type of different elements in the login page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_06</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Password Masking</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_03</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Empty Field validation</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_04</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of User Id Field</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_05</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of password Field</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_08</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Login using Invalid credentials Scenario 1</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_09</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_07</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Login using valid credentials with Username and Password</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of copy paste in password field </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_10</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Login using Invalid credentials Scenario 3</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_13</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Login using valid credentials in browser offline</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_11</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Centralize Login page (Negative Scenario 1) </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_26</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Rate Limit Login</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Login page (Negative Scenario 2) </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_29</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question list page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_17</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Centralize Login page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_31</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question &gt; Choose question</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_34</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_32</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (MCQ-SBA)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_33</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (MCQ/Type A)-Negative Scenario</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_35</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (VSAQ)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_36</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (VSAQ)-Negative Scenario</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_37</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (ISAWE)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_38</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (ISAWE)-Negative Scenario.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_39</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (SAQ / Essay)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_40</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (SAQ / Essay) - Negative Scenario.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_43</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (Type-X)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_47</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (Type-B)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_48</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (Type-B) - Negative Scenario.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Questions list page(Negative Scenario) </t>
+  </si>
+  <si>
+    <t>timedOut</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Question Preview </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Create Question (SJT)/ Rating </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Edit Question </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_62</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (SJT)/ Rating - Negative Scenario.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_94</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Edit Question(Negative Scenarios)".</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_95</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question checkout</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Question Save as New version  </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Question  No Workflow  </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Question  Version Histroy </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_102</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question  Delete</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_100</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Approval Workflow</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_105</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Preview</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_96</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Checkout and delete which is attached to the Approved / Archived Exam</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_107</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprints list page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_104</t>
+  </si>
+  <si>
+    <t>@RegressionA Create Question</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_108</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprints list page(Negative Scenario)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_104A</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Duplicate</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_110</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Create Blueprint(Negative Scenarios)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_112A</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_111</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Add Multiple cart in one blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_113</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Edit Blueprint(Negative Scenarios)".</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_114A</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_112</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit Blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_114</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Edit Blueprint Add question Cart"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_103</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_249</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_118</t>
+  </si>
+  <si>
+    <t>@RegressionA ""Validation of Blueprint  Archive(only for Approved Blueprints)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_121</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Preview</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Blueprint  Archive Negative scenario (only for Approved Blueprints)
+Archive Blueprint used in up coming exam"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Blueprint Save as New version </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_115</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Edit Blueprint View Cart"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_129</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – How do you want to get started ?:</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_117A</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Duplicate Blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_130</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – Start from scratch</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_123</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Version History</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_126</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint  Direct workflow</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 2 -
+Add 1x Session (i.e AM Session) and 2x Section( i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_117B</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delete Blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_131</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – Start from scratch(Negative Scenario)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iAU_TC_ID_134 @RegressionA "Validation of Choose Question Scenario- 3 -  Add 1x Session (i.e AM Session) and
+Add 3 sections (i.e</t>
+  </si>
+  <si>
+    <t>Content + Exam Section + Survey Section)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 1 -
+Add 1x Session (i.e AM Session)and 1x Section (i.e Exam Section Only)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 5 -
+Add 2x sessions  (i.e AM and PM Sessions (with duplicate sections)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Create Exam – Copy an existing exam </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 4 - Add 1x Session (i.e AM Session) and
+Add 4x sections (i.e Content + Exam 1 Section + Exam 2 Section + Exam 3 Section + Survey Section)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_138</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Choose Question Scenario- 1 - Add 1x Session (i.e Exam Section Only)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 2 -
+Add 2x Sessions ( i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_136B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 5 -
+Add 2x sessions (with duplicate sections)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 4 -
+Add 4x sections (i.e Content + Exam 1 Section + Exam 2 Section + Exam 3 Section + Survey Section)"</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_140</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Choose Question Scenario- 3 -Add 3 sections (i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Create Exam – Copy from template </t>
   </si>
   <si>
     <t>iAU_TC_ID_142</t>
@@ -30,10 +524,481 @@
 Add 2x sessions (with duplicate sections)"</t>
   </si>
   <si>
-    <t>passed</t>
+    <t>iAU_TC_ID_147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 1 -
+Add 1x Session (i.e Exam Section Only)"</t>
   </si>
   <si>
     <t>iAU_TC_ID_142B</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Blueprint  Approval Workflow </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_145</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_148</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_153</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – How do you want to get started? - Using Blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 3 -
+Add 3 sections (i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_150</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_151</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 1 -
+Add 1x Session (i.e Exam Section Only)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 2 -
+Add 2x Sessions ( i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_151B</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 3 -
+Add 3 sections (i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_159</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit an Exam ( Previleges: Applicable only for Exam Admin)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_158</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Choose Question Scenario- 4 -
+Add 4x sections (i.e Content + Exam 1 Section + Exam 2 Section + Exam 3 Section + Survey Section)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_161</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit Exam (Negative Scenario)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_160</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit an Exam Section ( Previleges: Applicable only for Exam Admin)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Duplicate </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Version History </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Exam Preview(PDF) " </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Exam Preview(WEB) " </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Exam Preview
+( Reviewer, Approver, Examiner) "</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_158B</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_168</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Verify image size, image Quality and resolution</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Print </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Delete </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_171</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Archive</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_173</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Checkout</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_172</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Export</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_174</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery list page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_175</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery list page(Negative scenario)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_176</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery-&gt;Manage Delivery page via Exam name link.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_177</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery-&gt;Manage Delivery page via more (...)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_178</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery page Left side Panel</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Save as New version </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_207</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Delivery--&gt; Live Dashboard filters"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_181</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_205</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_192</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_212</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_181.,iAU_TC_ID_183.,iAU_TC_ID_199</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request "Validation of Delivery --&gt; Add New Users"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Delete Users </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_190</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery--&gt; Assign Venue and Booking Details</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_217</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Live Monitor - Candidate answer response Validation</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_182.,iAU_TC_ID_184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery--&gt; Delete Users (Negative Scenario) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_192.,iAU_TC_ID_193.,iAU_TC_ID_194</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_185.,iAU_TC_ID_186</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery --&gt; Download User Details</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_179</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_212.,iAU_TC_ID_213.,iAU_TC_ID_216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery --&gt; Live Monitor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_189</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery--&gt; Generate Temp ID</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_214.,iAU_TC_ID_215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery--&gt; Live Monitor all exam status  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_196</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery--&gt; Reset Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_218</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_198</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery --  Exam Administrator Manages Special Consideration</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery –-&gt; Bulk Upload Users(Negative scenario)  </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_203</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Bulk Upload Users - Sample csv  file</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Edit user </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery --&gt; Venue Summary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iAU_TC_ID_206.,iAU_TC_ID_210.,iAU_TC_ID_209.,iAU_TC_ID_211 @RegressionA Validation of Delivery --&gt; Live Dashboard </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_226</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Gradebook list page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_219</t>
+  </si>
+  <si>
+    <t>Exam_Prerequisit_for_iAU_TC_ID_219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_239</t>
+  </si>
+  <si>
+    <t>Exam_Prerequisit_for_iAU_TC_ID_239</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_218</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_219.,iAU_TC_ID_220</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_219A</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Live Monitor - Live Streaming page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_239</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_187.,iAU_TC_ID_195.,iAU_TC_ID_200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Bulk Download User Details , Validation of Delivery --&gt; Add New Users(Negative scenario) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_201</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery --&gt; Add Existing Users</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_197</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery --&gt; Bulk Candidate Response Download</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_244</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Submit for Approval</t>
+  </si>
+  <si>
+    <t>@RegressionA candidate answering questions</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_247</t>
+  </si>
+  <si>
+    <t>@RegressionA Prerequisite Validation of Exam Approve"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_243</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation Question of Submit for Approval</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_218A</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Delivery--&gt; Marking"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_248</t>
+  </si>
+  <si>
+    <t>@RegressionA Prerequisite Validation of Create Question (MCQ-SBA)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_245</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Submit for Approval</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation Question Approve</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_240.,iAU_TC_ID_241</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Marker score card</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_221.,iAU_TC_ID_222</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Elumina</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_242,iAU_TC_ID_223</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Elumina Markers</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_250</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Approve</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_127</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exams list page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_252</t>
+  </si>
+  <si>
+    <t>@RegressionA (iAU_TC_ID_152)Prerequisite Validation of Exam Workflow"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_128</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exams list page &gt; Negative Scenario</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Approve</t>
+  </si>
+  <si>
+    <t>@RegressionA (iAU_TC_ID_152)Validation of Exam Approve</t>
+  </si>
+  <si>
+    <t>@RegressionA Exam Reject</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_227</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Elumina GradeBook</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_228</t>
   </si>
 </sst>
 </file>
@@ -410,7 +1375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C184"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -440,10 +1405,1998 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>153</v>
+      </c>
+      <c r="B81" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>172</v>
+      </c>
+      <c r="B91" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>173</v>
+      </c>
+      <c r="B92" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" t="s">
+        <v>158</v>
+      </c>
+      <c r="C94" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>178</v>
+      </c>
+      <c r="B95" t="s">
+        <v>165</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>179</v>
+      </c>
+      <c r="B96" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>181</v>
+      </c>
+      <c r="B97" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>183</v>
+      </c>
+      <c r="B98" t="s">
+        <v>165</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>184</v>
+      </c>
+      <c r="B99" t="s">
+        <v>185</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>186</v>
+      </c>
+      <c r="B100" t="s">
+        <v>187</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>188</v>
+      </c>
+      <c r="B101" t="s">
+        <v>156</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102" t="s">
+        <v>190</v>
+      </c>
+      <c r="C102" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>191</v>
+      </c>
+      <c r="B103" t="s">
+        <v>192</v>
+      </c>
+      <c r="C103" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>193</v>
+      </c>
+      <c r="B104" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>197</v>
+      </c>
+      <c r="B106" t="s">
+        <v>198</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>199</v>
+      </c>
+      <c r="B107" t="s">
+        <v>200</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>201</v>
+      </c>
+      <c r="B108" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>203</v>
+      </c>
+      <c r="B109" t="s">
+        <v>204</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>205</v>
+      </c>
+      <c r="B110" t="s">
+        <v>156</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>206</v>
+      </c>
+      <c r="B111" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>208</v>
+      </c>
+      <c r="B112" t="s">
+        <v>209</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>210</v>
+      </c>
+      <c r="B113" t="s">
+        <v>211</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>212</v>
+      </c>
+      <c r="B114" t="s">
+        <v>213</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>214</v>
+      </c>
+      <c r="B115" t="s">
+        <v>215</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>216</v>
+      </c>
+      <c r="B116" t="s">
+        <v>217</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>218</v>
+      </c>
+      <c r="B117" t="s">
+        <v>219</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>220</v>
+      </c>
+      <c r="B118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>222</v>
+      </c>
+      <c r="B119" t="s">
+        <v>223</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>224</v>
+      </c>
+      <c r="B120" t="s">
+        <v>225</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>226</v>
+      </c>
+      <c r="B121" t="s">
+        <v>227</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>228</v>
+      </c>
+      <c r="B122" t="s">
+        <v>229</v>
+      </c>
+      <c r="C122" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>230</v>
+      </c>
+      <c r="B123" t="s">
+        <v>231</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>232</v>
+      </c>
+      <c r="B124" t="s">
+        <v>233</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>234</v>
+      </c>
+      <c r="B125" t="s">
+        <v>233</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>235</v>
+      </c>
+      <c r="B126" t="s">
+        <v>233</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>236</v>
+      </c>
+      <c r="B127" t="s">
+        <v>233</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>237</v>
+      </c>
+      <c r="B128" t="s">
+        <v>238</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>239</v>
+      </c>
+      <c r="B129" t="s">
+        <v>240</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>236</v>
+      </c>
+      <c r="B130" t="s">
+        <v>238</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>241</v>
+      </c>
+      <c r="B131" t="s">
+        <v>242</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>243</v>
+      </c>
+      <c r="B132" t="s">
+        <v>244</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>245</v>
+      </c>
+      <c r="B133" t="s">
+        <v>246</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>247</v>
+      </c>
+      <c r="B134" t="s">
+        <v>238</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>248</v>
+      </c>
+      <c r="B135" t="s">
+        <v>249</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>250</v>
+      </c>
+      <c r="B136" t="s">
+        <v>225</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>251</v>
+      </c>
+      <c r="B137" t="s">
+        <v>252</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>253</v>
+      </c>
+      <c r="B138" t="s">
+        <v>254</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>255</v>
+      </c>
+      <c r="B139" t="s">
+        <v>256</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>257</v>
+      </c>
+      <c r="B140" t="s">
+        <v>258</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>259</v>
+      </c>
+      <c r="B141" t="s">
+        <v>233</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>260</v>
+      </c>
+      <c r="B142" t="s">
+        <v>261</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>262</v>
+      </c>
+      <c r="B143" t="s">
+        <v>263</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>234</v>
+      </c>
+      <c r="B144" t="s">
+        <v>238</v>
+      </c>
+      <c r="C144" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>264</v>
+      </c>
+      <c r="B145" t="s">
+        <v>265</v>
+      </c>
+      <c r="C145" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>266</v>
+      </c>
+      <c r="B146" t="s">
+        <v>267</v>
+      </c>
+      <c r="C146" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>268</v>
+      </c>
+      <c r="B147" t="s">
+        <v>269</v>
+      </c>
+      <c r="C147" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>270</v>
+      </c>
+      <c r="C148" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>271</v>
+      </c>
+      <c r="B149" t="s">
+        <v>272</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>273</v>
+      </c>
+      <c r="B150" t="s">
+        <v>274</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>259</v>
+      </c>
+      <c r="B151" t="s">
+        <v>238</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>275</v>
+      </c>
+      <c r="B152" t="s">
+        <v>276</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>277</v>
+      </c>
+      <c r="B153" t="s">
+        <v>244</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>278</v>
+      </c>
+      <c r="B154" t="s">
+        <v>274</v>
+      </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>279</v>
+      </c>
+      <c r="B155" t="s">
+        <v>280</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>281</v>
+      </c>
+      <c r="B156" t="s">
+        <v>276</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>282</v>
+      </c>
+      <c r="B157" t="s">
+        <v>283</v>
+      </c>
+      <c r="C157" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>284</v>
+      </c>
+      <c r="B158" t="s">
+        <v>285</v>
+      </c>
+      <c r="C158" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>286</v>
+      </c>
+      <c r="B159" t="s">
+        <v>287</v>
+      </c>
+      <c r="C159" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>288</v>
+      </c>
+      <c r="B160" t="s">
+        <v>289</v>
+      </c>
+      <c r="C160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>281</v>
+      </c>
+      <c r="B161" t="s">
+        <v>290</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>291</v>
+      </c>
+      <c r="B162" t="s">
+        <v>292</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>281</v>
+      </c>
+      <c r="B163" t="s">
+        <v>276</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>293</v>
+      </c>
+      <c r="B164" t="s">
+        <v>294</v>
+      </c>
+      <c r="C164" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>295</v>
+      </c>
+      <c r="B165" t="s">
+        <v>296</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>297</v>
+      </c>
+      <c r="B166" t="s">
+        <v>298</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>299</v>
+      </c>
+      <c r="B167" t="s">
+        <v>300</v>
+      </c>
+      <c r="C167" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>297</v>
+      </c>
+      <c r="B168" t="s">
+        <v>301</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>302</v>
+      </c>
+      <c r="B169" t="s">
+        <v>303</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>304</v>
+      </c>
+      <c r="B170" t="s">
+        <v>305</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>306</v>
+      </c>
+      <c r="B171" t="s">
+        <v>307</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>114</v>
+      </c>
+      <c r="B172" t="s">
+        <v>102</v>
+      </c>
+      <c r="C172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>308</v>
+      </c>
+      <c r="B173" t="s">
+        <v>292</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>114</v>
+      </c>
+      <c r="B174" t="s">
+        <v>309</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>310</v>
+      </c>
+      <c r="B175" t="s">
+        <v>311</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>312</v>
+      </c>
+      <c r="B176" t="s">
+        <v>313</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>314</v>
+      </c>
+      <c r="B177" t="s">
+        <v>315</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>291</v>
+      </c>
+      <c r="B178" t="s">
+        <v>170</v>
+      </c>
+      <c r="C178" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>308</v>
+      </c>
+      <c r="B179" t="s">
+        <v>316</v>
+      </c>
+      <c r="C179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>308</v>
+      </c>
+      <c r="B180" t="s">
+        <v>316</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>312</v>
+      </c>
+      <c r="B181" t="s">
+        <v>317</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>308</v>
+      </c>
+      <c r="B182" t="s">
+        <v>318</v>
+      </c>
+      <c r="C182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>319</v>
+      </c>
+      <c r="B183" t="s">
+        <v>320</v>
+      </c>
+      <c r="C183" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>321</v>
+      </c>
+      <c r="B184" t="s">
+        <v>320</v>
+      </c>
+      <c r="C184" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,18 +22,70 @@
     <t>Status</t>
   </si>
   <si>
-    <t>iAU_TC_ID_142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@RegressionA "Validation of Choose Question
-Scenario- 5 -
-Add 2x sessions (with duplicate sections)"</t>
+    <t>AL_001</t>
+  </si>
+  <si>
+    <t>@API Admin Login Success with Mandatory Fields</t>
   </si>
   <si>
     <t>passed</t>
   </si>
   <si>
-    <t>iAU_TC_ID_142B</t>
+    <t>QS_067</t>
+  </si>
+  <si>
+    <t>@API Validation of ISAWE-CASE question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_068</t>
+  </si>
+  <si>
+    <t>@API Validation of edit ISAWE-CASE question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_069</t>
+  </si>
+  <si>
+    <t>@API Validation of ISAWE-CASE question Approved message.</t>
+  </si>
+  <si>
+    <t>QS_070</t>
+  </si>
+  <si>
+    <t>@API Validation of ISAWE-CASE question checkout message.</t>
+  </si>
+  <si>
+    <t>QS_069A</t>
+  </si>
+  <si>
+    <t>@API Validation of ISAWE-CASE question Approved message (again).</t>
+  </si>
+  <si>
+    <t>QS_071</t>
+  </si>
+  <si>
+    <t>@API ISAWE-CASE endpoint validation</t>
+  </si>
+  <si>
+    <t>QS_072</t>
+  </si>
+  <si>
+    <t>@API ISAWE-CASE Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>QS_073</t>
+  </si>
+  <si>
+    <t>@API ISAWE-CASE Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>QS_074</t>
+  </si>
+  <si>
+    <t>@API Validation of empty title field for ISAWE-CASE</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
 </sst>
 </file>
@@ -410,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -440,10 +492,98 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="322">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,70 +22,983 @@
     <t>Status</t>
   </si>
   <si>
-    <t>AL_001</t>
-  </si>
-  <si>
-    <t>@API Admin Login Success with Mandatory Fields</t>
+    <t>iAU_TC_ID_01</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Assess App URL</t>
   </si>
   <si>
     <t>passed</t>
   </si>
   <si>
-    <t>QS_067</t>
-  </si>
-  <si>
-    <t>@API Validation of ISAWE-CASE question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_068</t>
-  </si>
-  <si>
-    <t>@API Validation of edit ISAWE-CASE question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_069</t>
-  </si>
-  <si>
-    <t>@API Validation of ISAWE-CASE question Approved message.</t>
-  </si>
-  <si>
-    <t>QS_070</t>
-  </si>
-  <si>
-    <t>@API Validation of ISAWE-CASE question checkout message.</t>
-  </si>
-  <si>
-    <t>QS_069A</t>
-  </si>
-  <si>
-    <t>@API Validation of ISAWE-CASE question Approved message (again).</t>
-  </si>
-  <si>
-    <t>QS_071</t>
-  </si>
-  <si>
-    <t>@API ISAWE-CASE endpoint validation</t>
-  </si>
-  <si>
-    <t>QS_072</t>
-  </si>
-  <si>
-    <t>@API ISAWE-CASE Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>QS_073</t>
-  </si>
-  <si>
-    <t>@API ISAWE-CASE Header field validation - invalid</t>
-  </si>
-  <si>
-    <t>QS_074</t>
-  </si>
-  <si>
-    <t>@API Validation of empty title field for ISAWE-CASE</t>
+    <t>iAU_TC_ID_02</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Client Logo and name, color, font size and font type of different elements in the login page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_06</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Password Masking</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_03</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Empty Field validation</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_04</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of User Id Field</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_05</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of password Field</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_08</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Login using Invalid credentials Scenario 1</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_09</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_07</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Login using valid credentials with Username and Password</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of copy paste in password field </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_10</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Login using Invalid credentials Scenario 3</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_13</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Login using valid credentials in browser offline</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_11</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Centralize Login page (Negative Scenario 1) </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_26</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Rate Limit Login</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Login page (Negative Scenario 2) </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_29</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question list page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_17</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Centralize Login page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_31</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question &gt; Choose question</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_34</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_32</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (MCQ-SBA)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_33</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (MCQ/Type A)-Negative Scenario</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_35</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (VSAQ)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_36</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (VSAQ)-Negative Scenario</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_37</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (ISAWE)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_38</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (ISAWE)-Negative Scenario.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_39</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (SAQ / Essay)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_40</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (SAQ / Essay) - Negative Scenario.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_43</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (Type-X)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_47</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (Type-B)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_48</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (Type-B) - Negative Scenario.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Questions list page(Negative Scenario) </t>
+  </si>
+  <si>
+    <t>timedOut</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Question Preview </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Create Question (SJT)/ Rating </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Edit Question </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_62</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (SJT)/ Rating - Negative Scenario.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_94</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Edit Question(Negative Scenarios)".</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_95</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question checkout</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Question Save as New version  </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Question  No Workflow  </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Question  Version Histroy </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_102</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question  Delete</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_100</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Approval Workflow</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_105</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Preview</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_96</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Checkout and delete which is attached to the Approved / Archived Exam</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_107</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprints list page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_104</t>
+  </si>
+  <si>
+    <t>@RegressionA Create Question</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_108</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprints list page(Negative Scenario)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_104A</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Duplicate</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_110</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Create Blueprint(Negative Scenarios)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_112A</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_111</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Add Multiple cart in one blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_113</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Edit Blueprint(Negative Scenarios)".</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_114A</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_112</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit Blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_114</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Edit Blueprint Add question Cart"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_103</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_249</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_118</t>
+  </si>
+  <si>
+    <t>@RegressionA ""Validation of Blueprint  Archive(only for Approved Blueprints)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_121</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Preview</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Blueprint  Archive Negative scenario (only for Approved Blueprints)
+Archive Blueprint used in up coming exam"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Blueprint Save as New version </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_115</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Edit Blueprint View Cart"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_129</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – How do you want to get started ?:</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_117A</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Duplicate Blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_130</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – Start from scratch</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_123</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Version History</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_126</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint  Direct workflow</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 2 -
+Add 1x Session (i.e AM Session) and 2x Section( i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_117B</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delete Blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_131</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – Start from scratch(Negative Scenario)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iAU_TC_ID_134 @RegressionA "Validation of Choose Question Scenario- 3 -  Add 1x Session (i.e AM Session) and
+Add 3 sections (i.e</t>
+  </si>
+  <si>
+    <t>Content + Exam Section + Survey Section)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 1 -
+Add 1x Session (i.e AM Session)and 1x Section (i.e Exam Section Only)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 5 -
+Add 2x sessions  (i.e AM and PM Sessions (with duplicate sections)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Create Exam – Copy an existing exam </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 4 - Add 1x Session (i.e AM Session) and
+Add 4x sections (i.e Content + Exam 1 Section + Exam 2 Section + Exam 3 Section + Survey Section)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_138</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Choose Question Scenario- 1 - Add 1x Session (i.e Exam Section Only)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 2 -
+Add 2x Sessions ( i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_136B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 5 -
+Add 2x sessions (with duplicate sections)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 4 -
+Add 4x sections (i.e Content + Exam 1 Section + Exam 2 Section + Exam 3 Section + Survey Section)"</t>
   </si>
   <si>
     <t>failed</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_140</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Choose Question Scenario- 3 -Add 3 sections (i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Create Exam – Copy from template </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 5 -
+Add 2x sessions (with duplicate sections)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 1 -
+Add 1x Session (i.e Exam Section Only)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_142B</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Blueprint  Approval Workflow </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_145</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_148</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_153</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – How do you want to get started? - Using Blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 3 -
+Add 3 sections (i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_150</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_151</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 1 -
+Add 1x Session (i.e Exam Section Only)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 2 -
+Add 2x Sessions ( i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_151B</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 3 -
+Add 3 sections (i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_159</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit an Exam ( Previleges: Applicable only for Exam Admin)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_158</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Choose Question Scenario- 4 -
+Add 4x sections (i.e Content + Exam 1 Section + Exam 2 Section + Exam 3 Section + Survey Section)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_161</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit Exam (Negative Scenario)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_160</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit an Exam Section ( Previleges: Applicable only for Exam Admin)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Duplicate </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Version History </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Exam Preview(PDF) " </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Exam Preview(WEB) " </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Exam Preview
+( Reviewer, Approver, Examiner) "</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_158B</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_168</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Verify image size, image Quality and resolution</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Print </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Delete </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_171</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Archive</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_173</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Checkout</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_172</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Export</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_174</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery list page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_175</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery list page(Negative scenario)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_176</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery-&gt;Manage Delivery page via Exam name link.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_177</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery-&gt;Manage Delivery page via more (...)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_178</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery page Left side Panel</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Save as New version </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_207</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Delivery--&gt; Live Dashboard filters"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_181</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_205</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_192</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_212</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_181.,iAU_TC_ID_183.,iAU_TC_ID_199</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request "Validation of Delivery --&gt; Add New Users"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Delete Users </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_190</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery--&gt; Assign Venue and Booking Details</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_217</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Live Monitor - Candidate answer response Validation</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_182.,iAU_TC_ID_184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery--&gt; Delete Users (Negative Scenario) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_192.,iAU_TC_ID_193.,iAU_TC_ID_194</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_185.,iAU_TC_ID_186</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery --&gt; Download User Details</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_179</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_212.,iAU_TC_ID_213.,iAU_TC_ID_216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery --&gt; Live Monitor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_189</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery--&gt; Generate Temp ID</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_214.,iAU_TC_ID_215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery--&gt; Live Monitor all exam status  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_196</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery--&gt; Reset Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_218</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_198</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery --  Exam Administrator Manages Special Consideration</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery –-&gt; Bulk Upload Users(Negative scenario)  </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_203</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Bulk Upload Users - Sample csv  file</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Edit user </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery --&gt; Venue Summary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iAU_TC_ID_206.,iAU_TC_ID_210.,iAU_TC_ID_209.,iAU_TC_ID_211 @RegressionA Validation of Delivery --&gt; Live Dashboard </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_226</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Gradebook list page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_219</t>
+  </si>
+  <si>
+    <t>Exam_Prerequisit_for_iAU_TC_ID_219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_239</t>
+  </si>
+  <si>
+    <t>Exam_Prerequisit_for_iAU_TC_ID_239</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_218</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_219.,iAU_TC_ID_220</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_219A</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Live Monitor - Live Streaming page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_239</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_187.,iAU_TC_ID_195.,iAU_TC_ID_200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Bulk Download User Details , Validation of Delivery --&gt; Add New Users(Negative scenario) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_201</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery --&gt; Add Existing Users</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_197</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery --&gt; Bulk Candidate Response Download</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_244</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Submit for Approval</t>
+  </si>
+  <si>
+    <t>@RegressionA candidate answering questions</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_247</t>
+  </si>
+  <si>
+    <t>@RegressionA Prerequisite Validation of Exam Approve"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_243</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation Question of Submit for Approval</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_218A</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Delivery--&gt; Marking"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_248</t>
+  </si>
+  <si>
+    <t>@RegressionA Prerequisite Validation of Create Question (MCQ-SBA)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_245</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Submit for Approval</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation Question Approve</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_240.,iAU_TC_ID_241</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Marker score card</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_221.,iAU_TC_ID_222</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Elumina</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_242,iAU_TC_ID_223</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Elumina Markers</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_250</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Approve</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_127</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exams list page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_252</t>
+  </si>
+  <si>
+    <t>@RegressionA (iAU_TC_ID_152)Prerequisite Validation of Exam Workflow"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_128</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exams list page &gt; Negative Scenario</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Approve</t>
+  </si>
+  <si>
+    <t>@RegressionA (iAU_TC_ID_152)Validation of Exam Approve</t>
+  </si>
+  <si>
+    <t>@RegressionA Exam Reject</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_227</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Elumina GradeBook</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_228</t>
   </si>
 </sst>
 </file>
@@ -462,7 +1375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C184"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,7 +1471,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -566,10 +1479,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -577,13 +1490,1913 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>153</v>
+      </c>
+      <c r="B81" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>172</v>
+      </c>
+      <c r="B91" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>173</v>
+      </c>
+      <c r="B92" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" t="s">
+        <v>158</v>
+      </c>
+      <c r="C94" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>178</v>
+      </c>
+      <c r="B95" t="s">
+        <v>165</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>179</v>
+      </c>
+      <c r="B96" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>181</v>
+      </c>
+      <c r="B97" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>183</v>
+      </c>
+      <c r="B98" t="s">
+        <v>165</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>184</v>
+      </c>
+      <c r="B99" t="s">
+        <v>185</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>186</v>
+      </c>
+      <c r="B100" t="s">
+        <v>187</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>188</v>
+      </c>
+      <c r="B101" t="s">
+        <v>156</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102" t="s">
+        <v>190</v>
+      </c>
+      <c r="C102" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>191</v>
+      </c>
+      <c r="B103" t="s">
+        <v>192</v>
+      </c>
+      <c r="C103" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>193</v>
+      </c>
+      <c r="B104" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>197</v>
+      </c>
+      <c r="B106" t="s">
+        <v>198</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>199</v>
+      </c>
+      <c r="B107" t="s">
+        <v>200</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>201</v>
+      </c>
+      <c r="B108" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>203</v>
+      </c>
+      <c r="B109" t="s">
+        <v>204</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>205</v>
+      </c>
+      <c r="B110" t="s">
+        <v>156</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>206</v>
+      </c>
+      <c r="B111" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>208</v>
+      </c>
+      <c r="B112" t="s">
+        <v>209</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>210</v>
+      </c>
+      <c r="B113" t="s">
+        <v>211</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>212</v>
+      </c>
+      <c r="B114" t="s">
+        <v>213</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>214</v>
+      </c>
+      <c r="B115" t="s">
+        <v>215</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>216</v>
+      </c>
+      <c r="B116" t="s">
+        <v>217</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>218</v>
+      </c>
+      <c r="B117" t="s">
+        <v>219</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>220</v>
+      </c>
+      <c r="B118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>222</v>
+      </c>
+      <c r="B119" t="s">
+        <v>223</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>224</v>
+      </c>
+      <c r="B120" t="s">
+        <v>225</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>226</v>
+      </c>
+      <c r="B121" t="s">
+        <v>227</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>228</v>
+      </c>
+      <c r="B122" t="s">
+        <v>229</v>
+      </c>
+      <c r="C122" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>230</v>
+      </c>
+      <c r="B123" t="s">
+        <v>231</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>232</v>
+      </c>
+      <c r="B124" t="s">
+        <v>233</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>234</v>
+      </c>
+      <c r="B125" t="s">
+        <v>233</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>235</v>
+      </c>
+      <c r="B126" t="s">
+        <v>233</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>236</v>
+      </c>
+      <c r="B127" t="s">
+        <v>233</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>237</v>
+      </c>
+      <c r="B128" t="s">
+        <v>238</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>239</v>
+      </c>
+      <c r="B129" t="s">
+        <v>240</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>236</v>
+      </c>
+      <c r="B130" t="s">
+        <v>238</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>241</v>
+      </c>
+      <c r="B131" t="s">
+        <v>242</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>243</v>
+      </c>
+      <c r="B132" t="s">
+        <v>244</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>245</v>
+      </c>
+      <c r="B133" t="s">
+        <v>246</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>247</v>
+      </c>
+      <c r="B134" t="s">
+        <v>238</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>248</v>
+      </c>
+      <c r="B135" t="s">
+        <v>249</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>250</v>
+      </c>
+      <c r="B136" t="s">
+        <v>225</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>251</v>
+      </c>
+      <c r="B137" t="s">
+        <v>252</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>253</v>
+      </c>
+      <c r="B138" t="s">
+        <v>254</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>255</v>
+      </c>
+      <c r="B139" t="s">
+        <v>256</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>257</v>
+      </c>
+      <c r="B140" t="s">
+        <v>258</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>259</v>
+      </c>
+      <c r="B141" t="s">
+        <v>233</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>260</v>
+      </c>
+      <c r="B142" t="s">
+        <v>261</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>262</v>
+      </c>
+      <c r="B143" t="s">
+        <v>263</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>234</v>
+      </c>
+      <c r="B144" t="s">
+        <v>238</v>
+      </c>
+      <c r="C144" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>264</v>
+      </c>
+      <c r="B145" t="s">
+        <v>265</v>
+      </c>
+      <c r="C145" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>266</v>
+      </c>
+      <c r="B146" t="s">
+        <v>267</v>
+      </c>
+      <c r="C146" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>268</v>
+      </c>
+      <c r="B147" t="s">
+        <v>269</v>
+      </c>
+      <c r="C147" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>270</v>
+      </c>
+      <c r="C148" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>271</v>
+      </c>
+      <c r="B149" t="s">
+        <v>272</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>273</v>
+      </c>
+      <c r="B150" t="s">
+        <v>274</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>259</v>
+      </c>
+      <c r="B151" t="s">
+        <v>238</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>275</v>
+      </c>
+      <c r="B152" t="s">
+        <v>276</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>277</v>
+      </c>
+      <c r="B153" t="s">
+        <v>244</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>278</v>
+      </c>
+      <c r="B154" t="s">
+        <v>274</v>
+      </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>279</v>
+      </c>
+      <c r="B155" t="s">
+        <v>280</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>281</v>
+      </c>
+      <c r="B156" t="s">
+        <v>276</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>282</v>
+      </c>
+      <c r="B157" t="s">
+        <v>283</v>
+      </c>
+      <c r="C157" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>284</v>
+      </c>
+      <c r="B158" t="s">
+        <v>285</v>
+      </c>
+      <c r="C158" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>286</v>
+      </c>
+      <c r="B159" t="s">
+        <v>287</v>
+      </c>
+      <c r="C159" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>288</v>
+      </c>
+      <c r="B160" t="s">
+        <v>289</v>
+      </c>
+      <c r="C160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>281</v>
+      </c>
+      <c r="B161" t="s">
+        <v>290</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>291</v>
+      </c>
+      <c r="B162" t="s">
+        <v>292</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>281</v>
+      </c>
+      <c r="B163" t="s">
+        <v>276</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>293</v>
+      </c>
+      <c r="B164" t="s">
+        <v>294</v>
+      </c>
+      <c r="C164" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>295</v>
+      </c>
+      <c r="B165" t="s">
+        <v>296</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>297</v>
+      </c>
+      <c r="B166" t="s">
+        <v>298</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>299</v>
+      </c>
+      <c r="B167" t="s">
+        <v>300</v>
+      </c>
+      <c r="C167" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>297</v>
+      </c>
+      <c r="B168" t="s">
+        <v>301</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>302</v>
+      </c>
+      <c r="B169" t="s">
+        <v>303</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>304</v>
+      </c>
+      <c r="B170" t="s">
+        <v>305</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>306</v>
+      </c>
+      <c r="B171" t="s">
+        <v>307</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>114</v>
+      </c>
+      <c r="B172" t="s">
+        <v>102</v>
+      </c>
+      <c r="C172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>308</v>
+      </c>
+      <c r="B173" t="s">
+        <v>292</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>114</v>
+      </c>
+      <c r="B174" t="s">
+        <v>309</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>310</v>
+      </c>
+      <c r="B175" t="s">
+        <v>311</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>312</v>
+      </c>
+      <c r="B176" t="s">
+        <v>313</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>314</v>
+      </c>
+      <c r="B177" t="s">
+        <v>315</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>291</v>
+      </c>
+      <c r="B178" t="s">
+        <v>170</v>
+      </c>
+      <c r="C178" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>308</v>
+      </c>
+      <c r="B179" t="s">
+        <v>316</v>
+      </c>
+      <c r="C179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>308</v>
+      </c>
+      <c r="B180" t="s">
+        <v>316</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>312</v>
+      </c>
+      <c r="B181" t="s">
+        <v>317</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>308</v>
+      </c>
+      <c r="B182" t="s">
+        <v>318</v>
+      </c>
+      <c r="C182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>319</v>
+      </c>
+      <c r="B183" t="s">
+        <v>320</v>
+      </c>
+      <c r="C183" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>321</v>
+      </c>
+      <c r="B184" t="s">
+        <v>320</v>
+      </c>
+      <c r="C184" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="145">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -20,6 +20,432 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>CS_001</t>
+  </si>
+  <si>
+    <t>@API Candidate Login Success with Mandatory Fields</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>CS_013</t>
+  </si>
+  <si>
+    <t>@API candidate dashboard Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>CS_002</t>
+  </si>
+  <si>
+    <t>@API Canidate Login endpoint validation</t>
+  </si>
+  <si>
+    <t>CS_003</t>
+  </si>
+  <si>
+    <t>@API Canidate Login-Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>CS_004</t>
+  </si>
+  <si>
+    <t>@API Canidate Login Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>CS_005</t>
+  </si>
+  <si>
+    <t>@API Canidate Login Header field validation - empty</t>
+  </si>
+  <si>
+    <t>CS_006</t>
+  </si>
+  <si>
+    <t>@API Canidate Login Username validation- invalid</t>
+  </si>
+  <si>
+    <t>CS_007</t>
+  </si>
+  <si>
+    <t>@API Canidate Login Username validation - empty</t>
+  </si>
+  <si>
+    <t>CS_008</t>
+  </si>
+  <si>
+    <t>@API Canidate Login Password validation - invalid</t>
+  </si>
+  <si>
+    <t>CS_009</t>
+  </si>
+  <si>
+    <t>@API Canidate Login Password validation- empty</t>
+  </si>
+  <si>
+    <t>CS_011</t>
+  </si>
+  <si>
+    <t>@API candidate dashboard endpoint validation</t>
+  </si>
+  <si>
+    <t>CS_012</t>
+  </si>
+  <si>
+    <t>@API candidate dashboard Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>CS_001A</t>
+  </si>
+  <si>
+    <t>CS_010</t>
+  </si>
+  <si>
+    <t>@API Validate candidate dashboard.</t>
+  </si>
+  <si>
+    <t>CS_014</t>
+  </si>
+  <si>
+    <t>@API candidate dashboard Header field validation - empty</t>
+  </si>
+  <si>
+    <t>CS_001B</t>
+  </si>
+  <si>
+    <t>CS_010A</t>
+  </si>
+  <si>
+    <t>CS_015</t>
+  </si>
+  <si>
+    <t>@API Validation of successful message for invigilator password.</t>
+  </si>
+  <si>
+    <t>CS_016</t>
+  </si>
+  <si>
+    <t>@API Validation of invalid invigilator password.</t>
+  </si>
+  <si>
+    <t>CS_017</t>
+  </si>
+  <si>
+    <t>@API Validation of empty invigilator password.</t>
+  </si>
+  <si>
+    <t>CS_001C</t>
+  </si>
+  <si>
+    <t>CS_010B</t>
+  </si>
+  <si>
+    <t>CS_015A</t>
+  </si>
+  <si>
+    <t>CS_018</t>
+  </si>
+  <si>
+    <t>@API Validation of Candiate Exam status- Before exam start</t>
+  </si>
+  <si>
+    <t>CS_019</t>
+  </si>
+  <si>
+    <t>@API Before exam star-Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>CS_020</t>
+  </si>
+  <si>
+    <t>@API Validation of Candiate Exam status- After exam start</t>
+  </si>
+  <si>
+    <t>CS_021</t>
+  </si>
+  <si>
+    <t>@API After exam star-Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>CS_024</t>
+  </si>
+  <si>
+    <t>@API Validation of Candiate info.</t>
+  </si>
+  <si>
+    <t>CS_025</t>
+  </si>
+  <si>
+    <t>@API  Candiate info-Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>CS_026</t>
+  </si>
+  <si>
+    <t>@API  Candiate info-endpoint validation</t>
+  </si>
+  <si>
+    <t>CS_027</t>
+  </si>
+  <si>
+    <t>@API Validation of candidate events.</t>
+  </si>
+  <si>
+    <t>CS_028</t>
+  </si>
+  <si>
+    <t>@API candidate events-Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>CS_029</t>
+  </si>
+  <si>
+    <t>@API candidate events-endpoint validation</t>
+  </si>
+  <si>
+    <t>CS_030</t>
+  </si>
+  <si>
+    <t>@API Validation of candidate instruction.</t>
+  </si>
+  <si>
+    <t>CS_031</t>
+  </si>
+  <si>
+    <t>@API  candidate instruction-Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>CS_032</t>
+  </si>
+  <si>
+    <t>@API  candidate instruction-endpoint validation</t>
+  </si>
+  <si>
+    <t>CS_033</t>
+  </si>
+  <si>
+    <t>@API Validation of download exam content page.</t>
+  </si>
+  <si>
+    <t>CS_034</t>
+  </si>
+  <si>
+    <t>@API exam content page-Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>CS_035</t>
+  </si>
+  <si>
+    <t>@API exam content page-endpoint validation</t>
+  </si>
+  <si>
+    <t>CS_036</t>
+  </si>
+  <si>
+    <t>@API Validation of Candidate exam page download.</t>
+  </si>
+  <si>
+    <t>CS_037</t>
+  </si>
+  <si>
+    <t>@API  Candidate exam page download-Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>CS_038</t>
+  </si>
+  <si>
+    <t>@API  Candidate exam page download-endpoint validation</t>
+  </si>
+  <si>
+    <t>CS_039</t>
+  </si>
+  <si>
+    <t>@API Validation of candidate all notes.</t>
+  </si>
+  <si>
+    <t>CS_040</t>
+  </si>
+  <si>
+    <t>@API candidate all notes-Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>CS_041</t>
+  </si>
+  <si>
+    <t>@API candidate all notes-endpoint validation</t>
+  </si>
+  <si>
+    <t>CS_042</t>
+  </si>
+  <si>
+    <t>@API Validation of question download status.</t>
+  </si>
+  <si>
+    <t>CS_043</t>
+  </si>
+  <si>
+    <t>@API question download status-Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>CS_044</t>
+  </si>
+  <si>
+    <t>@API question download status-endpoint validation</t>
+  </si>
+  <si>
+    <t>CS_045</t>
+  </si>
+  <si>
+    <t>@API Validation of candidate save notes.</t>
+  </si>
+  <si>
+    <t>CS_046</t>
+  </si>
+  <si>
+    <t>@API candidate save notes-Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>CS_047</t>
+  </si>
+  <si>
+    <t>@API candidate save notes-endpoint validation</t>
+  </si>
+  <si>
+    <t>CS_048</t>
+  </si>
+  <si>
+    <t>@API Validaton of Save highlight text.</t>
+  </si>
+  <si>
+    <t>CS_049</t>
+  </si>
+  <si>
+    <t>@API Save highlight text-Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>CS_050</t>
+  </si>
+  <si>
+    <t>@API Save highlight text-endpoint validation</t>
+  </si>
+  <si>
+    <t>CS_051</t>
+  </si>
+  <si>
+    <t>@API Validaton of remove saved highlight text.</t>
+  </si>
+  <si>
+    <t>CS_052</t>
+  </si>
+  <si>
+    <t>@API remove saved highlight text-Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>CS_053</t>
+  </si>
+  <si>
+    <t>@API remove saved highlight text-endpoint validation</t>
+  </si>
+  <si>
+    <t>CS_054</t>
+  </si>
+  <si>
+    <t>@API Validation of Exam survey page.</t>
+  </si>
+  <si>
+    <t>CS_055</t>
+  </si>
+  <si>
+    <t>@API Exam survey page-Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>CS_056</t>
+  </si>
+  <si>
+    <t>@API Exam survey page-endpoint validation</t>
+  </si>
+  <si>
+    <t>CS_057</t>
+  </si>
+  <si>
+    <t>@API Validation of Exam Practice Result</t>
+  </si>
+  <si>
+    <t>CS_058</t>
+  </si>
+  <si>
+    <t>@API  Exam Practice Result-Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>CS_059</t>
+  </si>
+  <si>
+    <t>@API  Exam Practice Result-endpoint validation</t>
+  </si>
+  <si>
+    <t>CS_060</t>
+  </si>
+  <si>
+    <t>@API Validation of Exam Practice Question Result</t>
+  </si>
+  <si>
+    <t>CS_061</t>
+  </si>
+  <si>
+    <t>@API Exam Practice Question Result-Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>CS_062</t>
+  </si>
+  <si>
+    <t>@API Exam Practice Question Result-endpoint validation</t>
+  </si>
+  <si>
+    <t>CS_066</t>
+  </si>
+  <si>
+    <t>@API Validation of Candidate question response save.</t>
+  </si>
+  <si>
+    <t>CS_067</t>
+  </si>
+  <si>
+    <t>@API Candidate question response save-Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>CS_068</t>
+  </si>
+  <si>
+    <t>@API Candidate question response save-endpoint validation</t>
+  </si>
+  <si>
+    <t>CS_069</t>
+  </si>
+  <si>
+    <t>@API Validation of candidate current time.</t>
+  </si>
+  <si>
+    <t>CS_070</t>
+  </si>
+  <si>
+    <t>@API candidate current time-endpoint validation</t>
+  </si>
+  <si>
+    <t>CS_071</t>
+  </si>
+  <si>
+    <t>@API Validation of candidate chat setting.</t>
+  </si>
+  <si>
+    <t>CS_072</t>
+  </si>
+  <si>
+    <t>@API candidate chat setting endpoint validation</t>
   </si>
 </sst>
 </file>
@@ -396,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C74"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -410,6 +836,809 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="337">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,24 +22,78 @@
     <t>Status</t>
   </si>
   <si>
+    <t>AL_001</t>
+  </si>
+  <si>
+    <t>@API Admin Login Success with Mandatory Fields</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>ES_001</t>
+  </si>
+  <si>
+    <t>@API Validation of Exam creation successfull message.</t>
+  </si>
+  <si>
+    <t>ES_002</t>
+  </si>
+  <si>
+    <t>@API Validation of Exam section and add questions successfull message.</t>
+  </si>
+  <si>
+    <t>ES_003</t>
+  </si>
+  <si>
+    <t>@API Validation of Approved Exam  successfull message.</t>
+  </si>
+  <si>
+    <t>ES_004</t>
+  </si>
+  <si>
+    <t>@API Validation of add user successful message.</t>
+  </si>
+  <si>
+    <t>ES_005</t>
+  </si>
+  <si>
+    <t>@API Validation of Empty Exam name field in Exam Page.</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>ES_006</t>
+  </si>
+  <si>
+    <t>@API Exam creation-endpoint validation</t>
+  </si>
+  <si>
+    <t>ES_007</t>
+  </si>
+  <si>
+    <t>@API Exam creation-Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>ES_008</t>
+  </si>
+  <si>
+    <t>@API Exam creation-Header field validation - invalid</t>
+  </si>
+  <si>
     <t>CS_001</t>
   </si>
   <si>
     <t>@API Candidate Login Success with Mandatory Fields</t>
   </si>
   <si>
-    <t>passed</t>
-  </si>
-  <si>
     <t>CS_013</t>
   </si>
   <si>
     <t>@API candidate dashboard Header field validation - invalid</t>
   </si>
   <si>
-    <t>failed</t>
-  </si>
-  <si>
     <t>CS_002</t>
   </si>
   <si>
@@ -446,6 +500,528 @@
   </si>
   <si>
     <t>@API candidate chat setting endpoint validation</t>
+  </si>
+  <si>
+    <t>QS_067</t>
+  </si>
+  <si>
+    <t>@API Validation of ISAWE-CASE question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_068</t>
+  </si>
+  <si>
+    <t>@API Validation of edit ISAWE-CASE question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_069</t>
+  </si>
+  <si>
+    <t>@API Validation of ISAWE-CASE question Approved message.</t>
+  </si>
+  <si>
+    <t>QS_070</t>
+  </si>
+  <si>
+    <t>@API Validation of ISAWE-CASE question checkout message.</t>
+  </si>
+  <si>
+    <t>QS_069A</t>
+  </si>
+  <si>
+    <t>@API Validation of ISAWE-CASE question Approved message (again).</t>
+  </si>
+  <si>
+    <t>QS_071</t>
+  </si>
+  <si>
+    <t>@API ISAWE-CASE endpoint validation</t>
+  </si>
+  <si>
+    <t>QS_072</t>
+  </si>
+  <si>
+    <t>@API ISAWE-CASE Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>QS_073</t>
+  </si>
+  <si>
+    <t>@API ISAWE-CASE Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>QS_074</t>
+  </si>
+  <si>
+    <t>@API Validation of empty title field for ISAWE-CASE</t>
+  </si>
+  <si>
+    <t>QS_035</t>
+  </si>
+  <si>
+    <t>@API Validation of ISAWE question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_036</t>
+  </si>
+  <si>
+    <t>@API Validation of edit ISAWE question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_037</t>
+  </si>
+  <si>
+    <t>@API Validation of ISAWE question Approved message.</t>
+  </si>
+  <si>
+    <t>QS_038</t>
+  </si>
+  <si>
+    <t>@API Validation of ISAWE question checkout message.</t>
+  </si>
+  <si>
+    <t>QS_037A</t>
+  </si>
+  <si>
+    <t>@API Validation of ISAWE question Approved message (again).</t>
+  </si>
+  <si>
+    <t>QS_039</t>
+  </si>
+  <si>
+    <t>@API endpoint validation</t>
+  </si>
+  <si>
+    <t>QS_040</t>
+  </si>
+  <si>
+    <t>@API Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>QS_041</t>
+  </si>
+  <si>
+    <t>@API Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>QS_042</t>
+  </si>
+  <si>
+    <t>@API Validation of empty title field.</t>
+  </si>
+  <si>
+    <t>QS_001</t>
+  </si>
+  <si>
+    <t>@API Validation of MCQ question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_002</t>
+  </si>
+  <si>
+    <t>@API Validation of edit MCQ question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_003</t>
+  </si>
+  <si>
+    <t>@API Validation of MCQ question Approved message.</t>
+  </si>
+  <si>
+    <t>QS_005</t>
+  </si>
+  <si>
+    <t>@API Validation of MCQ question checkout message.</t>
+  </si>
+  <si>
+    <t>QS_003A</t>
+  </si>
+  <si>
+    <t>@API Validation of MCQ question Approved message (again).</t>
+  </si>
+  <si>
+    <t>QS_004</t>
+  </si>
+  <si>
+    <t>@API Validation of create question page.</t>
+  </si>
+  <si>
+    <t>QS_006</t>
+  </si>
+  <si>
+    <t>QS_007</t>
+  </si>
+  <si>
+    <t>QS_008</t>
+  </si>
+  <si>
+    <t>QS_009</t>
+  </si>
+  <si>
+    <t>QS_107</t>
+  </si>
+  <si>
+    <t>@API Validation of Ranking question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_108</t>
+  </si>
+  <si>
+    <t>@API Validation of edit Ranking question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_109</t>
+  </si>
+  <si>
+    <t>@API Validation of Ranking question Approved message.</t>
+  </si>
+  <si>
+    <t>QS_110</t>
+  </si>
+  <si>
+    <t>@API Validation of Ranking question checkout message.</t>
+  </si>
+  <si>
+    <t>QS_109A</t>
+  </si>
+  <si>
+    <t>@API Validation of Ranking question Approved message (again).</t>
+  </si>
+  <si>
+    <t>QS_111</t>
+  </si>
+  <si>
+    <t>@API Ranking question endpoint validation</t>
+  </si>
+  <si>
+    <t>QS_112</t>
+  </si>
+  <si>
+    <t>@API Ranking question Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>QS_113</t>
+  </si>
+  <si>
+    <t>@API Ranking question Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>QS_114</t>
+  </si>
+  <si>
+    <t>@API Validation of empty title field for Ranking question</t>
+  </si>
+  <si>
+    <t>QS_010</t>
+  </si>
+  <si>
+    <t>@API Validation of SAQ question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_011</t>
+  </si>
+  <si>
+    <t>@API Validation of edit SAQ question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_012</t>
+  </si>
+  <si>
+    <t>@API Validation of SAQ question Approved message.</t>
+  </si>
+  <si>
+    <t>QS_014</t>
+  </si>
+  <si>
+    <t>@API Validation of SAQ question checkout message.</t>
+  </si>
+  <si>
+    <t>QS_012A</t>
+  </si>
+  <si>
+    <t>@API Validation of SAQ question Approved message (again).</t>
+  </si>
+  <si>
+    <t>QS_015</t>
+  </si>
+  <si>
+    <t>QS_016</t>
+  </si>
+  <si>
+    <t>QS_017</t>
+  </si>
+  <si>
+    <t>QS_018</t>
+  </si>
+  <si>
+    <t>QS_059</t>
+  </si>
+  <si>
+    <t>@API Validation of Scenario question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_060</t>
+  </si>
+  <si>
+    <t>@API Validation of edit Scenario question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_061</t>
+  </si>
+  <si>
+    <t>@API Validation of Scenario question Approved message.</t>
+  </si>
+  <si>
+    <t>QS_062</t>
+  </si>
+  <si>
+    <t>@API Validation of Scenario question checkout message.</t>
+  </si>
+  <si>
+    <t>QS_061A</t>
+  </si>
+  <si>
+    <t>@API Validation of Scenario question Approved message (again).</t>
+  </si>
+  <si>
+    <t>QS_063</t>
+  </si>
+  <si>
+    <t>@API Scenario question endpoint validation</t>
+  </si>
+  <si>
+    <t>QS_064</t>
+  </si>
+  <si>
+    <t>@API Scenario question- Method validation-  incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>QS_065</t>
+  </si>
+  <si>
+    <t>@API Scenario question- Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>QS_066</t>
+  </si>
+  <si>
+    <t>@API Validation of empty title field for Scenario question</t>
+  </si>
+  <si>
+    <t>QS_051</t>
+  </si>
+  <si>
+    <t>@API Validation of SJT question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_052</t>
+  </si>
+  <si>
+    <t>@API Validation of edit SJT question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_053</t>
+  </si>
+  <si>
+    <t>@API Validation of SJT question Approved message.</t>
+  </si>
+  <si>
+    <t>QS_054</t>
+  </si>
+  <si>
+    <t>@API Validation of SJT question checkout message.</t>
+  </si>
+  <si>
+    <t>QS_053A</t>
+  </si>
+  <si>
+    <t>@API Validation of SJT question Approved message (again).</t>
+  </si>
+  <si>
+    <t>QS_055</t>
+  </si>
+  <si>
+    <t>QS_056</t>
+  </si>
+  <si>
+    <t>QS_057</t>
+  </si>
+  <si>
+    <t>QS_058</t>
+  </si>
+  <si>
+    <t>QS_027</t>
+  </si>
+  <si>
+    <t>@API Validation of Type-B question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_028</t>
+  </si>
+  <si>
+    <t>@API Validation of edit Type-B question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_029</t>
+  </si>
+  <si>
+    <t>@API Validation of Type-B question Approved message.</t>
+  </si>
+  <si>
+    <t>QS_030</t>
+  </si>
+  <si>
+    <t>@API Validation of Type-B question checkout message.</t>
+  </si>
+  <si>
+    <t>QS_029A</t>
+  </si>
+  <si>
+    <t>@API Validation of Type-B question Approved message (again).</t>
+  </si>
+  <si>
+    <t>QS_031</t>
+  </si>
+  <si>
+    <t>QS_032</t>
+  </si>
+  <si>
+    <t>QS_033</t>
+  </si>
+  <si>
+    <t>QS_034</t>
+  </si>
+  <si>
+    <t>QS_043</t>
+  </si>
+  <si>
+    <t>@API Validation of Type-X question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_044</t>
+  </si>
+  <si>
+    <t>@API Validation of edit Type-X question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_045</t>
+  </si>
+  <si>
+    <t>@API Validation of Type-X question Approved message.</t>
+  </si>
+  <si>
+    <t>QS_046</t>
+  </si>
+  <si>
+    <t>@API Validation of Type-X question checkout message.</t>
+  </si>
+  <si>
+    <t>QS_045A</t>
+  </si>
+  <si>
+    <t>@API Validation of Type-X question Approved message (again).</t>
+  </si>
+  <si>
+    <t>QS_047</t>
+  </si>
+  <si>
+    <t>QS_048</t>
+  </si>
+  <si>
+    <t>QS_049</t>
+  </si>
+  <si>
+    <t>QS_050</t>
+  </si>
+  <si>
+    <t>QS_019</t>
+  </si>
+  <si>
+    <t>@API Validation of VSAQ question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_020</t>
+  </si>
+  <si>
+    <t>@API Validation of edit VSAQ question successfull message.</t>
+  </si>
+  <si>
+    <t>QS_021</t>
+  </si>
+  <si>
+    <t>@API Validation of VSAQ question Approved message.</t>
+  </si>
+  <si>
+    <t>QS_022</t>
+  </si>
+  <si>
+    <t>@API Validation of VSAQ question checkout message.</t>
+  </si>
+  <si>
+    <t>QS_021A</t>
+  </si>
+  <si>
+    <t>@API Validation of VSAQ question Approved message (again).</t>
+  </si>
+  <si>
+    <t>QS_023</t>
+  </si>
+  <si>
+    <t>QS_024</t>
+  </si>
+  <si>
+    <t>QS_025</t>
+  </si>
+  <si>
+    <t>QS_026</t>
+  </si>
+  <si>
+    <t>AL_002</t>
+  </si>
+  <si>
+    <t>@API To verify the response when passing an invalid endpoint.</t>
+  </si>
+  <si>
+    <t>AL_003</t>
+  </si>
+  <si>
+    <t>@API To verify the response when an incorrect HTTP method is used for a request.</t>
+  </si>
+  <si>
+    <t>AL_004</t>
+  </si>
+  <si>
+    <t>@API To verify the response on passing invalid webreferer in the header field.</t>
+  </si>
+  <si>
+    <t>AL_005</t>
+  </si>
+  <si>
+    <t>@API To verify the response on passing empty webreferer in the header field.</t>
+  </si>
+  <si>
+    <t>AL_006</t>
+  </si>
+  <si>
+    <t>@API To verify the response on passing invalid username in the request field.</t>
+  </si>
+  <si>
+    <t>AL_007</t>
+  </si>
+  <si>
+    <t>@API To verify the response on passing empty username in the request field.</t>
+  </si>
+  <si>
+    <t>AL_008</t>
+  </si>
+  <si>
+    <t>@API To verify the response on passing invalid password in the request field.</t>
+  </si>
+  <si>
+    <t>AL_009</t>
+  </si>
+  <si>
+    <t>@API To verify the response on passing empty password in the request field.</t>
   </si>
 </sst>
 </file>
@@ -822,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C193"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -849,21 +1425,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -871,10 +1447,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -882,76 +1458,76 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -959,21 +1535,21 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -981,10 +1557,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -992,24 +1568,24 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1017,51 +1593,51 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1069,21 +1645,21 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1091,10 +1667,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1102,21 +1678,21 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1124,10 +1700,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1135,10 +1711,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1146,32 +1722,32 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1182,7 +1758,7 @@
         <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1190,10 +1766,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1201,10 +1777,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1212,10 +1788,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1223,10 +1799,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1234,10 +1810,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1245,10 +1821,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1256,10 +1832,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1267,10 +1843,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1278,10 +1854,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1289,10 +1865,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1300,10 +1876,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1311,10 +1887,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1322,10 +1898,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1333,10 +1909,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1344,10 +1920,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1355,10 +1931,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1366,10 +1942,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1377,10 +1953,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1388,10 +1964,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1399,10 +1975,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1410,10 +1986,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1421,10 +1997,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1432,10 +2008,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1443,10 +2019,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1454,10 +2030,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1465,10 +2041,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1476,10 +2052,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1487,10 +2063,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1498,10 +2074,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1509,10 +2085,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1520,10 +2096,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1531,10 +2107,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1542,10 +2118,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1553,10 +2129,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1564,10 +2140,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1575,10 +2151,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1586,10 +2162,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1597,10 +2173,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1608,10 +2184,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1619,10 +2195,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1630,13 +2206,1322 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>143</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>144</v>
       </c>
-      <c r="C74" t="s">
-        <v>5</v>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>173</v>
+      </c>
+      <c r="B91" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" t="s">
+        <v>178</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>179</v>
+      </c>
+      <c r="B94" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>187</v>
+      </c>
+      <c r="B99" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>191</v>
+      </c>
+      <c r="B101" t="s">
+        <v>192</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>193</v>
+      </c>
+      <c r="B102" t="s">
+        <v>194</v>
+      </c>
+      <c r="C102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>195</v>
+      </c>
+      <c r="B103" t="s">
+        <v>196</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>197</v>
+      </c>
+      <c r="B104" t="s">
+        <v>198</v>
+      </c>
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>199</v>
+      </c>
+      <c r="B106" t="s">
+        <v>200</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" t="s">
+        <v>202</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>203</v>
+      </c>
+      <c r="B108" t="s">
+        <v>204</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>205</v>
+      </c>
+      <c r="B109" t="s">
+        <v>206</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>207</v>
+      </c>
+      <c r="B110" t="s">
+        <v>208</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>209</v>
+      </c>
+      <c r="B111" t="s">
+        <v>210</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>211</v>
+      </c>
+      <c r="B112" t="s">
+        <v>192</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>212</v>
+      </c>
+      <c r="B113" t="s">
+        <v>194</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>213</v>
+      </c>
+      <c r="B114" t="s">
+        <v>196</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>214</v>
+      </c>
+      <c r="B115" t="s">
+        <v>198</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>215</v>
+      </c>
+      <c r="B117" t="s">
+        <v>216</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>217</v>
+      </c>
+      <c r="B118" t="s">
+        <v>218</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>219</v>
+      </c>
+      <c r="B119" t="s">
+        <v>220</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>221</v>
+      </c>
+      <c r="B120" t="s">
+        <v>222</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>223</v>
+      </c>
+      <c r="B121" t="s">
+        <v>224</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>225</v>
+      </c>
+      <c r="B122" t="s">
+        <v>226</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>227</v>
+      </c>
+      <c r="B123" t="s">
+        <v>228</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>229</v>
+      </c>
+      <c r="B124" t="s">
+        <v>230</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>231</v>
+      </c>
+      <c r="B125" t="s">
+        <v>232</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>233</v>
+      </c>
+      <c r="B127" t="s">
+        <v>234</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>235</v>
+      </c>
+      <c r="B128" t="s">
+        <v>236</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>237</v>
+      </c>
+      <c r="B129" t="s">
+        <v>238</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>239</v>
+      </c>
+      <c r="B130" t="s">
+        <v>240</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>241</v>
+      </c>
+      <c r="B131" t="s">
+        <v>242</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>243</v>
+      </c>
+      <c r="B132" t="s">
+        <v>192</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>244</v>
+      </c>
+      <c r="B133" t="s">
+        <v>194</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>245</v>
+      </c>
+      <c r="B134" t="s">
+        <v>196</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>246</v>
+      </c>
+      <c r="B135" t="s">
+        <v>198</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>247</v>
+      </c>
+      <c r="B137" t="s">
+        <v>248</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>249</v>
+      </c>
+      <c r="B138" t="s">
+        <v>250</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>251</v>
+      </c>
+      <c r="B139" t="s">
+        <v>252</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>253</v>
+      </c>
+      <c r="B140" t="s">
+        <v>254</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>255</v>
+      </c>
+      <c r="B141" t="s">
+        <v>256</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>257</v>
+      </c>
+      <c r="B142" t="s">
+        <v>258</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>259</v>
+      </c>
+      <c r="B143" t="s">
+        <v>260</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>261</v>
+      </c>
+      <c r="B144" t="s">
+        <v>262</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>263</v>
+      </c>
+      <c r="B145" t="s">
+        <v>264</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>265</v>
+      </c>
+      <c r="B147" t="s">
+        <v>266</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>267</v>
+      </c>
+      <c r="B148" t="s">
+        <v>268</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>269</v>
+      </c>
+      <c r="B149" t="s">
+        <v>270</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>271</v>
+      </c>
+      <c r="B150" t="s">
+        <v>272</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>273</v>
+      </c>
+      <c r="B151" t="s">
+        <v>274</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>275</v>
+      </c>
+      <c r="B152" t="s">
+        <v>192</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>276</v>
+      </c>
+      <c r="B153" t="s">
+        <v>194</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>277</v>
+      </c>
+      <c r="B154" t="s">
+        <v>196</v>
+      </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>278</v>
+      </c>
+      <c r="B155" t="s">
+        <v>198</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>279</v>
+      </c>
+      <c r="B157" t="s">
+        <v>280</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>281</v>
+      </c>
+      <c r="B158" t="s">
+        <v>282</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>283</v>
+      </c>
+      <c r="B159" t="s">
+        <v>284</v>
+      </c>
+      <c r="C159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>285</v>
+      </c>
+      <c r="B160" t="s">
+        <v>286</v>
+      </c>
+      <c r="C160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>287</v>
+      </c>
+      <c r="B161" t="s">
+        <v>288</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>289</v>
+      </c>
+      <c r="B162" t="s">
+        <v>192</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>290</v>
+      </c>
+      <c r="B163" t="s">
+        <v>194</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>291</v>
+      </c>
+      <c r="B164" t="s">
+        <v>196</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>292</v>
+      </c>
+      <c r="B165" t="s">
+        <v>198</v>
+      </c>
+      <c r="C165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>293</v>
+      </c>
+      <c r="B167" t="s">
+        <v>294</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>295</v>
+      </c>
+      <c r="B168" t="s">
+        <v>296</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>297</v>
+      </c>
+      <c r="B169" t="s">
+        <v>298</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>299</v>
+      </c>
+      <c r="B170" t="s">
+        <v>300</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>301</v>
+      </c>
+      <c r="B171" t="s">
+        <v>302</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>303</v>
+      </c>
+      <c r="B172" t="s">
+        <v>192</v>
+      </c>
+      <c r="C172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>304</v>
+      </c>
+      <c r="B173" t="s">
+        <v>194</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>305</v>
+      </c>
+      <c r="B174" t="s">
+        <v>196</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>306</v>
+      </c>
+      <c r="B175" t="s">
+        <v>198</v>
+      </c>
+      <c r="C175" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>3</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>307</v>
+      </c>
+      <c r="B177" t="s">
+        <v>308</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>309</v>
+      </c>
+      <c r="B178" t="s">
+        <v>310</v>
+      </c>
+      <c r="C178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>311</v>
+      </c>
+      <c r="B179" t="s">
+        <v>312</v>
+      </c>
+      <c r="C179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>313</v>
+      </c>
+      <c r="B180" t="s">
+        <v>314</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>315</v>
+      </c>
+      <c r="B181" t="s">
+        <v>316</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>317</v>
+      </c>
+      <c r="B182" t="s">
+        <v>192</v>
+      </c>
+      <c r="C182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>318</v>
+      </c>
+      <c r="B183" t="s">
+        <v>194</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>319</v>
+      </c>
+      <c r="B184" t="s">
+        <v>196</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>320</v>
+      </c>
+      <c r="B185" t="s">
+        <v>198</v>
+      </c>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>321</v>
+      </c>
+      <c r="B186" t="s">
+        <v>322</v>
+      </c>
+      <c r="C186" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>323</v>
+      </c>
+      <c r="B187" t="s">
+        <v>324</v>
+      </c>
+      <c r="C187" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>325</v>
+      </c>
+      <c r="B188" t="s">
+        <v>326</v>
+      </c>
+      <c r="C188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>327</v>
+      </c>
+      <c r="B189" t="s">
+        <v>328</v>
+      </c>
+      <c r="C189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>329</v>
+      </c>
+      <c r="B190" t="s">
+        <v>330</v>
+      </c>
+      <c r="C190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>331</v>
+      </c>
+      <c r="B191" t="s">
+        <v>332</v>
+      </c>
+      <c r="C191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>333</v>
+      </c>
+      <c r="B192" t="s">
+        <v>334</v>
+      </c>
+      <c r="C192" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>335</v>
+      </c>
+      <c r="B193" t="s">
+        <v>336</v>
+      </c>
+      <c r="C193" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="322">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,1006 +22,983 @@
     <t>Status</t>
   </si>
   <si>
-    <t>AL_001</t>
-  </si>
-  <si>
-    <t>@API Admin Login Success with Mandatory Fields</t>
+    <t>iAU_TC_ID_01</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Assess App URL</t>
   </si>
   <si>
     <t>passed</t>
   </si>
   <si>
-    <t>ES_001</t>
-  </si>
-  <si>
-    <t>@API Validation of Exam creation successfull message.</t>
-  </si>
-  <si>
-    <t>ES_002</t>
-  </si>
-  <si>
-    <t>@API Validation of Exam section and add questions successfull message.</t>
-  </si>
-  <si>
-    <t>ES_003</t>
-  </si>
-  <si>
-    <t>@API Validation of Approved Exam  successfull message.</t>
-  </si>
-  <si>
-    <t>ES_004</t>
-  </si>
-  <si>
-    <t>@API Validation of add user successful message.</t>
-  </si>
-  <si>
-    <t>ES_005</t>
-  </si>
-  <si>
-    <t>@API Validation of Empty Exam name field in Exam Page.</t>
+    <t>iAU_TC_ID_02</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Client Logo and name, color, font size and font type of different elements in the login page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_06</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Password Masking</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_03</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Empty Field validation</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_04</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of User Id Field</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_05</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of password Field</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_08</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Login using Invalid credentials Scenario 1</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_09</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_07</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Login using valid credentials with Username and Password</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of copy paste in password field </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_10</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Login using Invalid credentials Scenario 3</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_13</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Login using valid credentials in browser offline</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_11</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Centralize Login page (Negative Scenario 1) </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_26</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Rate Limit Login</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Login page (Negative Scenario 2) </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_29</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question list page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_17</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Centralize Login page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_31</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question &gt; Choose question</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_34</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_32</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (MCQ-SBA)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_33</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (MCQ/Type A)-Negative Scenario</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_35</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (VSAQ)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_36</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (VSAQ)-Negative Scenario</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_37</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (ISAWE)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_38</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (ISAWE)-Negative Scenario.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_39</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (SAQ / Essay)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_40</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (SAQ / Essay) - Negative Scenario.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_43</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (Type-X)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_47</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (Type-B)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_48</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (Type-B) - Negative Scenario.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Questions list page(Negative Scenario) </t>
+  </si>
+  <si>
+    <t>timedOut</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Question Preview </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Create Question (SJT)/ Rating </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Edit Question </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_62</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Question (SJT)/ Rating - Negative Scenario.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_94</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Edit Question(Negative Scenarios)".</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_95</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question checkout</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Question Save as New version  </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Question  No Workflow  </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Question  Version Histroy </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_102</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question  Delete</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_100</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Approval Workflow</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_105</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Preview</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_96</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Checkout and delete which is attached to the Approved / Archived Exam</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_107</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprints list page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_104</t>
+  </si>
+  <si>
+    <t>@RegressionA Create Question</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_108</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprints list page(Negative Scenario)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_104A</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Question Duplicate</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_110</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Create Blueprint(Negative Scenarios)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_112A</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_111</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Add Multiple cart in one blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_113</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Edit Blueprint(Negative Scenarios)".</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_114A</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_112</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit Blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_114</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Edit Blueprint Add question Cart"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_103</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_249</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_118</t>
+  </si>
+  <si>
+    <t>@RegressionA ""Validation of Blueprint  Archive(only for Approved Blueprints)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_121</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Preview</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Blueprint  Archive Negative scenario (only for Approved Blueprints)
+Archive Blueprint used in up coming exam"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Blueprint Save as New version </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_115</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Edit Blueprint View Cart"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_129</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – How do you want to get started ?:</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_117A</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Duplicate Blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_130</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – Start from scratch</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_123</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Version History</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_126</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint  Direct workflow</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 2 -
+Add 1x Session (i.e AM Session) and 2x Section( i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_117B</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delete Blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_131</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – Start from scratch(Negative Scenario)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iAU_TC_ID_134 @RegressionA "Validation of Choose Question Scenario- 3 -  Add 1x Session (i.e AM Session) and
+Add 3 sections (i.e</t>
+  </si>
+  <si>
+    <t>Content + Exam Section + Survey Section)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 1 -
+Add 1x Session (i.e AM Session)and 1x Section (i.e Exam Section Only)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 5 -
+Add 2x sessions  (i.e AM and PM Sessions (with duplicate sections)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Create Exam – Copy an existing exam </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 4 - Add 1x Session (i.e AM Session) and
+Add 4x sections (i.e Content + Exam 1 Section + Exam 2 Section + Exam 3 Section + Survey Section)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_138</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Choose Question Scenario- 1 - Add 1x Session (i.e Exam Section Only)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 2 -
+Add 2x Sessions ( i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_136B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 5 -
+Add 2x sessions (with duplicate sections)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 4 -
+Add 4x sections (i.e Content + Exam 1 Section + Exam 2 Section + Exam 3 Section + Survey Section)"</t>
   </si>
   <si>
     <t>failed</t>
   </si>
   <si>
-    <t>ES_006</t>
-  </si>
-  <si>
-    <t>@API Exam creation-endpoint validation</t>
-  </si>
-  <si>
-    <t>ES_007</t>
-  </si>
-  <si>
-    <t>@API Exam creation-Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>ES_008</t>
-  </si>
-  <si>
-    <t>@API Exam creation-Header field validation - invalid</t>
-  </si>
-  <si>
-    <t>CS_001</t>
-  </si>
-  <si>
-    <t>@API Candidate Login Success with Mandatory Fields</t>
-  </si>
-  <si>
-    <t>CS_013</t>
-  </si>
-  <si>
-    <t>@API candidate dashboard Header field validation - invalid</t>
-  </si>
-  <si>
-    <t>CS_002</t>
-  </si>
-  <si>
-    <t>@API Canidate Login endpoint validation</t>
-  </si>
-  <si>
-    <t>CS_003</t>
-  </si>
-  <si>
-    <t>@API Canidate Login-Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>CS_004</t>
-  </si>
-  <si>
-    <t>@API Canidate Login Header field validation - invalid</t>
-  </si>
-  <si>
-    <t>CS_005</t>
-  </si>
-  <si>
-    <t>@API Canidate Login Header field validation - empty</t>
-  </si>
-  <si>
-    <t>CS_006</t>
-  </si>
-  <si>
-    <t>@API Canidate Login Username validation- invalid</t>
-  </si>
-  <si>
-    <t>CS_007</t>
-  </si>
-  <si>
-    <t>@API Canidate Login Username validation - empty</t>
-  </si>
-  <si>
-    <t>CS_008</t>
-  </si>
-  <si>
-    <t>@API Canidate Login Password validation - invalid</t>
-  </si>
-  <si>
-    <t>CS_009</t>
-  </si>
-  <si>
-    <t>@API Canidate Login Password validation- empty</t>
-  </si>
-  <si>
-    <t>CS_011</t>
-  </si>
-  <si>
-    <t>@API candidate dashboard endpoint validation</t>
-  </si>
-  <si>
-    <t>CS_012</t>
-  </si>
-  <si>
-    <t>@API candidate dashboard Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>CS_001A</t>
-  </si>
-  <si>
-    <t>CS_010</t>
-  </si>
-  <si>
-    <t>@API Validate candidate dashboard.</t>
-  </si>
-  <si>
-    <t>CS_014</t>
-  </si>
-  <si>
-    <t>@API candidate dashboard Header field validation - empty</t>
-  </si>
-  <si>
-    <t>CS_001B</t>
-  </si>
-  <si>
-    <t>CS_010A</t>
-  </si>
-  <si>
-    <t>CS_015</t>
-  </si>
-  <si>
-    <t>@API Validation of successful message for invigilator password.</t>
-  </si>
-  <si>
-    <t>CS_016</t>
-  </si>
-  <si>
-    <t>@API Validation of invalid invigilator password.</t>
-  </si>
-  <si>
-    <t>CS_017</t>
-  </si>
-  <si>
-    <t>@API Validation of empty invigilator password.</t>
-  </si>
-  <si>
-    <t>CS_001C</t>
-  </si>
-  <si>
-    <t>CS_010B</t>
-  </si>
-  <si>
-    <t>CS_015A</t>
-  </si>
-  <si>
-    <t>CS_018</t>
-  </si>
-  <si>
-    <t>@API Validation of Candiate Exam status- Before exam start</t>
-  </si>
-  <si>
-    <t>CS_019</t>
-  </si>
-  <si>
-    <t>@API Before exam star-Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>CS_020</t>
-  </si>
-  <si>
-    <t>@API Validation of Candiate Exam status- After exam start</t>
-  </si>
-  <si>
-    <t>CS_021</t>
-  </si>
-  <si>
-    <t>@API After exam star-Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>CS_024</t>
-  </si>
-  <si>
-    <t>@API Validation of Candiate info.</t>
-  </si>
-  <si>
-    <t>CS_025</t>
-  </si>
-  <si>
-    <t>@API  Candiate info-Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>CS_026</t>
-  </si>
-  <si>
-    <t>@API  Candiate info-endpoint validation</t>
-  </si>
-  <si>
-    <t>CS_027</t>
-  </si>
-  <si>
-    <t>@API Validation of candidate events.</t>
-  </si>
-  <si>
-    <t>CS_028</t>
-  </si>
-  <si>
-    <t>@API candidate events-Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>CS_029</t>
-  </si>
-  <si>
-    <t>@API candidate events-endpoint validation</t>
-  </si>
-  <si>
-    <t>CS_030</t>
-  </si>
-  <si>
-    <t>@API Validation of candidate instruction.</t>
-  </si>
-  <si>
-    <t>CS_031</t>
-  </si>
-  <si>
-    <t>@API  candidate instruction-Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>CS_032</t>
-  </si>
-  <si>
-    <t>@API  candidate instruction-endpoint validation</t>
-  </si>
-  <si>
-    <t>CS_033</t>
-  </si>
-  <si>
-    <t>@API Validation of download exam content page.</t>
-  </si>
-  <si>
-    <t>CS_034</t>
-  </si>
-  <si>
-    <t>@API exam content page-Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>CS_035</t>
-  </si>
-  <si>
-    <t>@API exam content page-endpoint validation</t>
-  </si>
-  <si>
-    <t>CS_036</t>
-  </si>
-  <si>
-    <t>@API Validation of Candidate exam page download.</t>
-  </si>
-  <si>
-    <t>CS_037</t>
-  </si>
-  <si>
-    <t>@API  Candidate exam page download-Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>CS_038</t>
-  </si>
-  <si>
-    <t>@API  Candidate exam page download-endpoint validation</t>
-  </si>
-  <si>
-    <t>CS_039</t>
-  </si>
-  <si>
-    <t>@API Validation of candidate all notes.</t>
-  </si>
-  <si>
-    <t>CS_040</t>
-  </si>
-  <si>
-    <t>@API candidate all notes-Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>CS_041</t>
-  </si>
-  <si>
-    <t>@API candidate all notes-endpoint validation</t>
-  </si>
-  <si>
-    <t>CS_042</t>
-  </si>
-  <si>
-    <t>@API Validation of question download status.</t>
-  </si>
-  <si>
-    <t>CS_043</t>
-  </si>
-  <si>
-    <t>@API question download status-Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>CS_044</t>
-  </si>
-  <si>
-    <t>@API question download status-endpoint validation</t>
-  </si>
-  <si>
-    <t>CS_045</t>
-  </si>
-  <si>
-    <t>@API Validation of candidate save notes.</t>
-  </si>
-  <si>
-    <t>CS_046</t>
-  </si>
-  <si>
-    <t>@API candidate save notes-Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>CS_047</t>
-  </si>
-  <si>
-    <t>@API candidate save notes-endpoint validation</t>
-  </si>
-  <si>
-    <t>CS_048</t>
-  </si>
-  <si>
-    <t>@API Validaton of Save highlight text.</t>
-  </si>
-  <si>
-    <t>CS_049</t>
-  </si>
-  <si>
-    <t>@API Save highlight text-Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>CS_050</t>
-  </si>
-  <si>
-    <t>@API Save highlight text-endpoint validation</t>
-  </si>
-  <si>
-    <t>CS_051</t>
-  </si>
-  <si>
-    <t>@API Validaton of remove saved highlight text.</t>
-  </si>
-  <si>
-    <t>CS_052</t>
-  </si>
-  <si>
-    <t>@API remove saved highlight text-Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>CS_053</t>
-  </si>
-  <si>
-    <t>@API remove saved highlight text-endpoint validation</t>
-  </si>
-  <si>
-    <t>CS_054</t>
-  </si>
-  <si>
-    <t>@API Validation of Exam survey page.</t>
-  </si>
-  <si>
-    <t>CS_055</t>
-  </si>
-  <si>
-    <t>@API Exam survey page-Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>CS_056</t>
-  </si>
-  <si>
-    <t>@API Exam survey page-endpoint validation</t>
-  </si>
-  <si>
-    <t>CS_057</t>
-  </si>
-  <si>
-    <t>@API Validation of Exam Practice Result</t>
-  </si>
-  <si>
-    <t>CS_058</t>
-  </si>
-  <si>
-    <t>@API  Exam Practice Result-Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>CS_059</t>
-  </si>
-  <si>
-    <t>@API  Exam Practice Result-endpoint validation</t>
-  </si>
-  <si>
-    <t>CS_060</t>
-  </si>
-  <si>
-    <t>@API Validation of Exam Practice Question Result</t>
-  </si>
-  <si>
-    <t>CS_061</t>
-  </si>
-  <si>
-    <t>@API Exam Practice Question Result-Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>CS_062</t>
-  </si>
-  <si>
-    <t>@API Exam Practice Question Result-endpoint validation</t>
-  </si>
-  <si>
-    <t>CS_066</t>
-  </si>
-  <si>
-    <t>@API Validation of Candidate question response save.</t>
-  </si>
-  <si>
-    <t>CS_067</t>
-  </si>
-  <si>
-    <t>@API Candidate question response save-Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>CS_068</t>
-  </si>
-  <si>
-    <t>@API Candidate question response save-endpoint validation</t>
-  </si>
-  <si>
-    <t>CS_069</t>
-  </si>
-  <si>
-    <t>@API Validation of candidate current time.</t>
-  </si>
-  <si>
-    <t>CS_070</t>
-  </si>
-  <si>
-    <t>@API candidate current time-endpoint validation</t>
-  </si>
-  <si>
-    <t>CS_071</t>
-  </si>
-  <si>
-    <t>@API Validation of candidate chat setting.</t>
-  </si>
-  <si>
-    <t>CS_072</t>
-  </si>
-  <si>
-    <t>@API candidate chat setting endpoint validation</t>
-  </si>
-  <si>
-    <t>QS_067</t>
-  </si>
-  <si>
-    <t>@API Validation of ISAWE-CASE question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_068</t>
-  </si>
-  <si>
-    <t>@API Validation of edit ISAWE-CASE question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_069</t>
-  </si>
-  <si>
-    <t>@API Validation of ISAWE-CASE question Approved message.</t>
-  </si>
-  <si>
-    <t>QS_070</t>
-  </si>
-  <si>
-    <t>@API Validation of ISAWE-CASE question checkout message.</t>
-  </si>
-  <si>
-    <t>QS_069A</t>
-  </si>
-  <si>
-    <t>@API Validation of ISAWE-CASE question Approved message (again).</t>
-  </si>
-  <si>
-    <t>QS_071</t>
-  </si>
-  <si>
-    <t>@API ISAWE-CASE endpoint validation</t>
-  </si>
-  <si>
-    <t>QS_072</t>
-  </si>
-  <si>
-    <t>@API ISAWE-CASE Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>QS_073</t>
-  </si>
-  <si>
-    <t>@API ISAWE-CASE Header field validation - invalid</t>
-  </si>
-  <si>
-    <t>QS_074</t>
-  </si>
-  <si>
-    <t>@API Validation of empty title field for ISAWE-CASE</t>
-  </si>
-  <si>
-    <t>QS_035</t>
-  </si>
-  <si>
-    <t>@API Validation of ISAWE question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_036</t>
-  </si>
-  <si>
-    <t>@API Validation of edit ISAWE question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_037</t>
-  </si>
-  <si>
-    <t>@API Validation of ISAWE question Approved message.</t>
-  </si>
-  <si>
-    <t>QS_038</t>
-  </si>
-  <si>
-    <t>@API Validation of ISAWE question checkout message.</t>
-  </si>
-  <si>
-    <t>QS_037A</t>
-  </si>
-  <si>
-    <t>@API Validation of ISAWE question Approved message (again).</t>
-  </si>
-  <si>
-    <t>QS_039</t>
-  </si>
-  <si>
-    <t>@API endpoint validation</t>
-  </si>
-  <si>
-    <t>QS_040</t>
-  </si>
-  <si>
-    <t>@API Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>QS_041</t>
-  </si>
-  <si>
-    <t>@API Header field validation - invalid</t>
-  </si>
-  <si>
-    <t>QS_042</t>
-  </si>
-  <si>
-    <t>@API Validation of empty title field.</t>
-  </si>
-  <si>
-    <t>QS_001</t>
-  </si>
-  <si>
-    <t>@API Validation of MCQ question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_002</t>
-  </si>
-  <si>
-    <t>@API Validation of edit MCQ question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_003</t>
-  </si>
-  <si>
-    <t>@API Validation of MCQ question Approved message.</t>
-  </si>
-  <si>
-    <t>QS_005</t>
-  </si>
-  <si>
-    <t>@API Validation of MCQ question checkout message.</t>
-  </si>
-  <si>
-    <t>QS_003A</t>
-  </si>
-  <si>
-    <t>@API Validation of MCQ question Approved message (again).</t>
-  </si>
-  <si>
-    <t>QS_004</t>
-  </si>
-  <si>
-    <t>@API Validation of create question page.</t>
-  </si>
-  <si>
-    <t>QS_006</t>
-  </si>
-  <si>
-    <t>QS_007</t>
-  </si>
-  <si>
-    <t>QS_008</t>
-  </si>
-  <si>
-    <t>QS_009</t>
-  </si>
-  <si>
-    <t>QS_107</t>
-  </si>
-  <si>
-    <t>@API Validation of Ranking question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_108</t>
-  </si>
-  <si>
-    <t>@API Validation of edit Ranking question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_109</t>
-  </si>
-  <si>
-    <t>@API Validation of Ranking question Approved message.</t>
-  </si>
-  <si>
-    <t>QS_110</t>
-  </si>
-  <si>
-    <t>@API Validation of Ranking question checkout message.</t>
-  </si>
-  <si>
-    <t>QS_109A</t>
-  </si>
-  <si>
-    <t>@API Validation of Ranking question Approved message (again).</t>
-  </si>
-  <si>
-    <t>QS_111</t>
-  </si>
-  <si>
-    <t>@API Ranking question endpoint validation</t>
-  </si>
-  <si>
-    <t>QS_112</t>
-  </si>
-  <si>
-    <t>@API Ranking question Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>QS_113</t>
-  </si>
-  <si>
-    <t>@API Ranking question Header field validation - invalid</t>
-  </si>
-  <si>
-    <t>QS_114</t>
-  </si>
-  <si>
-    <t>@API Validation of empty title field for Ranking question</t>
-  </si>
-  <si>
-    <t>QS_010</t>
-  </si>
-  <si>
-    <t>@API Validation of SAQ question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_011</t>
-  </si>
-  <si>
-    <t>@API Validation of edit SAQ question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_012</t>
-  </si>
-  <si>
-    <t>@API Validation of SAQ question Approved message.</t>
-  </si>
-  <si>
-    <t>QS_014</t>
-  </si>
-  <si>
-    <t>@API Validation of SAQ question checkout message.</t>
-  </si>
-  <si>
-    <t>QS_012A</t>
-  </si>
-  <si>
-    <t>@API Validation of SAQ question Approved message (again).</t>
-  </si>
-  <si>
-    <t>QS_015</t>
-  </si>
-  <si>
-    <t>QS_016</t>
-  </si>
-  <si>
-    <t>QS_017</t>
-  </si>
-  <si>
-    <t>QS_018</t>
-  </si>
-  <si>
-    <t>QS_059</t>
-  </si>
-  <si>
-    <t>@API Validation of Scenario question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_060</t>
-  </si>
-  <si>
-    <t>@API Validation of edit Scenario question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_061</t>
-  </si>
-  <si>
-    <t>@API Validation of Scenario question Approved message.</t>
-  </si>
-  <si>
-    <t>QS_062</t>
-  </si>
-  <si>
-    <t>@API Validation of Scenario question checkout message.</t>
-  </si>
-  <si>
-    <t>QS_061A</t>
-  </si>
-  <si>
-    <t>@API Validation of Scenario question Approved message (again).</t>
-  </si>
-  <si>
-    <t>QS_063</t>
-  </si>
-  <si>
-    <t>@API Scenario question endpoint validation</t>
-  </si>
-  <si>
-    <t>QS_064</t>
-  </si>
-  <si>
-    <t>@API Scenario question- Method validation-  incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>QS_065</t>
-  </si>
-  <si>
-    <t>@API Scenario question- Header field validation - invalid</t>
-  </si>
-  <si>
-    <t>QS_066</t>
-  </si>
-  <si>
-    <t>@API Validation of empty title field for Scenario question</t>
-  </si>
-  <si>
-    <t>QS_051</t>
-  </si>
-  <si>
-    <t>@API Validation of SJT question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_052</t>
-  </si>
-  <si>
-    <t>@API Validation of edit SJT question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_053</t>
-  </si>
-  <si>
-    <t>@API Validation of SJT question Approved message.</t>
-  </si>
-  <si>
-    <t>QS_054</t>
-  </si>
-  <si>
-    <t>@API Validation of SJT question checkout message.</t>
-  </si>
-  <si>
-    <t>QS_053A</t>
-  </si>
-  <si>
-    <t>@API Validation of SJT question Approved message (again).</t>
-  </si>
-  <si>
-    <t>QS_055</t>
-  </si>
-  <si>
-    <t>QS_056</t>
-  </si>
-  <si>
-    <t>QS_057</t>
-  </si>
-  <si>
-    <t>QS_058</t>
-  </si>
-  <si>
-    <t>QS_027</t>
-  </si>
-  <si>
-    <t>@API Validation of Type-B question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_028</t>
-  </si>
-  <si>
-    <t>@API Validation of edit Type-B question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_029</t>
-  </si>
-  <si>
-    <t>@API Validation of Type-B question Approved message.</t>
-  </si>
-  <si>
-    <t>QS_030</t>
-  </si>
-  <si>
-    <t>@API Validation of Type-B question checkout message.</t>
-  </si>
-  <si>
-    <t>QS_029A</t>
-  </si>
-  <si>
-    <t>@API Validation of Type-B question Approved message (again).</t>
-  </si>
-  <si>
-    <t>QS_031</t>
-  </si>
-  <si>
-    <t>QS_032</t>
-  </si>
-  <si>
-    <t>QS_033</t>
-  </si>
-  <si>
-    <t>QS_034</t>
-  </si>
-  <si>
-    <t>QS_043</t>
-  </si>
-  <si>
-    <t>@API Validation of Type-X question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_044</t>
-  </si>
-  <si>
-    <t>@API Validation of edit Type-X question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_045</t>
-  </si>
-  <si>
-    <t>@API Validation of Type-X question Approved message.</t>
-  </si>
-  <si>
-    <t>QS_046</t>
-  </si>
-  <si>
-    <t>@API Validation of Type-X question checkout message.</t>
-  </si>
-  <si>
-    <t>QS_045A</t>
-  </si>
-  <si>
-    <t>@API Validation of Type-X question Approved message (again).</t>
-  </si>
-  <si>
-    <t>QS_047</t>
-  </si>
-  <si>
-    <t>QS_048</t>
-  </si>
-  <si>
-    <t>QS_049</t>
-  </si>
-  <si>
-    <t>QS_050</t>
-  </si>
-  <si>
-    <t>QS_019</t>
-  </si>
-  <si>
-    <t>@API Validation of VSAQ question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_020</t>
-  </si>
-  <si>
-    <t>@API Validation of edit VSAQ question successfull message.</t>
-  </si>
-  <si>
-    <t>QS_021</t>
-  </si>
-  <si>
-    <t>@API Validation of VSAQ question Approved message.</t>
-  </si>
-  <si>
-    <t>QS_022</t>
-  </si>
-  <si>
-    <t>@API Validation of VSAQ question checkout message.</t>
-  </si>
-  <si>
-    <t>QS_021A</t>
-  </si>
-  <si>
-    <t>@API Validation of VSAQ question Approved message (again).</t>
-  </si>
-  <si>
-    <t>QS_023</t>
-  </si>
-  <si>
-    <t>QS_024</t>
-  </si>
-  <si>
-    <t>QS_025</t>
-  </si>
-  <si>
-    <t>QS_026</t>
-  </si>
-  <si>
-    <t>AL_002</t>
-  </si>
-  <si>
-    <t>@API To verify the response when passing an invalid endpoint.</t>
-  </si>
-  <si>
-    <t>AL_003</t>
-  </si>
-  <si>
-    <t>@API To verify the response when an incorrect HTTP method is used for a request.</t>
-  </si>
-  <si>
-    <t>AL_004</t>
-  </si>
-  <si>
-    <t>@API To verify the response on passing invalid webreferer in the header field.</t>
-  </si>
-  <si>
-    <t>AL_005</t>
-  </si>
-  <si>
-    <t>@API To verify the response on passing empty webreferer in the header field.</t>
-  </si>
-  <si>
-    <t>AL_006</t>
-  </si>
-  <si>
-    <t>@API To verify the response on passing invalid username in the request field.</t>
-  </si>
-  <si>
-    <t>AL_007</t>
-  </si>
-  <si>
-    <t>@API To verify the response on passing empty username in the request field.</t>
-  </si>
-  <si>
-    <t>AL_008</t>
-  </si>
-  <si>
-    <t>@API To verify the response on passing invalid password in the request field.</t>
-  </si>
-  <si>
-    <t>AL_009</t>
-  </si>
-  <si>
-    <t>@API To verify the response on passing empty password in the request field.</t>
+    <t>iAU_TC_ID_140</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Choose Question Scenario- 3 -Add 3 sections (i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Create Exam – Copy from template </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 5 -
+Add 2x sessions (with duplicate sections)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 1 -
+Add 1x Session (i.e Exam Section Only)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_142B</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Blueprint  Approval Workflow </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_145</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_148</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_153</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Create Exam – How do you want to get started? - Using Blueprint</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question
+Scenario- 3 -
+Add 3 sections (i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_150</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_151</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 1 -
+Add 1x Session (i.e Exam Section Only)"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 2 -
+Add 2x Sessions ( i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_151B</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Choose Question Scenario- 3 -
+Add 3 sections (i.e</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_159</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit an Exam ( Previleges: Applicable only for Exam Admin)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_158</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Choose Question Scenario- 4 -
+Add 4x sections (i.e Content + Exam 1 Section + Exam 2 Section + Exam 3 Section + Survey Section)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_161</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit Exam (Negative Scenario)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_160</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Edit an Exam Section ( Previleges: Applicable only for Exam Admin)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Duplicate </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Version History </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Exam Preview(PDF) " </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Exam Preview(WEB) " </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA "Validation of Exam Preview
+( Reviewer, Approver, Examiner) "</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_158B</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_168</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Verify image size, image Quality and resolution</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Print </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Delete </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_171</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Archive</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_173</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Checkout</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_172</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Export</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_174</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery list page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_175</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery list page(Negative scenario)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_176</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery-&gt;Manage Delivery page via Exam name link.</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_177</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery-&gt;Manage Delivery page via more (...)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_178</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery page Left side Panel</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Exam Save as New version </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_207</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Delivery--&gt; Live Dashboard filters"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_181</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request Verify Elumina Login and Create Exam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_205</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_192</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_212</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_181.,iAU_TC_ID_183.,iAU_TC_ID_199</t>
+  </si>
+  <si>
+    <t>@RegressionA Pre-Request "Validation of Delivery --&gt; Add New Users"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Delete Users </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_190</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery--&gt; Assign Venue and Booking Details</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_217</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Live Monitor - Candidate answer response Validation</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_182.,iAU_TC_ID_184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery--&gt; Delete Users (Negative Scenario) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_192.,iAU_TC_ID_193.,iAU_TC_ID_194</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_185.,iAU_TC_ID_186</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery --&gt; Download User Details</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_179</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_212.,iAU_TC_ID_213.,iAU_TC_ID_216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery --&gt; Live Monitor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_189</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery--&gt; Generate Temp ID</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_214.,iAU_TC_ID_215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery--&gt; Live Monitor all exam status  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_196</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery--&gt; Reset Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_218</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_198</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery --  Exam Administrator Manages Special Consideration</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery –-&gt; Bulk Upload Users(Negative scenario)  </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_203</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Bulk Upload Users - Sample csv  file</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Edit user </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Delivery --&gt; Venue Summary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iAU_TC_ID_206.,iAU_TC_ID_210.,iAU_TC_ID_209.,iAU_TC_ID_211 @RegressionA Validation of Delivery --&gt; Live Dashboard </t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_226</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Gradebook list page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_219</t>
+  </si>
+  <si>
+    <t>Exam_Prerequisit_for_iAU_TC_ID_219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_239</t>
+  </si>
+  <si>
+    <t>Exam_Prerequisit_for_iAU_TC_ID_239</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_218</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_219.,iAU_TC_ID_220</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_219A</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery--&gt; Live Monitor - Live Streaming page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_239</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_187.,iAU_TC_ID_195.,iAU_TC_ID_200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RegressionA Validation of Manage Delivery --&gt; Bulk Download User Details , Validation of Delivery --&gt; Add New Users(Negative scenario) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_201</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Delivery --&gt; Add Existing Users</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAU_TC_ID_197</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Manage Delivery --&gt; Bulk Candidate Response Download</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_244</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Submit for Approval</t>
+  </si>
+  <si>
+    <t>@RegressionA candidate answering questions</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_247</t>
+  </si>
+  <si>
+    <t>@RegressionA Prerequisite Validation of Exam Approve"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_243</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation Question of Submit for Approval</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_218A</t>
+  </si>
+  <si>
+    <t>@RegressionA "Validation of Delivery--&gt; Marking"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_248</t>
+  </si>
+  <si>
+    <t>@RegressionA Prerequisite Validation of Create Question (MCQ-SBA)</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_245</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Submit for Approval</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation Question Approve</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_240.,iAU_TC_ID_241</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Marker score card</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_221.,iAU_TC_ID_222</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Elumina</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_242,iAU_TC_ID_223</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Elumina Markers</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_250</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Blueprint Approve</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_127</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exams list page</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_252</t>
+  </si>
+  <si>
+    <t>@RegressionA (iAU_TC_ID_152)Prerequisite Validation of Exam Workflow"</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_128</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exams list page &gt; Negative Scenario</t>
+  </si>
+  <si>
+    <t>@RegressionA Validation of Exam Approve</t>
+  </si>
+  <si>
+    <t>@RegressionA (iAU_TC_ID_152)Validation of Exam Approve</t>
+  </si>
+  <si>
+    <t>@RegressionA Exam Reject</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_227</t>
+  </si>
+  <si>
+    <t>@RegressionA Verify Elumina GradeBook</t>
+  </si>
+  <si>
+    <t>iAU_TC_ID_228</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:C184"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1425,10 +1402,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1436,10 +1413,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1447,10 +1424,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1458,10 +1435,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1469,10 +1446,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1480,24 +1457,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1508,7 +1485,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1519,7 +1496,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1541,7 +1518,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1557,10 +1534,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1568,76 +1545,76 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1645,21 +1622,21 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1667,10 +1644,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1678,21 +1655,21 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1700,10 +1677,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
         <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1728,7 +1705,7 @@
         <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1739,7 +1716,7 @@
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1747,7 +1724,7 @@
         <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1755,10 +1732,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1766,21 +1743,21 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1788,10 +1765,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1799,10 +1776,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1810,10 +1787,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1821,10 +1798,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1832,10 +1809,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1843,10 +1820,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1854,10 +1831,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1865,10 +1842,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1876,10 +1853,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1887,10 +1864,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1898,10 +1875,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1909,10 +1886,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1920,10 +1897,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1931,10 +1908,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1942,10 +1919,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1953,10 +1930,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1964,10 +1941,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1975,10 +1952,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1986,10 +1963,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1997,10 +1974,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2008,10 +1985,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2019,10 +1996,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2055,18 +2032,18 @@
         <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2074,10 +2051,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2085,10 +2062,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2096,10 +2073,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2107,10 +2084,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2118,21 +2095,21 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B67" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2140,21 +2117,21 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2162,32 +2139,32 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2195,32 +2172,32 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2228,21 +2205,21 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2250,10 +2227,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2261,21 +2238,21 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2283,10 +2260,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2294,10 +2271,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2305,21 +2282,21 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" t="s">
         <v>159</v>
-      </c>
-      <c r="B83" t="s">
-        <v>160</v>
-      </c>
-      <c r="C83" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" t="s">
         <v>161</v>
-      </c>
-      <c r="B84" t="s">
-        <v>162</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2327,10 +2304,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2338,21 +2315,21 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B86" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B87" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2360,13 +2337,13 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B88" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2377,7 +2354,7 @@
         <v>170</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2385,18 +2362,18 @@
         <v>171</v>
       </c>
       <c r="B90" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B91" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2404,10 +2381,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2415,10 +2392,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2426,21 +2403,21 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B94" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2448,10 +2425,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2459,10 +2436,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B97" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2470,10 +2447,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B98" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2481,10 +2458,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B99" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2492,21 +2469,21 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B100" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B101" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2514,43 +2491,43 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B102" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B103" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B104" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2558,10 +2535,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B106" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2569,10 +2546,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B107" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2580,10 +2557,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B108" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2591,10 +2568,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B109" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2602,10 +2579,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B110" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2613,10 +2590,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B111" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2624,10 +2601,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B112" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2635,10 +2612,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B113" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2646,10 +2623,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>212</v>
+      </c>
+      <c r="B114" t="s">
         <v>213</v>
-      </c>
-      <c r="B114" t="s">
-        <v>196</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2660,18 +2637,18 @@
         <v>214</v>
       </c>
       <c r="B115" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2679,10 +2656,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B117" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2690,10 +2667,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B118" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2701,10 +2678,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B119" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2712,10 +2689,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B120" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2723,43 +2700,43 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B121" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B122" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B123" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B124" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2767,21 +2744,21 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B125" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>3</v>
+        <v>235</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2789,10 +2766,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>236</v>
+      </c>
+      <c r="B127" t="s">
         <v>233</v>
-      </c>
-      <c r="B127" t="s">
-        <v>234</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2800,10 +2777,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B128" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2811,10 +2788,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B129" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2822,10 +2799,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B130" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2847,7 +2824,7 @@
         <v>243</v>
       </c>
       <c r="B132" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2855,10 +2832,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B133" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2866,10 +2843,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B134" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2877,21 +2854,21 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B135" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>3</v>
+        <v>250</v>
       </c>
       <c r="B136" t="s">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2899,10 +2876,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B137" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2910,10 +2887,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B138" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2921,10 +2898,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B139" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2932,10 +2909,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B140" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2943,10 +2920,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B141" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2954,10 +2931,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B142" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2965,10 +2942,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B143" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2976,65 +2953,62 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="B144" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="C144" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B145" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>3</v>
+        <v>266</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="C146" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B147" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C147" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>267</v>
-      </c>
-      <c r="B148" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C148" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B149" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3042,10 +3016,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B150" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3053,10 +3027,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B151" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3067,7 +3041,7 @@
         <v>275</v>
       </c>
       <c r="B152" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3075,10 +3049,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B153" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3086,10 +3060,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B154" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3097,21 +3071,21 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B155" t="s">
-        <v>198</v>
+        <v>280</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>3</v>
+        <v>281</v>
       </c>
       <c r="B156" t="s">
-        <v>4</v>
+        <v>276</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3119,54 +3093,54 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B157" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C157" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B158" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C158" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B159" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C159" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B160" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C160" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B161" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3174,10 +3148,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B162" t="s">
-        <v>192</v>
+        <v>292</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3185,10 +3159,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B163" t="s">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3196,32 +3170,32 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B164" t="s">
-        <v>196</v>
+        <v>294</v>
       </c>
       <c r="C164" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B165" t="s">
-        <v>198</v>
+        <v>296</v>
       </c>
       <c r="C165" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>3</v>
+        <v>297</v>
       </c>
       <c r="B166" t="s">
-        <v>4</v>
+        <v>298</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3229,21 +3203,21 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B167" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C167" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B168" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3251,10 +3225,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B169" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3262,10 +3236,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B170" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3273,10 +3247,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B171" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3284,10 +3258,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>303</v>
+        <v>114</v>
       </c>
       <c r="B172" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3295,10 +3269,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B173" t="s">
-        <v>194</v>
+        <v>292</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3306,10 +3280,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>305</v>
+        <v>114</v>
       </c>
       <c r="B174" t="s">
-        <v>196</v>
+        <v>309</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3317,21 +3291,21 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B175" t="s">
-        <v>198</v>
+        <v>311</v>
       </c>
       <c r="C175" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>3</v>
+        <v>312</v>
       </c>
       <c r="B176" t="s">
-        <v>4</v>
+        <v>313</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3339,10 +3313,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B177" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3350,21 +3324,21 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="B178" t="s">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="C178" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B179" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3372,10 +3346,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B180" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3383,10 +3357,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B181" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3394,10 +3368,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B182" t="s">
-        <v>192</v>
+        <v>318</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3405,123 +3379,24 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B183" t="s">
-        <v>194</v>
+        <v>320</v>
       </c>
       <c r="C183" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B184" t="s">
-        <v>196</v>
+        <v>320</v>
       </c>
       <c r="C184" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>320</v>
-      </c>
-      <c r="B185" t="s">
-        <v>198</v>
-      </c>
-      <c r="C185" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>321</v>
-      </c>
-      <c r="B186" t="s">
-        <v>322</v>
-      </c>
-      <c r="C186" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>323</v>
-      </c>
-      <c r="B187" t="s">
-        <v>324</v>
-      </c>
-      <c r="C187" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>325</v>
-      </c>
-      <c r="B188" t="s">
-        <v>326</v>
-      </c>
-      <c r="C188" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>327</v>
-      </c>
-      <c r="B189" t="s">
-        <v>328</v>
-      </c>
-      <c r="C189" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>329</v>
-      </c>
-      <c r="B190" t="s">
-        <v>330</v>
-      </c>
-      <c r="C190" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>331</v>
-      </c>
-      <c r="B191" t="s">
-        <v>332</v>
-      </c>
-      <c r="C191" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>333</v>
-      </c>
-      <c r="B192" t="s">
-        <v>334</v>
-      </c>
-      <c r="C192" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>335</v>
-      </c>
-      <c r="B193" t="s">
-        <v>336</v>
-      </c>
-      <c r="C193" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="281">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -622,13 +622,70 @@
     <t>@API Admin delete-role_validation of incorrect HTTP method</t>
   </si>
   <si>
+    <t>Admin_128</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the user-activities-filter</t>
+  </si>
+  <si>
+    <t>Admin_129</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for user-activities-filter</t>
+  </si>
+  <si>
+    <t>Admin_131</t>
+  </si>
+  <si>
+    <t>@API Admin_user-activities-list</t>
+  </si>
+  <si>
+    <t>Admin_132</t>
+  </si>
+  <si>
+    <t>@API Admin user-activities-list_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_133</t>
+  </si>
+  <si>
+    <t>@API Admin user-activities-list_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_134</t>
+  </si>
+  <si>
+    <t>@API Admin_user-activities-list-pagination</t>
+  </si>
+  <si>
+    <t>Admin_135</t>
+  </si>
+  <si>
+    <t>@API Admin user-activities-list-pagination_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_136</t>
+  </si>
+  <si>
+    <t>@API Admin user-activities-list-pagination_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_0130</t>
+  </si>
+  <si>
+    <t>@API Admin user-activities-filter-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>AL_001T</t>
+  </si>
+  <si>
     <t>Admin_090</t>
   </si>
   <si>
     <t>@API Admin delete-role-Header field validation - invalid</t>
-  </si>
-  <si>
-    <t>failed</t>
   </si>
   <si>
     <t>AL_001S</t>
@@ -1173,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C152"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2317,15 +2374,15 @@
         <v>204</v>
       </c>
       <c r="C104" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>205</v>
+      </c>
+      <c r="B105" t="s">
         <v>206</v>
-      </c>
-      <c r="B105" t="s">
-        <v>4</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2339,7 +2396,7 @@
         <v>208</v>
       </c>
       <c r="C106" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2347,7 +2404,7 @@
         <v>209</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2355,21 +2412,21 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B108" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C108" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2377,21 +2434,21 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B110" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C110" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2399,18 +2456,18 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B112" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C112" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
@@ -2421,18 +2478,18 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B114" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C114" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
@@ -2443,18 +2500,18 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B116" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C116" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
@@ -2465,18 +2522,18 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B118" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C118" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B119" t="s">
         <v>4</v>
@@ -2487,18 +2544,18 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B120" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C120" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B121" t="s">
         <v>4</v>
@@ -2509,40 +2566,40 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B122" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C122" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B124" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C124" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B125" t="s">
         <v>4</v>
@@ -2553,18 +2610,18 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B126" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C126" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B127" t="s">
         <v>4</v>
@@ -2575,18 +2632,18 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B128" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C128" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B129" t="s">
         <v>4</v>
@@ -2597,18 +2654,18 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B130" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C130" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B131" t="s">
         <v>4</v>
@@ -2619,18 +2676,18 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B132" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C132" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B133" t="s">
         <v>4</v>
@@ -2641,18 +2698,18 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B134" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C134" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B135" t="s">
         <v>4</v>
@@ -2663,18 +2720,18 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B136" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C136" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B137" t="s">
         <v>4</v>
@@ -2685,18 +2742,18 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B138" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C138" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B139" t="s">
         <v>4</v>
@@ -2707,18 +2764,18 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B140" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C140" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B141" t="s">
         <v>4</v>
@@ -2729,13 +2786,123 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B142" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C142" t="s">
-        <v>205</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>266</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>267</v>
+      </c>
+      <c r="B144" t="s">
+        <v>268</v>
+      </c>
+      <c r="C144" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>269</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>270</v>
+      </c>
+      <c r="B146" t="s">
+        <v>271</v>
+      </c>
+      <c r="C146" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>272</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>273</v>
+      </c>
+      <c r="B148" t="s">
+        <v>274</v>
+      </c>
+      <c r="C148" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>275</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>276</v>
+      </c>
+      <c r="B150" t="s">
+        <v>277</v>
+      </c>
+      <c r="C150" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>278</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>279</v>
+      </c>
+      <c r="B152" t="s">
+        <v>280</v>
+      </c>
+      <c r="C152" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="312">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -670,13 +670,106 @@
     <t>@API Admin user-activities-list-pagination_validation of invalid endpoint.</t>
   </si>
   <si>
-    <t>Admin_0130</t>
+    <t>Admin_092</t>
+  </si>
+  <si>
+    <t>@API Admin fetch thesecurity-control-privilage-liste</t>
+  </si>
+  <si>
+    <t>Admin_093</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for security-control-privilage-list</t>
+  </si>
+  <si>
+    <t>Admin_095</t>
+  </si>
+  <si>
+    <t>@API Admin_securitycontrol-save</t>
+  </si>
+  <si>
+    <t>Admin_096</t>
+  </si>
+  <si>
+    <t>@API Admin securitycontrol-save_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_097</t>
+  </si>
+  <si>
+    <t>@API Admin securitycontrol-save_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_137</t>
+  </si>
+  <si>
+    <t>@API Admin_user-activities-search</t>
+  </si>
+  <si>
+    <t>Admin_138</t>
+  </si>
+  <si>
+    <t>@API Admin user-activities-search_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_139</t>
+  </si>
+  <si>
+    <t>@API Admin user-activities-search_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_140</t>
+  </si>
+  <si>
+    <t>@API Admin_user-activities-filter-search</t>
+  </si>
+  <si>
+    <t>Admin_141</t>
+  </si>
+  <si>
+    <t>@API Admin user-activities-filter-search_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_142</t>
+  </si>
+  <si>
+    <t>@API Admin user-activities-filter-search_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_143</t>
+  </si>
+  <si>
+    <t>@API Admin_custom-filter-save public or privet</t>
+  </si>
+  <si>
+    <t>Admin_144</t>
+  </si>
+  <si>
+    <t>@API Admin custom-filter-save public or privet_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_145</t>
+  </si>
+  <si>
+    <t>@API Admin custom-filter-save public or privet_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_094</t>
+  </si>
+  <si>
+    <t>@API Admin security-control-privilage-list-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>AL_001U</t>
+  </si>
+  <si>
+    <t>Admin_130</t>
   </si>
   <si>
     <t>@API Admin user-activities-filter-Header field validation - invalid</t>
-  </si>
-  <si>
-    <t>failed</t>
   </si>
   <si>
     <t>AL_001T</t>
@@ -1230,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C168"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2462,15 +2555,15 @@
         <v>220</v>
       </c>
       <c r="C112" t="s">
-        <v>221</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" t="s">
         <v>222</v>
-      </c>
-      <c r="B113" t="s">
-        <v>4</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2484,7 +2577,7 @@
         <v>224</v>
       </c>
       <c r="C114" t="s">
-        <v>221</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2492,7 +2585,7 @@
         <v>225</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>226</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2500,21 +2593,21 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B116" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C116" t="s">
-        <v>221</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2522,21 +2615,21 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B118" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C118" t="s">
-        <v>221</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B119" t="s">
-        <v>4</v>
+        <v>234</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2544,21 +2637,21 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B120" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C120" t="s">
-        <v>221</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
+        <v>238</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2566,21 +2659,21 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B122" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C122" t="s">
-        <v>221</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B123" t="s">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2588,21 +2681,21 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B124" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C124" t="s">
-        <v>221</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B125" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2610,18 +2703,18 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B126" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C126" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B127" t="s">
         <v>4</v>
@@ -2632,18 +2725,18 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B128" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C128" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B129" t="s">
         <v>4</v>
@@ -2654,18 +2747,18 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B130" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C130" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B131" t="s">
         <v>4</v>
@@ -2676,18 +2769,18 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B132" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C132" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B133" t="s">
         <v>4</v>
@@ -2698,18 +2791,18 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B134" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C134" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B135" t="s">
         <v>4</v>
@@ -2720,18 +2813,18 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B136" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C136" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B137" t="s">
         <v>4</v>
@@ -2742,18 +2835,18 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B138" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C138" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B139" t="s">
         <v>4</v>
@@ -2764,18 +2857,18 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B140" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C140" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B141" t="s">
         <v>4</v>
@@ -2786,18 +2879,18 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B142" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C142" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B143" t="s">
         <v>4</v>
@@ -2808,18 +2901,18 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B144" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C144" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B145" t="s">
         <v>4</v>
@@ -2830,18 +2923,18 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B146" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C146" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B147" t="s">
         <v>4</v>
@@ -2852,18 +2945,18 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B148" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C148" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B149" t="s">
         <v>4</v>
@@ -2874,18 +2967,18 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B150" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C150" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B151" t="s">
         <v>4</v>
@@ -2896,13 +2989,189 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B152" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C152" t="s">
-        <v>221</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>288</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>289</v>
+      </c>
+      <c r="B154" t="s">
+        <v>290</v>
+      </c>
+      <c r="C154" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>291</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>292</v>
+      </c>
+      <c r="B156" t="s">
+        <v>293</v>
+      </c>
+      <c r="C156" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>294</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>295</v>
+      </c>
+      <c r="B158" t="s">
+        <v>296</v>
+      </c>
+      <c r="C158" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>297</v>
+      </c>
+      <c r="B159" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>298</v>
+      </c>
+      <c r="B160" t="s">
+        <v>299</v>
+      </c>
+      <c r="C160" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>300</v>
+      </c>
+      <c r="B161" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>301</v>
+      </c>
+      <c r="B162" t="s">
+        <v>302</v>
+      </c>
+      <c r="C162" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>303</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>304</v>
+      </c>
+      <c r="B164" t="s">
+        <v>305</v>
+      </c>
+      <c r="C164" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>306</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>307</v>
+      </c>
+      <c r="B166" t="s">
+        <v>308</v>
+      </c>
+      <c r="C166" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>309</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>310</v>
+      </c>
+      <c r="B168" t="s">
+        <v>311</v>
+      </c>
+      <c r="C168" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="746">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -337,19 +337,19 @@
     <t>Admin_070</t>
   </si>
   <si>
-    <t>@API Admin_users-search</t>
+    <t>@API Admin_users-login</t>
   </si>
   <si>
     <t>Admin_071</t>
   </si>
   <si>
-    <t>@API Admin users-search_validation of incorrect HTTP method</t>
+    <t>@API Admin users-login_validation of incorrect HTTP method</t>
   </si>
   <si>
     <t>Admin_072</t>
   </si>
   <si>
-    <t>@API Admin users-search_validation of invalid endpoint.</t>
+    <t>@API Admin users-login_validation of invalid endpoint.</t>
   </si>
   <si>
     <t>Admin_076</t>
@@ -754,13 +754,1315 @@
     <t>@API Admin custom-filter-save public or privet_validation of invalid endpoint.</t>
   </si>
   <si>
+    <t>Admin_146</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the email-template-create-form</t>
+  </si>
+  <si>
+    <t>Admin_147</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for email-template-create-form</t>
+  </si>
+  <si>
+    <t>Admin_149</t>
+  </si>
+  <si>
+    <t>@API Admin_email-template-save</t>
+  </si>
+  <si>
+    <t>Admin_150</t>
+  </si>
+  <si>
+    <t>@API Admin email-template-save_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_151</t>
+  </si>
+  <si>
+    <t>@API Admin email-template-save_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_158</t>
+  </si>
+  <si>
+    <t>@API Admin_email-templates-list</t>
+  </si>
+  <si>
+    <t>Admin_159</t>
+  </si>
+  <si>
+    <t>@API Admin email-templates-list_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_160</t>
+  </si>
+  <si>
+    <t>@API Admin email-templates-list_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_161</t>
+  </si>
+  <si>
+    <t>@API Admin_email-templates-search</t>
+  </si>
+  <si>
+    <t>Admin_162</t>
+  </si>
+  <si>
+    <t>@API Admin email-templates-searcht_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_163</t>
+  </si>
+  <si>
+    <t>@API Admin email-templates-search_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_164</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the email-template-filter-list</t>
+  </si>
+  <si>
+    <t>Admin_165</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for email-template-filter-list</t>
+  </si>
+  <si>
+    <t>Admin_167</t>
+  </si>
+  <si>
+    <t>@API Admin_email-templates-pagination</t>
+  </si>
+  <si>
+    <t>Admin_168</t>
+  </si>
+  <si>
+    <t>@API Admin email-templates-pagination_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_169</t>
+  </si>
+  <si>
+    <t>@API Admin email-templates-pagination_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_170</t>
+  </si>
+  <si>
+    <t>@API Admin_email-templates-filter-search</t>
+  </si>
+  <si>
+    <t>Admin_171</t>
+  </si>
+  <si>
+    <t>@API Admin email-templates-filter-search_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_172</t>
+  </si>
+  <si>
+    <t>@API Admin email-templates-filter-search_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_173</t>
+  </si>
+  <si>
+    <t>@API Admin_custom-filter-save</t>
+  </si>
+  <si>
+    <t>Admin_174</t>
+  </si>
+  <si>
+    <t>@API Admin custom-filter-save_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_175</t>
+  </si>
+  <si>
+    <t>@API Admin custom-filter-save_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_176</t>
+  </si>
+  <si>
+    <t>@API Admin_email-templates-list-field-column-hide</t>
+  </si>
+  <si>
+    <t>Admin_177</t>
+  </si>
+  <si>
+    <t>@API Admin email-templates-list-field-column-hide_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_178</t>
+  </si>
+  <si>
+    <t>@API Admin email-templates-list-field-column-hide_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_152</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the email-template-edit-form</t>
+  </si>
+  <si>
+    <t>Admin_153</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for email-template-edit-form</t>
+  </si>
+  <si>
+    <t>Admin_155</t>
+  </si>
+  <si>
+    <t>@API Admin_email-template-update</t>
+  </si>
+  <si>
+    <t>Admin_156</t>
+  </si>
+  <si>
+    <t>@API Admin email-template-update_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_157</t>
+  </si>
+  <si>
+    <t>@API Admin email-template-update_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_179</t>
+  </si>
+  <si>
+    <t>@API Admin_create-dashboard-form</t>
+  </si>
+  <si>
+    <t>Admin_180</t>
+  </si>
+  <si>
+    <t>@API Admin create-dashboard-form_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_181</t>
+  </si>
+  <si>
+    <t>@API Admin_create-dashboard-save</t>
+  </si>
+  <si>
+    <t>Admin_182</t>
+  </si>
+  <si>
+    <t>@API Admin create-dashboard-save_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_183</t>
+  </si>
+  <si>
+    <t>@API Admin create-dashboard-save_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_184</t>
+  </si>
+  <si>
+    <t>@API Admin_dashboards-list</t>
+  </si>
+  <si>
+    <t>Admin_185</t>
+  </si>
+  <si>
+    <t>@API Admin dashboards-list_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_186</t>
+  </si>
+  <si>
+    <t>@API Admin dashboards-list_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_187</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the dashboard-filter-list</t>
+  </si>
+  <si>
+    <t>Admin_188</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for dashboard-filter-list</t>
+  </si>
+  <si>
+    <t>Admin_190</t>
+  </si>
+  <si>
+    <t>@API Admin_dashboards-search</t>
+  </si>
+  <si>
+    <t>Admin_191</t>
+  </si>
+  <si>
+    <t>@API Admin dashboards-search_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_192</t>
+  </si>
+  <si>
+    <t>@API Admin dashboards-search_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_193</t>
+  </si>
+  <si>
+    <t>@API Admin_dashboards-filter-search</t>
+  </si>
+  <si>
+    <t>Admin_194</t>
+  </si>
+  <si>
+    <t>@API Admin dashboards-filter-search_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_195</t>
+  </si>
+  <si>
+    <t>@API Admin dashboards-filter-search_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_196</t>
+  </si>
+  <si>
+    <t>@API Admin_custom-filter-save public or private</t>
+  </si>
+  <si>
+    <t>Admin_197</t>
+  </si>
+  <si>
+    <t>@API Admin custom-filter-save public or private_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_198</t>
+  </si>
+  <si>
+    <t>@API Admin custom-filter-save public or private_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_199</t>
+  </si>
+  <si>
+    <t>@API Admin_dashboards-list-field-column-hide</t>
+  </si>
+  <si>
+    <t>Admin_200</t>
+  </si>
+  <si>
+    <t>@API Admin dashboards-list-field-column-hide_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_201</t>
+  </si>
+  <si>
+    <t>@API Admin dashboards-list-field-column-hide_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_202</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the dashboard-list-status-change</t>
+  </si>
+  <si>
+    <t>Admin_204</t>
+  </si>
+  <si>
+    <t>@API Admin_edit-dashboard-form</t>
+  </si>
+  <si>
+    <t>Admin_205 @API Admin edit-dashboard-form_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_206</t>
+  </si>
+  <si>
+    <t>@API Admin_dashboard-update</t>
+  </si>
+  <si>
+    <t>Admin_207</t>
+  </si>
+  <si>
+    <t>@API Admin dashboard-update_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_208</t>
+  </si>
+  <si>
+    <t>@API Admin dashboard-update_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_209</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the duplicate-dashboard</t>
+  </si>
+  <si>
+    <t>Admin_210</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for duplicate-dashboard</t>
+  </si>
+  <si>
+    <t>Admin_212</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the delete-dashboard</t>
+  </si>
+  <si>
+    <t>Admin_213</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for delete-dashboard</t>
+  </si>
+  <si>
+    <t>Admin_215</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the chat-settings-form</t>
+  </si>
+  <si>
+    <t>Admin_216</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for chat-settings-form</t>
+  </si>
+  <si>
+    <t>Admin_218</t>
+  </si>
+  <si>
+    <t>@API Admin_chat-settings-save</t>
+  </si>
+  <si>
+    <t>Admin_219</t>
+  </si>
+  <si>
+    <t>@API Admin chat-settings-save_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_220</t>
+  </si>
+  <si>
+    <t>@API Admin chat-settings-save_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_221</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the training_centre-form</t>
+  </si>
+  <si>
+    <t>Admin_222</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for training_centre-form</t>
+  </si>
+  <si>
+    <t>Admin_224</t>
+  </si>
+  <si>
+    <t>@API Admin_training_centre-save</t>
+  </si>
+  <si>
+    <t>Admin_225</t>
+  </si>
+  <si>
+    <t>@API Admin training_centre-save_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_226</t>
+  </si>
+  <si>
+    <t>@API Admin training_centre-save_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_227</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the training_centre-edit-form</t>
+  </si>
+  <si>
+    <t>Admin_228</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for training_centre-edit-form</t>
+  </si>
+  <si>
+    <t>Admin_230</t>
+  </si>
+  <si>
+    <t>@API Admin_training_centre-update</t>
+  </si>
+  <si>
+    <t>Admin_231</t>
+  </si>
+  <si>
+    <t>@API Admin training_centre-update_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_232</t>
+  </si>
+  <si>
+    <t>@API Admin training_centre-update_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_233</t>
+  </si>
+  <si>
+    <t>@API Admin_training_centres-list</t>
+  </si>
+  <si>
+    <t>Admin_234</t>
+  </si>
+  <si>
+    <t>@API Admin training_centres-list_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_235</t>
+  </si>
+  <si>
+    <t>@API Admin training_centres-list_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_236</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the training_centres-filters</t>
+  </si>
+  <si>
+    <t>Admin_237</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for training_centres-filters</t>
+  </si>
+  <si>
+    <t>Admin_240</t>
+  </si>
+  <si>
+    <t>@API Admin training_centres-search_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_241</t>
+  </si>
+  <si>
+    <t>@API Admin training_centres-search_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_243</t>
+  </si>
+  <si>
+    <t>@API Admin training_centres-filter-search_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_244</t>
+  </si>
+  <si>
+    <t>@API Admin training_centres-filter-search_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_245</t>
+  </si>
+  <si>
+    <t>@API Admin_training_centre-custom-filter-save</t>
+  </si>
+  <si>
+    <t>Admin_246</t>
+  </si>
+  <si>
+    <t>@API Admin training_centre-custom-filter-save_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_247</t>
+  </si>
+  <si>
+    <t>@API Admin training_centre-custom-filter-save-search_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_249</t>
+  </si>
+  <si>
+    <t>@API Admin training_centres-field-column-show and hide_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_250</t>
+  </si>
+  <si>
+    <t>@API Admin training_centres-field-column-show and hide_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_252</t>
+  </si>
+  <si>
+    <t>@API Admin training_centres-pagination_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_253</t>
+  </si>
+  <si>
+    <t>@API Admin training_centres-pagination_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_254</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the deactivate_training_centre</t>
+  </si>
+  <si>
+    <t>Admin_255</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for deactivate_training_centre</t>
+  </si>
+  <si>
+    <t>Admin_257</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the activate_training_centre</t>
+  </si>
+  <si>
+    <t>Admin_258</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for activate_training_centre</t>
+  </si>
+  <si>
+    <t>Admin_260</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the training_centre-delete</t>
+  </si>
+  <si>
+    <t>Admin_261</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for training_centre-delete</t>
+  </si>
+  <si>
+    <t>Admin_263</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the training_site-form</t>
+  </si>
+  <si>
+    <t>Admin_264</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for training_site-form</t>
+  </si>
+  <si>
+    <t>Admin_266</t>
+  </si>
+  <si>
+    <t>@API Admin_training_site-save</t>
+  </si>
+  <si>
+    <t>Admin_267</t>
+  </si>
+  <si>
+    <t>@API Admin training_site-save_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_268</t>
+  </si>
+  <si>
+    <t>@API Admin training_site-save_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_269</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the training_site-edit-form</t>
+  </si>
+  <si>
+    <t>Admin_270</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for training_site-edit-form</t>
+  </si>
+  <si>
+    <t>Admin_272</t>
+  </si>
+  <si>
+    <t>@API Admin_training_sites-list</t>
+  </si>
+  <si>
+    <t>Admin_273</t>
+  </si>
+  <si>
+    <t>@API Admin training_sites-list_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_274</t>
+  </si>
+  <si>
+    <t>@API Admin training_sites-list_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_276</t>
+  </si>
+  <si>
+    <t>@API Admin training_sites-search_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_277</t>
+  </si>
+  <si>
+    <t>@API Admin training_sites-search_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_279</t>
+  </si>
+  <si>
+    <t>@API Admin training_sites-filter-search_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_280</t>
+  </si>
+  <si>
+    <t>@API Admin training_sites-filter-search_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_281</t>
+  </si>
+  <si>
+    <t>@API Admin_training_site-custom-filter-save</t>
+  </si>
+  <si>
+    <t>Admin_282</t>
+  </si>
+  <si>
+    <t>@API Admin training_site-custom-filter-save_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_283</t>
+  </si>
+  <si>
+    <t>@API Admin training_site-custom-filter-save_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_285</t>
+  </si>
+  <si>
+    <t>@API Admin training_sites-field-cloumn-hide and show_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_286</t>
+  </si>
+  <si>
+    <t>@API Admin training_sites-field-cloumn-hide and show_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_288</t>
+  </si>
+  <si>
+    <t>@API Admin training_sites-pagination_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_289</t>
+  </si>
+  <si>
+    <t>@API Admin training_sites-pagination_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_290</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the deactivate_training_site</t>
+  </si>
+  <si>
+    <t>Admin_291</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for deactivate_training_site</t>
+  </si>
+  <si>
+    <t>Admin_293</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the activate_training_site</t>
+  </si>
+  <si>
+    <t>Admin_294</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for activate_training_site</t>
+  </si>
+  <si>
+    <t>Admin_296</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the training_site-delete</t>
+  </si>
+  <si>
+    <t>Admin_297</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for training_site-delete</t>
+  </si>
+  <si>
+    <t>Admin_299</t>
+  </si>
+  <si>
+    <t>@API Admin_save-grade-scale</t>
+  </si>
+  <si>
+    <t>Admin_300</t>
+  </si>
+  <si>
+    <t>@API Admin save-grade-scale_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_301</t>
+  </si>
+  <si>
+    <t>@API Admin save-grade-scale_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_314</t>
+  </si>
+  <si>
+    <t>@API Admin_grade-scale-search</t>
+  </si>
+  <si>
+    <t>Admin_315</t>
+  </si>
+  <si>
+    <t>@API Admin grade-scale-search_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_316</t>
+  </si>
+  <si>
+    <t>@API Admin grade-scale-search_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_302</t>
+  </si>
+  <si>
+    <t>@API Admin_grade-scale-edit-form</t>
+  </si>
+  <si>
+    <t>Admin_303</t>
+  </si>
+  <si>
+    <t>@API Admin grade-scale-edit-form_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_304</t>
+  </si>
+  <si>
+    <t>@API Admin grade-scale-edit-form_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_305</t>
+  </si>
+  <si>
+    <t>Admin_306</t>
+  </si>
+  <si>
+    <t>Admin_307</t>
+  </si>
+  <si>
+    <t>Admin_308</t>
+  </si>
+  <si>
+    <t>@API Admin_grade-scale-list</t>
+  </si>
+  <si>
+    <t>Admin_309</t>
+  </si>
+  <si>
+    <t>@API Admin grade-scale-list_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_310</t>
+  </si>
+  <si>
+    <t>@API Admin grade-scale-list_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_311</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the grade-scale-filters</t>
+  </si>
+  <si>
+    <t>Admin_312</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for grade-scale-filters</t>
+  </si>
+  <si>
+    <t>Admin_317</t>
+  </si>
+  <si>
+    <t>@API Admin_grade-scale-filter-search</t>
+  </si>
+  <si>
+    <t>Admin_318</t>
+  </si>
+  <si>
+    <t>@API Admin grade-scale-filter-search_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_319</t>
+  </si>
+  <si>
+    <t>@API Admin grade-scale-filter-search_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_320</t>
+  </si>
+  <si>
+    <t>@API Admin_grade-scale-custom-filter-save</t>
+  </si>
+  <si>
+    <t>Admin_321</t>
+  </si>
+  <si>
+    <t>@API Admin grade-scale-custom-filter-save_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_322</t>
+  </si>
+  <si>
+    <t>@API Admin grade-scale-custom-filter-save_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_323</t>
+  </si>
+  <si>
+    <t>@API Admin_grade-scale-field-column-hide</t>
+  </si>
+  <si>
+    <t>Admin_324</t>
+  </si>
+  <si>
+    <t>@API Admin grade-scale-field-column-hide_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_325</t>
+  </si>
+  <si>
+    <t>@API Admin grade-scale-field-column-hide_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_326</t>
+  </si>
+  <si>
+    <t>@API Admin_grade-scale-pagination</t>
+  </si>
+  <si>
+    <t>Admin_327</t>
+  </si>
+  <si>
+    <t>@API Admin grade-scale-pagination_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_328</t>
+  </si>
+  <si>
+    <t>@API Admin grade-scale-pagination_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_329</t>
+  </si>
+  <si>
+    <t>@API Admin_duplicate-grade-scale</t>
+  </si>
+  <si>
+    <t>Admin_330</t>
+  </si>
+  <si>
+    <t>@API Admin duplicate-grade-scale_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_331</t>
+  </si>
+  <si>
+    <t>@API Admin duplicate-grade-scale_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_332</t>
+  </si>
+  <si>
+    <t>@API Admin duplicate-grade-scale_validation of invalid grade scale id</t>
+  </si>
+  <si>
+    <t>Admin_522</t>
+  </si>
+  <si>
+    <t>@API Admin add the user and save_validate invalid_userId</t>
+  </si>
+  <si>
+    <t>Admin_525</t>
+  </si>
+  <si>
+    <t>@API Admin_roles-list-search_empty access token</t>
+  </si>
+  <si>
+    <t>Admin_526</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the user-activities-filter_invalid access token</t>
+  </si>
+  <si>
+    <t>Admin_527</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the email-template-edit-form_invalid access token</t>
+  </si>
+  <si>
+    <t>Admin_528</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the email-template-create-form_invalid access token</t>
+  </si>
+  <si>
+    <t>Admin_529</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the email-template-filter-list_invalid access token</t>
+  </si>
+  <si>
+    <t>Admin_530</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the duplicate-dashboard_invalid access token</t>
+  </si>
+  <si>
+    <t>Admin_531</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the delete-dashboard_invalid access token</t>
+  </si>
+  <si>
+    <t>Admin_532</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the chat-settings-form_invalid access token</t>
+  </si>
+  <si>
+    <t>Admin_533</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the training_centre-form_invalid access token</t>
+  </si>
+  <si>
+    <t>Admin_534</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the training_centre-edit-form_invalid access token</t>
+  </si>
+  <si>
+    <t>Admin_535</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the training_centres-filters_invalid access token</t>
+  </si>
+  <si>
+    <t>Admin_520</t>
+  </si>
+  <si>
+    <t>@API Admin add the user-save_empty username,email and phone</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>AL_001Zz</t>
+  </si>
+  <si>
+    <t>Admin_521</t>
+  </si>
+  <si>
+    <t>@API Admin add the user and save_empty first_name</t>
+  </si>
+  <si>
+    <t>AL_001Zy</t>
+  </si>
+  <si>
+    <t>Admin_523</t>
+  </si>
+  <si>
+    <t>@API Admin_role-save_empty name</t>
+  </si>
+  <si>
+    <t>AL_001Zxa</t>
+  </si>
+  <si>
+    <t>Admin_524</t>
+  </si>
+  <si>
+    <t>@API Admin_roles-list-search_invalid name</t>
+  </si>
+  <si>
+    <t>AL_001Zx</t>
+  </si>
+  <si>
+    <t>Admin_313</t>
+  </si>
+  <si>
+    <t>@API Admin grade-scale-filters-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001Zw</t>
+  </si>
+  <si>
+    <t>Admin_298</t>
+  </si>
+  <si>
+    <t>@API Admin training_site-delete-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001Zv</t>
+  </si>
+  <si>
+    <t>Admin_295</t>
+  </si>
+  <si>
+    <t>@API Admin activate_training_site-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001Zu</t>
+  </si>
+  <si>
+    <t>Admin_292</t>
+  </si>
+  <si>
+    <t>@API Admin deactivate_training_site-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001Zt</t>
+  </si>
+  <si>
+    <t>Admin_287</t>
+  </si>
+  <si>
+    <t>@API Admin_training_sites-pagination</t>
+  </si>
+  <si>
+    <t>AL_001Zs</t>
+  </si>
+  <si>
+    <t>Admin_284</t>
+  </si>
+  <si>
+    <t>@API Admin_training_sites-field-cloumn-hide and show</t>
+  </si>
+  <si>
+    <t>AL_001Zr</t>
+  </si>
+  <si>
+    <t>Admin_278</t>
+  </si>
+  <si>
+    <t>@API Admin_training_sites-filter-search</t>
+  </si>
+  <si>
+    <t>AL_001Zq</t>
+  </si>
+  <si>
+    <t>Admin_275</t>
+  </si>
+  <si>
+    <t>@API Admin_training_sites-search</t>
+  </si>
+  <si>
+    <t>AL_001Zp</t>
+  </si>
+  <si>
+    <t>Admin_271</t>
+  </si>
+  <si>
+    <t>@API Admin training_site-edit-form-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001Zo</t>
+  </si>
+  <si>
+    <t>Admin_265</t>
+  </si>
+  <si>
+    <t>@API Admin training_site-form-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001Zn</t>
+  </si>
+  <si>
+    <t>Admin_262</t>
+  </si>
+  <si>
+    <t>@API Admin training_centre-delete-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001Zm</t>
+  </si>
+  <si>
+    <t>Admin_259</t>
+  </si>
+  <si>
+    <t>@API Admin activate_training_centre-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001Zl</t>
+  </si>
+  <si>
+    <t>Admin_256</t>
+  </si>
+  <si>
+    <t>@API Admin deactivate_training_centre-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001Zk</t>
+  </si>
+  <si>
+    <t>Admin_251</t>
+  </si>
+  <si>
+    <t>@API Admin_training_centres-pagination</t>
+  </si>
+  <si>
+    <t>AL_001Zj</t>
+  </si>
+  <si>
+    <t>Admin_248</t>
+  </si>
+  <si>
+    <t>@API Admin_training_centres-field-column-show and hide</t>
+  </si>
+  <si>
+    <t>AL_001Zi</t>
+  </si>
+  <si>
+    <t>Admin_242</t>
+  </si>
+  <si>
+    <t>@API Admin_training_centres-filter-search</t>
+  </si>
+  <si>
+    <t>AL_001Zh</t>
+  </si>
+  <si>
+    <t>Admin_239</t>
+  </si>
+  <si>
+    <t>@API Admin_training_centres-search</t>
+  </si>
+  <si>
+    <t>AL_001Zg</t>
+  </si>
+  <si>
+    <t>Admin_238</t>
+  </si>
+  <si>
+    <t>@API Admin training_centres-filters-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001Zf</t>
+  </si>
+  <si>
+    <t>Admin_229</t>
+  </si>
+  <si>
+    <t>@API Admin training_centre-edit-form-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001Ze</t>
+  </si>
+  <si>
+    <t>Admin_223</t>
+  </si>
+  <si>
+    <t>@API Admin training_centre-form-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001Zd</t>
+  </si>
+  <si>
+    <t>Admin_217</t>
+  </si>
+  <si>
+    <t>@API Admin chat-settings-form-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001Zc</t>
+  </si>
+  <si>
+    <t>Admin_214</t>
+  </si>
+  <si>
+    <t>@API Admin delete-dashboard-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001Zb</t>
+  </si>
+  <si>
+    <t>Admin_211</t>
+  </si>
+  <si>
+    <t>@API Admin duplicate-dashboard-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001Za</t>
+  </si>
+  <si>
+    <t>Admin_203</t>
+  </si>
+  <si>
+    <t>@API Admin dashboard-list-status-change-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001Z</t>
+  </si>
+  <si>
+    <t>Admin_189</t>
+  </si>
+  <si>
+    <t>@API Admin dashboard-filter-list-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001Y</t>
+  </si>
+  <si>
+    <t>Admin_154</t>
+  </si>
+  <si>
+    <t>@API Admin email-template-edit-form-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001X</t>
+  </si>
+  <si>
+    <t>Admin_166</t>
+  </si>
+  <si>
+    <t>@API Admin email-template-filter-list-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001W</t>
+  </si>
+  <si>
+    <t>Admin_148</t>
+  </si>
+  <si>
+    <t>@API Admin email-template-create-form-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001V</t>
+  </si>
+  <si>
     <t>Admin_094</t>
   </si>
   <si>
     <t>@API Admin security-control-privilage-list-Header field validation - invalid</t>
-  </si>
-  <si>
-    <t>failed</t>
   </si>
   <si>
     <t>AL_001U</t>
@@ -1323,7 +2625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C168"/>
+  <dimension ref="A1:C403"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2709,15 +4011,15 @@
         <v>248</v>
       </c>
       <c r="C126" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" t="s">
         <v>250</v>
-      </c>
-      <c r="B127" t="s">
-        <v>4</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2731,7 +4033,7 @@
         <v>252</v>
       </c>
       <c r="C128" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2739,7 +4041,7 @@
         <v>253</v>
       </c>
       <c r="B129" t="s">
-        <v>4</v>
+        <v>254</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2747,21 +4049,21 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B130" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C130" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>258</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2769,21 +4071,21 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B132" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C132" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B133" t="s">
-        <v>4</v>
+        <v>262</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2791,21 +4093,21 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B134" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C134" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B135" t="s">
-        <v>4</v>
+        <v>266</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2813,21 +4115,21 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B136" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C136" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B137" t="s">
-        <v>4</v>
+        <v>270</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2835,21 +4137,21 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B138" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C138" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
+        <v>274</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2857,21 +4159,21 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B140" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C140" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B141" t="s">
-        <v>4</v>
+        <v>278</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2879,21 +4181,21 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B142" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C142" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B143" t="s">
-        <v>4</v>
+        <v>282</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2901,21 +4203,21 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B144" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C144" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B145" t="s">
-        <v>4</v>
+        <v>286</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2923,21 +4225,21 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B146" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C146" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B147" t="s">
-        <v>4</v>
+        <v>290</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2945,21 +4247,21 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B148" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C148" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B149" t="s">
-        <v>4</v>
+        <v>294</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2967,21 +4269,21 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B150" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C150" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
+        <v>298</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2989,21 +4291,21 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="B152" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C152" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B153" t="s">
-        <v>4</v>
+        <v>302</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3011,21 +4313,21 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B154" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="C154" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B155" t="s">
-        <v>4</v>
+        <v>306</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3033,21 +4335,21 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B156" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="C156" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="B157" t="s">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3055,21 +4357,21 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B158" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="C158" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="B159" t="s">
-        <v>4</v>
+        <v>314</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3077,21 +4379,21 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="B160" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="C160" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B161" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3099,21 +4401,21 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="B162" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="C162" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="B163" t="s">
-        <v>4</v>
+        <v>322</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3121,21 +4423,21 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="B164" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="C164" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="B165" t="s">
-        <v>4</v>
+        <v>326</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3143,21 +4445,21 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="B166" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="C166" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="B167" t="s">
-        <v>4</v>
+        <v>330</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3165,13 +4467,2595 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="B168" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="C168" t="s">
-        <v>249</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>333</v>
+      </c>
+      <c r="B169" t="s">
+        <v>334</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>335</v>
+      </c>
+      <c r="B170" t="s">
+        <v>336</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>337</v>
+      </c>
+      <c r="B171" t="s">
+        <v>338</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>339</v>
+      </c>
+      <c r="B172" t="s">
+        <v>340</v>
+      </c>
+      <c r="C172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>341</v>
+      </c>
+      <c r="B173" t="s">
+        <v>342</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>343</v>
+      </c>
+      <c r="B174" t="s">
+        <v>344</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>345</v>
+      </c>
+      <c r="B175" t="s">
+        <v>346</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>347</v>
+      </c>
+      <c r="B176" t="s">
+        <v>348</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>349</v>
+      </c>
+      <c r="B177" t="s">
+        <v>350</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>351</v>
+      </c>
+      <c r="B178" t="s">
+        <v>352</v>
+      </c>
+      <c r="C178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>353</v>
+      </c>
+      <c r="B179" t="s">
+        <v>354</v>
+      </c>
+      <c r="C179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>355</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>356</v>
+      </c>
+      <c r="B181" t="s">
+        <v>357</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>358</v>
+      </c>
+      <c r="B182" t="s">
+        <v>359</v>
+      </c>
+      <c r="C182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>360</v>
+      </c>
+      <c r="B183" t="s">
+        <v>361</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>362</v>
+      </c>
+      <c r="B184" t="s">
+        <v>363</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>364</v>
+      </c>
+      <c r="B185" t="s">
+        <v>365</v>
+      </c>
+      <c r="C185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>366</v>
+      </c>
+      <c r="B186" t="s">
+        <v>367</v>
+      </c>
+      <c r="C186" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>368</v>
+      </c>
+      <c r="B187" t="s">
+        <v>369</v>
+      </c>
+      <c r="C187" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>370</v>
+      </c>
+      <c r="B188" t="s">
+        <v>371</v>
+      </c>
+      <c r="C188" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>372</v>
+      </c>
+      <c r="B189" t="s">
+        <v>373</v>
+      </c>
+      <c r="C189" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>374</v>
+      </c>
+      <c r="B190" t="s">
+        <v>375</v>
+      </c>
+      <c r="C190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>376</v>
+      </c>
+      <c r="B191" t="s">
+        <v>377</v>
+      </c>
+      <c r="C191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>378</v>
+      </c>
+      <c r="B192" t="s">
+        <v>379</v>
+      </c>
+      <c r="C192" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>380</v>
+      </c>
+      <c r="B193" t="s">
+        <v>381</v>
+      </c>
+      <c r="C193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>382</v>
+      </c>
+      <c r="B194" t="s">
+        <v>383</v>
+      </c>
+      <c r="C194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>384</v>
+      </c>
+      <c r="B195" t="s">
+        <v>385</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>386</v>
+      </c>
+      <c r="B196" t="s">
+        <v>387</v>
+      </c>
+      <c r="C196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>388</v>
+      </c>
+      <c r="B197" t="s">
+        <v>389</v>
+      </c>
+      <c r="C197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>390</v>
+      </c>
+      <c r="B198" t="s">
+        <v>391</v>
+      </c>
+      <c r="C198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>392</v>
+      </c>
+      <c r="B199" t="s">
+        <v>393</v>
+      </c>
+      <c r="C199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>394</v>
+      </c>
+      <c r="B200" t="s">
+        <v>395</v>
+      </c>
+      <c r="C200" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>396</v>
+      </c>
+      <c r="B201" t="s">
+        <v>397</v>
+      </c>
+      <c r="C201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>398</v>
+      </c>
+      <c r="B202" t="s">
+        <v>399</v>
+      </c>
+      <c r="C202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>400</v>
+      </c>
+      <c r="B203" t="s">
+        <v>401</v>
+      </c>
+      <c r="C203" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>402</v>
+      </c>
+      <c r="B204" t="s">
+        <v>403</v>
+      </c>
+      <c r="C204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>404</v>
+      </c>
+      <c r="B205" t="s">
+        <v>405</v>
+      </c>
+      <c r="C205" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>406</v>
+      </c>
+      <c r="B206" t="s">
+        <v>407</v>
+      </c>
+      <c r="C206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>408</v>
+      </c>
+      <c r="B207" t="s">
+        <v>409</v>
+      </c>
+      <c r="C207" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>410</v>
+      </c>
+      <c r="B208" t="s">
+        <v>411</v>
+      </c>
+      <c r="C208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>412</v>
+      </c>
+      <c r="B209" t="s">
+        <v>413</v>
+      </c>
+      <c r="C209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>414</v>
+      </c>
+      <c r="B210" t="s">
+        <v>415</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>416</v>
+      </c>
+      <c r="B211" t="s">
+        <v>417</v>
+      </c>
+      <c r="C211" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>418</v>
+      </c>
+      <c r="B212" t="s">
+        <v>419</v>
+      </c>
+      <c r="C212" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>420</v>
+      </c>
+      <c r="B213" t="s">
+        <v>421</v>
+      </c>
+      <c r="C213" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>422</v>
+      </c>
+      <c r="B214" t="s">
+        <v>423</v>
+      </c>
+      <c r="C214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>424</v>
+      </c>
+      <c r="B215" t="s">
+        <v>425</v>
+      </c>
+      <c r="C215" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>426</v>
+      </c>
+      <c r="B216" t="s">
+        <v>427</v>
+      </c>
+      <c r="C216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>428</v>
+      </c>
+      <c r="B217" t="s">
+        <v>429</v>
+      </c>
+      <c r="C217" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>430</v>
+      </c>
+      <c r="B218" t="s">
+        <v>431</v>
+      </c>
+      <c r="C218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>432</v>
+      </c>
+      <c r="B219" t="s">
+        <v>433</v>
+      </c>
+      <c r="C219" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>434</v>
+      </c>
+      <c r="B220" t="s">
+        <v>435</v>
+      </c>
+      <c r="C220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>436</v>
+      </c>
+      <c r="B221" t="s">
+        <v>437</v>
+      </c>
+      <c r="C221" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>438</v>
+      </c>
+      <c r="B222" t="s">
+        <v>439</v>
+      </c>
+      <c r="C222" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>440</v>
+      </c>
+      <c r="B223" t="s">
+        <v>441</v>
+      </c>
+      <c r="C223" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>442</v>
+      </c>
+      <c r="B224" t="s">
+        <v>443</v>
+      </c>
+      <c r="C224" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>444</v>
+      </c>
+      <c r="B225" t="s">
+        <v>445</v>
+      </c>
+      <c r="C225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>446</v>
+      </c>
+      <c r="B226" t="s">
+        <v>447</v>
+      </c>
+      <c r="C226" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>448</v>
+      </c>
+      <c r="B227" t="s">
+        <v>449</v>
+      </c>
+      <c r="C227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>450</v>
+      </c>
+      <c r="B228" t="s">
+        <v>451</v>
+      </c>
+      <c r="C228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>452</v>
+      </c>
+      <c r="B229" t="s">
+        <v>453</v>
+      </c>
+      <c r="C229" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>454</v>
+      </c>
+      <c r="B230" t="s">
+        <v>455</v>
+      </c>
+      <c r="C230" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>456</v>
+      </c>
+      <c r="B231" t="s">
+        <v>457</v>
+      </c>
+      <c r="C231" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>458</v>
+      </c>
+      <c r="B232" t="s">
+        <v>459</v>
+      </c>
+      <c r="C232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>460</v>
+      </c>
+      <c r="B233" t="s">
+        <v>461</v>
+      </c>
+      <c r="C233" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>462</v>
+      </c>
+      <c r="B234" t="s">
+        <v>463</v>
+      </c>
+      <c r="C234" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>464</v>
+      </c>
+      <c r="B235" t="s">
+        <v>465</v>
+      </c>
+      <c r="C235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>466</v>
+      </c>
+      <c r="B236" t="s">
+        <v>467</v>
+      </c>
+      <c r="C236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>468</v>
+      </c>
+      <c r="B237" t="s">
+        <v>469</v>
+      </c>
+      <c r="C237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>470</v>
+      </c>
+      <c r="B238" t="s">
+        <v>471</v>
+      </c>
+      <c r="C238" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>472</v>
+      </c>
+      <c r="B239" t="s">
+        <v>473</v>
+      </c>
+      <c r="C239" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>474</v>
+      </c>
+      <c r="B240" t="s">
+        <v>475</v>
+      </c>
+      <c r="C240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>476</v>
+      </c>
+      <c r="B241" t="s">
+        <v>477</v>
+      </c>
+      <c r="C241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>478</v>
+      </c>
+      <c r="B242" t="s">
+        <v>479</v>
+      </c>
+      <c r="C242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>480</v>
+      </c>
+      <c r="B243" t="s">
+        <v>481</v>
+      </c>
+      <c r="C243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>482</v>
+      </c>
+      <c r="B244" t="s">
+        <v>483</v>
+      </c>
+      <c r="C244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>484</v>
+      </c>
+      <c r="B245" t="s">
+        <v>485</v>
+      </c>
+      <c r="C245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>486</v>
+      </c>
+      <c r="B246" t="s">
+        <v>487</v>
+      </c>
+      <c r="C246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>488</v>
+      </c>
+      <c r="B247" t="s">
+        <v>489</v>
+      </c>
+      <c r="C247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>490</v>
+      </c>
+      <c r="B248" t="s">
+        <v>491</v>
+      </c>
+      <c r="C248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>492</v>
+      </c>
+      <c r="B249" t="s">
+        <v>493</v>
+      </c>
+      <c r="C249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>494</v>
+      </c>
+      <c r="B250" t="s">
+        <v>495</v>
+      </c>
+      <c r="C250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>496</v>
+      </c>
+      <c r="B251" t="s">
+        <v>497</v>
+      </c>
+      <c r="C251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>498</v>
+      </c>
+      <c r="B252" t="s">
+        <v>499</v>
+      </c>
+      <c r="C252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>500</v>
+      </c>
+      <c r="B253" t="s">
+        <v>501</v>
+      </c>
+      <c r="C253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>502</v>
+      </c>
+      <c r="B254" t="s">
+        <v>503</v>
+      </c>
+      <c r="C254" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>504</v>
+      </c>
+      <c r="B255" t="s">
+        <v>505</v>
+      </c>
+      <c r="C255" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>506</v>
+      </c>
+      <c r="B256" t="s">
+        <v>507</v>
+      </c>
+      <c r="C256" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>508</v>
+      </c>
+      <c r="B257" t="s">
+        <v>509</v>
+      </c>
+      <c r="C257" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>510</v>
+      </c>
+      <c r="B258" t="s">
+        <v>511</v>
+      </c>
+      <c r="C258" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>512</v>
+      </c>
+      <c r="B259" t="s">
+        <v>513</v>
+      </c>
+      <c r="C259" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>514</v>
+      </c>
+      <c r="B260" t="s">
+        <v>515</v>
+      </c>
+      <c r="C260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>516</v>
+      </c>
+      <c r="B261" t="s">
+        <v>499</v>
+      </c>
+      <c r="C261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>517</v>
+      </c>
+      <c r="B262" t="s">
+        <v>501</v>
+      </c>
+      <c r="C262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>518</v>
+      </c>
+      <c r="B263" t="s">
+        <v>503</v>
+      </c>
+      <c r="C263" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>519</v>
+      </c>
+      <c r="B264" t="s">
+        <v>520</v>
+      </c>
+      <c r="C264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>521</v>
+      </c>
+      <c r="B265" t="s">
+        <v>522</v>
+      </c>
+      <c r="C265" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>523</v>
+      </c>
+      <c r="B266" t="s">
+        <v>524</v>
+      </c>
+      <c r="C266" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>525</v>
+      </c>
+      <c r="B267" t="s">
+        <v>526</v>
+      </c>
+      <c r="C267" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>527</v>
+      </c>
+      <c r="B268" t="s">
+        <v>528</v>
+      </c>
+      <c r="C268" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>529</v>
+      </c>
+      <c r="B269" t="s">
+        <v>530</v>
+      </c>
+      <c r="C269" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>531</v>
+      </c>
+      <c r="B270" t="s">
+        <v>532</v>
+      </c>
+      <c r="C270" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>533</v>
+      </c>
+      <c r="B271" t="s">
+        <v>534</v>
+      </c>
+      <c r="C271" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>535</v>
+      </c>
+      <c r="B272" t="s">
+        <v>536</v>
+      </c>
+      <c r="C272" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>537</v>
+      </c>
+      <c r="B273" t="s">
+        <v>538</v>
+      </c>
+      <c r="C273" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>539</v>
+      </c>
+      <c r="B274" t="s">
+        <v>540</v>
+      </c>
+      <c r="C274" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>541</v>
+      </c>
+      <c r="B275" t="s">
+        <v>542</v>
+      </c>
+      <c r="C275" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>543</v>
+      </c>
+      <c r="B276" t="s">
+        <v>544</v>
+      </c>
+      <c r="C276" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>545</v>
+      </c>
+      <c r="B277" t="s">
+        <v>546</v>
+      </c>
+      <c r="C277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>547</v>
+      </c>
+      <c r="B278" t="s">
+        <v>548</v>
+      </c>
+      <c r="C278" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>549</v>
+      </c>
+      <c r="B279" t="s">
+        <v>550</v>
+      </c>
+      <c r="C279" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>551</v>
+      </c>
+      <c r="B280" t="s">
+        <v>552</v>
+      </c>
+      <c r="C280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>553</v>
+      </c>
+      <c r="B281" t="s">
+        <v>554</v>
+      </c>
+      <c r="C281" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>555</v>
+      </c>
+      <c r="B282" t="s">
+        <v>556</v>
+      </c>
+      <c r="C282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>557</v>
+      </c>
+      <c r="B283" t="s">
+        <v>558</v>
+      </c>
+      <c r="C283" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>559</v>
+      </c>
+      <c r="B284" t="s">
+        <v>560</v>
+      </c>
+      <c r="C284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>561</v>
+      </c>
+      <c r="B285" t="s">
+        <v>562</v>
+      </c>
+      <c r="C285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>563</v>
+      </c>
+      <c r="B286" t="s">
+        <v>564</v>
+      </c>
+      <c r="C286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>565</v>
+      </c>
+      <c r="B287" t="s">
+        <v>566</v>
+      </c>
+      <c r="C287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>567</v>
+      </c>
+      <c r="B288" t="s">
+        <v>568</v>
+      </c>
+      <c r="C288" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>569</v>
+      </c>
+      <c r="B289" t="s">
+        <v>570</v>
+      </c>
+      <c r="C289" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>571</v>
+      </c>
+      <c r="B290" t="s">
+        <v>572</v>
+      </c>
+      <c r="C290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>573</v>
+      </c>
+      <c r="B291" t="s">
+        <v>574</v>
+      </c>
+      <c r="C291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>575</v>
+      </c>
+      <c r="B292" t="s">
+        <v>576</v>
+      </c>
+      <c r="C292" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>577</v>
+      </c>
+      <c r="B293" t="s">
+        <v>578</v>
+      </c>
+      <c r="C293" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>579</v>
+      </c>
+      <c r="B294" t="s">
+        <v>580</v>
+      </c>
+      <c r="C294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>581</v>
+      </c>
+      <c r="B295" t="s">
+        <v>582</v>
+      </c>
+      <c r="C295" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>583</v>
+      </c>
+      <c r="B296" t="s">
+        <v>584</v>
+      </c>
+      <c r="C296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>585</v>
+      </c>
+      <c r="B297" t="s">
+        <v>586</v>
+      </c>
+      <c r="C297" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>588</v>
+      </c>
+      <c r="B298" t="s">
+        <v>4</v>
+      </c>
+      <c r="C298" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>589</v>
+      </c>
+      <c r="B299" t="s">
+        <v>590</v>
+      </c>
+      <c r="C299" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>591</v>
+      </c>
+      <c r="B300" t="s">
+        <v>4</v>
+      </c>
+      <c r="C300" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>592</v>
+      </c>
+      <c r="B301" t="s">
+        <v>593</v>
+      </c>
+      <c r="C301" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>594</v>
+      </c>
+      <c r="B302" t="s">
+        <v>4</v>
+      </c>
+      <c r="C302" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>595</v>
+      </c>
+      <c r="B303" t="s">
+        <v>596</v>
+      </c>
+      <c r="C303" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>597</v>
+      </c>
+      <c r="B304" t="s">
+        <v>4</v>
+      </c>
+      <c r="C304" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>598</v>
+      </c>
+      <c r="B305" t="s">
+        <v>599</v>
+      </c>
+      <c r="C305" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>600</v>
+      </c>
+      <c r="B306" t="s">
+        <v>4</v>
+      </c>
+      <c r="C306" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>601</v>
+      </c>
+      <c r="B307" t="s">
+        <v>602</v>
+      </c>
+      <c r="C307" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>603</v>
+      </c>
+      <c r="B308" t="s">
+        <v>4</v>
+      </c>
+      <c r="C308" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>604</v>
+      </c>
+      <c r="B309" t="s">
+        <v>605</v>
+      </c>
+      <c r="C309" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>606</v>
+      </c>
+      <c r="B310" t="s">
+        <v>4</v>
+      </c>
+      <c r="C310" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>607</v>
+      </c>
+      <c r="B311" t="s">
+        <v>608</v>
+      </c>
+      <c r="C311" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>609</v>
+      </c>
+      <c r="B312" t="s">
+        <v>4</v>
+      </c>
+      <c r="C312" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>610</v>
+      </c>
+      <c r="B313" t="s">
+        <v>611</v>
+      </c>
+      <c r="C313" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>612</v>
+      </c>
+      <c r="B314" t="s">
+        <v>4</v>
+      </c>
+      <c r="C314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>613</v>
+      </c>
+      <c r="B315" t="s">
+        <v>614</v>
+      </c>
+      <c r="C315" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>615</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>616</v>
+      </c>
+      <c r="B317" t="s">
+        <v>617</v>
+      </c>
+      <c r="C317" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>618</v>
+      </c>
+      <c r="B318" t="s">
+        <v>4</v>
+      </c>
+      <c r="C318" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>619</v>
+      </c>
+      <c r="B319" t="s">
+        <v>620</v>
+      </c>
+      <c r="C319" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>621</v>
+      </c>
+      <c r="B320" t="s">
+        <v>4</v>
+      </c>
+      <c r="C320" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>622</v>
+      </c>
+      <c r="B321" t="s">
+        <v>623</v>
+      </c>
+      <c r="C321" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>624</v>
+      </c>
+      <c r="B322" t="s">
+        <v>4</v>
+      </c>
+      <c r="C322" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>625</v>
+      </c>
+      <c r="B323" t="s">
+        <v>626</v>
+      </c>
+      <c r="C323" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>627</v>
+      </c>
+      <c r="B324" t="s">
+        <v>4</v>
+      </c>
+      <c r="C324" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>628</v>
+      </c>
+      <c r="B325" t="s">
+        <v>629</v>
+      </c>
+      <c r="C325" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>630</v>
+      </c>
+      <c r="B326" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>631</v>
+      </c>
+      <c r="B327" t="s">
+        <v>632</v>
+      </c>
+      <c r="C327" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>633</v>
+      </c>
+      <c r="B328" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>634</v>
+      </c>
+      <c r="B329" t="s">
+        <v>635</v>
+      </c>
+      <c r="C329" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>636</v>
+      </c>
+      <c r="B330" t="s">
+        <v>4</v>
+      </c>
+      <c r="C330" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>637</v>
+      </c>
+      <c r="B331" t="s">
+        <v>638</v>
+      </c>
+      <c r="C331" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>639</v>
+      </c>
+      <c r="B332" t="s">
+        <v>4</v>
+      </c>
+      <c r="C332" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>640</v>
+      </c>
+      <c r="B333" t="s">
+        <v>641</v>
+      </c>
+      <c r="C333" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>642</v>
+      </c>
+      <c r="B334" t="s">
+        <v>4</v>
+      </c>
+      <c r="C334" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>643</v>
+      </c>
+      <c r="B335" t="s">
+        <v>644</v>
+      </c>
+      <c r="C335" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>645</v>
+      </c>
+      <c r="B336" t="s">
+        <v>4</v>
+      </c>
+      <c r="C336" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>646</v>
+      </c>
+      <c r="B337" t="s">
+        <v>647</v>
+      </c>
+      <c r="C337" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>648</v>
+      </c>
+      <c r="B338" t="s">
+        <v>4</v>
+      </c>
+      <c r="C338" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>649</v>
+      </c>
+      <c r="B339" t="s">
+        <v>650</v>
+      </c>
+      <c r="C339" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>651</v>
+      </c>
+      <c r="B340" t="s">
+        <v>4</v>
+      </c>
+      <c r="C340" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>652</v>
+      </c>
+      <c r="B341" t="s">
+        <v>653</v>
+      </c>
+      <c r="C341" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>654</v>
+      </c>
+      <c r="B342" t="s">
+        <v>4</v>
+      </c>
+      <c r="C342" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>655</v>
+      </c>
+      <c r="B343" t="s">
+        <v>656</v>
+      </c>
+      <c r="C343" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>657</v>
+      </c>
+      <c r="B344" t="s">
+        <v>4</v>
+      </c>
+      <c r="C344" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>658</v>
+      </c>
+      <c r="B345" t="s">
+        <v>659</v>
+      </c>
+      <c r="C345" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>660</v>
+      </c>
+      <c r="B346" t="s">
+        <v>4</v>
+      </c>
+      <c r="C346" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>661</v>
+      </c>
+      <c r="B347" t="s">
+        <v>662</v>
+      </c>
+      <c r="C347" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>663</v>
+      </c>
+      <c r="B348" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>664</v>
+      </c>
+      <c r="B349" t="s">
+        <v>665</v>
+      </c>
+      <c r="C349" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>666</v>
+      </c>
+      <c r="B350" t="s">
+        <v>4</v>
+      </c>
+      <c r="C350" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>667</v>
+      </c>
+      <c r="B351" t="s">
+        <v>668</v>
+      </c>
+      <c r="C351" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>669</v>
+      </c>
+      <c r="B352" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>670</v>
+      </c>
+      <c r="B353" t="s">
+        <v>671</v>
+      </c>
+      <c r="C353" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>672</v>
+      </c>
+      <c r="B354" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>673</v>
+      </c>
+      <c r="B355" t="s">
+        <v>674</v>
+      </c>
+      <c r="C355" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>675</v>
+      </c>
+      <c r="B356" t="s">
+        <v>4</v>
+      </c>
+      <c r="C356" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>676</v>
+      </c>
+      <c r="B357" t="s">
+        <v>677</v>
+      </c>
+      <c r="C357" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>678</v>
+      </c>
+      <c r="B358" t="s">
+        <v>4</v>
+      </c>
+      <c r="C358" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>679</v>
+      </c>
+      <c r="B359" t="s">
+        <v>680</v>
+      </c>
+      <c r="C359" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>681</v>
+      </c>
+      <c r="B360" t="s">
+        <v>4</v>
+      </c>
+      <c r="C360" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>682</v>
+      </c>
+      <c r="B361" t="s">
+        <v>683</v>
+      </c>
+      <c r="C361" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>684</v>
+      </c>
+      <c r="B362" t="s">
+        <v>4</v>
+      </c>
+      <c r="C362" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>685</v>
+      </c>
+      <c r="B363" t="s">
+        <v>686</v>
+      </c>
+      <c r="C363" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>687</v>
+      </c>
+      <c r="B364" t="s">
+        <v>4</v>
+      </c>
+      <c r="C364" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>688</v>
+      </c>
+      <c r="B365" t="s">
+        <v>689</v>
+      </c>
+      <c r="C365" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>690</v>
+      </c>
+      <c r="B366" t="s">
+        <v>4</v>
+      </c>
+      <c r="C366" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>691</v>
+      </c>
+      <c r="B367" t="s">
+        <v>692</v>
+      </c>
+      <c r="C367" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>693</v>
+      </c>
+      <c r="B368" t="s">
+        <v>4</v>
+      </c>
+      <c r="C368" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>694</v>
+      </c>
+      <c r="B369" t="s">
+        <v>695</v>
+      </c>
+      <c r="C369" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>696</v>
+      </c>
+      <c r="B370" t="s">
+        <v>4</v>
+      </c>
+      <c r="C370" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>697</v>
+      </c>
+      <c r="B371" t="s">
+        <v>698</v>
+      </c>
+      <c r="C371" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>699</v>
+      </c>
+      <c r="B372" t="s">
+        <v>4</v>
+      </c>
+      <c r="C372" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>700</v>
+      </c>
+      <c r="B373" t="s">
+        <v>701</v>
+      </c>
+      <c r="C373" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>702</v>
+      </c>
+      <c r="B374" t="s">
+        <v>4</v>
+      </c>
+      <c r="C374" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>703</v>
+      </c>
+      <c r="B375" t="s">
+        <v>704</v>
+      </c>
+      <c r="C375" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>705</v>
+      </c>
+      <c r="B376" t="s">
+        <v>4</v>
+      </c>
+      <c r="C376" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>706</v>
+      </c>
+      <c r="B377" t="s">
+        <v>707</v>
+      </c>
+      <c r="C377" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>708</v>
+      </c>
+      <c r="B378" t="s">
+        <v>4</v>
+      </c>
+      <c r="C378" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>709</v>
+      </c>
+      <c r="B379" t="s">
+        <v>710</v>
+      </c>
+      <c r="C379" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>711</v>
+      </c>
+      <c r="B380" t="s">
+        <v>4</v>
+      </c>
+      <c r="C380" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>712</v>
+      </c>
+      <c r="B381" t="s">
+        <v>713</v>
+      </c>
+      <c r="C381" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>714</v>
+      </c>
+      <c r="B382" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>715</v>
+      </c>
+      <c r="B383" t="s">
+        <v>716</v>
+      </c>
+      <c r="C383" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>717</v>
+      </c>
+      <c r="B384" t="s">
+        <v>4</v>
+      </c>
+      <c r="C384" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>718</v>
+      </c>
+      <c r="B385" t="s">
+        <v>719</v>
+      </c>
+      <c r="C385" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>720</v>
+      </c>
+      <c r="B386" t="s">
+        <v>4</v>
+      </c>
+      <c r="C386" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>721</v>
+      </c>
+      <c r="B387" t="s">
+        <v>719</v>
+      </c>
+      <c r="C387" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>722</v>
+      </c>
+      <c r="B388" t="s">
+        <v>4</v>
+      </c>
+      <c r="C388" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>723</v>
+      </c>
+      <c r="B389" t="s">
+        <v>724</v>
+      </c>
+      <c r="C389" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>725</v>
+      </c>
+      <c r="B390" t="s">
+        <v>4</v>
+      </c>
+      <c r="C390" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>726</v>
+      </c>
+      <c r="B391" t="s">
+        <v>727</v>
+      </c>
+      <c r="C391" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>728</v>
+      </c>
+      <c r="B392" t="s">
+        <v>4</v>
+      </c>
+      <c r="C392" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>729</v>
+      </c>
+      <c r="B393" t="s">
+        <v>730</v>
+      </c>
+      <c r="C393" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>731</v>
+      </c>
+      <c r="B394" t="s">
+        <v>4</v>
+      </c>
+      <c r="C394" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>732</v>
+      </c>
+      <c r="B395" t="s">
+        <v>733</v>
+      </c>
+      <c r="C395" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>734</v>
+      </c>
+      <c r="B396" t="s">
+        <v>4</v>
+      </c>
+      <c r="C396" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>735</v>
+      </c>
+      <c r="B397" t="s">
+        <v>736</v>
+      </c>
+      <c r="C397" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>737</v>
+      </c>
+      <c r="B398" t="s">
+        <v>4</v>
+      </c>
+      <c r="C398" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>738</v>
+      </c>
+      <c r="B399" t="s">
+        <v>739</v>
+      </c>
+      <c r="C399" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>740</v>
+      </c>
+      <c r="B400" t="s">
+        <v>4</v>
+      </c>
+      <c r="C400" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>741</v>
+      </c>
+      <c r="B401" t="s">
+        <v>742</v>
+      </c>
+      <c r="C401" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>743</v>
+      </c>
+      <c r="B402" t="s">
+        <v>4</v>
+      </c>
+      <c r="C402" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>744</v>
+      </c>
+      <c r="B403" t="s">
+        <v>745</v>
+      </c>
+      <c r="C403" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="262">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -22,13 +22,781 @@
     <t>Status</t>
   </si>
   <si>
-    <t>QA-T2783</t>
-  </si>
-  <si>
-    <t>@RegressionA Validation of Assess App URL iAU_TC_ID_01</t>
+    <t>AL_001</t>
+  </si>
+  <si>
+    <t>@API Admin Login Success with Mandatory Fields</t>
   </si>
   <si>
     <t>passed</t>
+  </si>
+  <si>
+    <t>Admin_626</t>
+  </si>
+  <si>
+    <t>@API Admin add the Specilaity-Save information</t>
+  </si>
+  <si>
+    <t>Admin_627</t>
+  </si>
+  <si>
+    <t>@API Admin add the  Specilaity-Save _validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_628</t>
+  </si>
+  <si>
+    <t>@API Admin add the Specilaity-Save _validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_647</t>
+  </si>
+  <si>
+    <t>@API Admin add the Specilaity search information</t>
+  </si>
+  <si>
+    <t>Admin_648</t>
+  </si>
+  <si>
+    <t>@API Admin add the Specilaity search _validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_649</t>
+  </si>
+  <si>
+    <t>@API Admin add the Specilaity search _validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_662</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the duplicate-specialty  -information</t>
+  </si>
+  <si>
+    <t>Admin_663</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for duplicate-specialty  information.</t>
+  </si>
+  <si>
+    <t>Admin_664</t>
+  </si>
+  <si>
+    <t>@API Access token validation for duplicate-specialty _information.</t>
+  </si>
+  <si>
+    <t>Admin_637</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the Specilaity-edit-form  information</t>
+  </si>
+  <si>
+    <t>Admin_638</t>
+  </si>
+  <si>
+    <t>@API Admin add the Specilaity-edit-update _validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_639</t>
+  </si>
+  <si>
+    <t>@API Admin add the Specilaity-edit-update _validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_666</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the delete-specialty-role</t>
+  </si>
+  <si>
+    <t>Admin_667</t>
+  </si>
+  <si>
+    <t>@API Admin delete-specilaity_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@API Endpoint validation for delete-specialty </t>
+  </si>
+  <si>
+    <t>Admin_629</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the specialty-form-information</t>
+  </si>
+  <si>
+    <t>Admin_630</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for specialty-form   information.</t>
+  </si>
+  <si>
+    <t>Admin_631</t>
+  </si>
+  <si>
+    <t>@API Access token validation for specialty-form _information.</t>
+  </si>
+  <si>
+    <t>Admin_633</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the specialty-edit-form-information</t>
+  </si>
+  <si>
+    <t>Admin_634</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for specialty-edit-form  information.</t>
+  </si>
+  <si>
+    <t>Admin_635</t>
+  </si>
+  <si>
+    <t>@API Access token validation for specialty-edit-form_information.</t>
+  </si>
+  <si>
+    <t>Admin_636</t>
+  </si>
+  <si>
+    <t>@API Admin specialty-edit-form-Header field validation - invalid.</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>AL_001an</t>
+  </si>
+  <si>
+    <t>Admin_632</t>
+  </si>
+  <si>
+    <t>@API Admin specialty-form-Header field validation - invalid.</t>
+  </si>
+  <si>
+    <t>AL_001a</t>
+  </si>
+  <si>
+    <t>Admin_665</t>
+  </si>
+  <si>
+    <t>@API Admin duplicate-specialty-Header field validation - invalid.</t>
+  </si>
+  <si>
+    <t>AL_001aw</t>
+  </si>
+  <si>
+    <t>Admin_640</t>
+  </si>
+  <si>
+    <t>@API Admin create the specialty-list  information</t>
+  </si>
+  <si>
+    <t>Admin_641</t>
+  </si>
+  <si>
+    <t>@API Admin add  the specialty-list  of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_642</t>
+  </si>
+  <si>
+    <t>@API Admin add the specialty-list   of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_643</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the specialty-filter -information</t>
+  </si>
+  <si>
+    <t>Admin_644</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for specialty-filter  information.</t>
+  </si>
+  <si>
+    <t>Admin_645</t>
+  </si>
+  <si>
+    <t>@API Access token validation for specialty-filter_information.</t>
+  </si>
+  <si>
+    <t>Admin_646</t>
+  </si>
+  <si>
+    <t>@API Admin specialty-filter-Header field validation - invalid.</t>
+  </si>
+  <si>
+    <t>AL_001ax</t>
+  </si>
+  <si>
+    <t>Admin_650</t>
+  </si>
+  <si>
+    <t>@API Admin create the specialty-list-filter-search  information</t>
+  </si>
+  <si>
+    <t>Admin_651</t>
+  </si>
+  <si>
+    <t>@API Admin add  the specialty-list-filter-search  of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_652</t>
+  </si>
+  <si>
+    <t>@API Admin add the specialty-list-filter-search  of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_653</t>
+  </si>
+  <si>
+    <t>@API Admin create the specialty-custom-filter-save  information</t>
+  </si>
+  <si>
+    <t>Admin_654</t>
+  </si>
+  <si>
+    <t>@API Admin add  the specialty-custom-filter-save  of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_655</t>
+  </si>
+  <si>
+    <t>@API Admin add the specialty-custom-filter-save  of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_656</t>
+  </si>
+  <si>
+    <t>@API Admin create the specialty-list-field-cloumn-hide and show  information</t>
+  </si>
+  <si>
+    <t>Admin_657</t>
+  </si>
+  <si>
+    <t>@API Admin add  the specialty-list-field-cloumn-hide and show  of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_658</t>
+  </si>
+  <si>
+    <t>@API Admin add the specialty-list-field-cloumn-hide and show  of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_659</t>
+  </si>
+  <si>
+    <t>@API Admin create the specialty-pagination  information</t>
+  </si>
+  <si>
+    <t>Admin_660</t>
+  </si>
+  <si>
+    <t>@API Admin add  the specialty-pagination  of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_661</t>
+  </si>
+  <si>
+    <t>@API Admin add the specialty-pagination of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_715</t>
+  </si>
+  <si>
+    <t>@API Admin add the notificationemail-save information</t>
+  </si>
+  <si>
+    <t>Admin_716</t>
+  </si>
+  <si>
+    <t>@API Admin add the  notificationemail-save _validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_717</t>
+  </si>
+  <si>
+    <t>@API Admin add the notificationemail-save_validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_732</t>
+  </si>
+  <si>
+    <t>@API Admin add the  notification_emails-search information</t>
+  </si>
+  <si>
+    <t>Admin_733</t>
+  </si>
+  <si>
+    <t>@API Admin add the  notification_emails-search_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin_734 </t>
+  </si>
+  <si>
+    <t>@API Admin add the  notification_emails-search _validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_744</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the notification-email-list-status-update-information</t>
+  </si>
+  <si>
+    <t>Admin_745</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for notification-email-list-status-update  information.</t>
+  </si>
+  <si>
+    <t>Admin_746</t>
+  </si>
+  <si>
+    <t>@API Access token validation for notification-email-list-status-update _information.</t>
+  </si>
+  <si>
+    <t>Admin_722</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the notification-email-update  information</t>
+  </si>
+  <si>
+    <t>Admin_723</t>
+  </si>
+  <si>
+    <t>@API Admin add the notification-email-update _validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_724</t>
+  </si>
+  <si>
+    <t>@API Admin add the notification-email-update_validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_748</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the delete-notification-emai-role</t>
+  </si>
+  <si>
+    <t>Admin_749</t>
+  </si>
+  <si>
+    <t>@API Admin delete-notification-emai_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@API Endpoint validation for delete-notification-emai </t>
+  </si>
+  <si>
+    <t>Admin_711</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the notificationemail-form-information</t>
+  </si>
+  <si>
+    <t>Admin_712</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for notificationemail-form  information.</t>
+  </si>
+  <si>
+    <t>Admin_713</t>
+  </si>
+  <si>
+    <t>@API Access token validation for notificationemail-form _information.</t>
+  </si>
+  <si>
+    <t>Admin_718</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the notification-email-edit-form-information</t>
+  </si>
+  <si>
+    <t>Admin_719</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for notification-email-edit-form  information.</t>
+  </si>
+  <si>
+    <t>Admin_720</t>
+  </si>
+  <si>
+    <t>@API Access token validation for notification-email-edit-form_information.</t>
+  </si>
+  <si>
+    <t>Admin_721</t>
+  </si>
+  <si>
+    <t>@API Admin notification-email-edit-form-Header field validation - invalid.</t>
+  </si>
+  <si>
+    <t>AL_001ac</t>
+  </si>
+  <si>
+    <t>Admin_714</t>
+  </si>
+  <si>
+    <t>@API Admin notificationemail-form-Header field validation - invalid.</t>
+  </si>
+  <si>
+    <t>AL_001av</t>
+  </si>
+  <si>
+    <t>Admin_747</t>
+  </si>
+  <si>
+    <t>@API Admin notification-email-list-status-update-Header field validation - invalid.</t>
+  </si>
+  <si>
+    <t>AL_001as</t>
+  </si>
+  <si>
+    <t>Admin_725</t>
+  </si>
+  <si>
+    <t>@API Admin create the notification_emails-list information</t>
+  </si>
+  <si>
+    <t>Admin_726</t>
+  </si>
+  <si>
+    <t>@API Admin add  the notification_emails-list  of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_727</t>
+  </si>
+  <si>
+    <t>@API Admin add the notification_emails-list   of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_728</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the notification-email-filter-information</t>
+  </si>
+  <si>
+    <t>Admin_729</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for notification-email-filter  information.</t>
+  </si>
+  <si>
+    <t>Admin_730</t>
+  </si>
+  <si>
+    <t>@API Access token validation for notification-email-filter_information.</t>
+  </si>
+  <si>
+    <t>Admin_731</t>
+  </si>
+  <si>
+    <t>@API Admin notification-email-filter-Header field validation - invalid.</t>
+  </si>
+  <si>
+    <t>AL_001ak</t>
+  </si>
+  <si>
+    <t>Admin_735</t>
+  </si>
+  <si>
+    <t>@API Admin create the  notification_emails-filter-search  information</t>
+  </si>
+  <si>
+    <t>Admin_736</t>
+  </si>
+  <si>
+    <t>@API Admin add  the  notification_emails-filter-search  of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_737</t>
+  </si>
+  <si>
+    <t>@API Admin add the  notification_emails-filter-search  of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_738</t>
+  </si>
+  <si>
+    <t>@API Admin create the notification custom-filter-save public or private information</t>
+  </si>
+  <si>
+    <t>Admin_739</t>
+  </si>
+  <si>
+    <t>@API Admin add  the notification- custom-filter-save public or private  of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_740</t>
+  </si>
+  <si>
+    <t>@API Admin add the notification- custom-filter-save public or private  of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_741</t>
+  </si>
+  <si>
+    <t>@API Admin create the notification-list-field-cloumn-hide and show  information</t>
+  </si>
+  <si>
+    <t>Admin_742</t>
+  </si>
+  <si>
+    <t>@API Admin add  the notification-list-field-cloumn-hide and show  of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_743</t>
+  </si>
+  <si>
+    <t>@API Admin add the notification-list-field-cloumn-hide and show  of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_669</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the xlsx file download  information</t>
+  </si>
+  <si>
+    <t>Admin_670</t>
+  </si>
+  <si>
+    <t>@API  Admin verify  the xlsx file download  of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_671</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the xlsx file download of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_672</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the csv-file-download format  information</t>
+  </si>
+  <si>
+    <t>Admin_673</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the csv-file-download   of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_674</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the csv-file-download  of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_675</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the exam-statistics-form  information</t>
+  </si>
+  <si>
+    <t>Admin_676</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the exam-statistics-form   of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_677</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the exam-statistics-form  of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_678</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the exam-import-statistics-save  information</t>
+  </si>
+  <si>
+    <t>Admin_679</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the exam-import-statistics-save  of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_680</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the exam-import-statistics-save of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_681</t>
+  </si>
+  <si>
+    <t>Admin_682</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the xlsx file download   of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_683</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the xlsx file download   of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_684</t>
+  </si>
+  <si>
+    <t>Admin_685</t>
+  </si>
+  <si>
+    <t>Admin_686</t>
+  </si>
+  <si>
+    <t>Admin_687</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the import-module-type-forms  information</t>
+  </si>
+  <si>
+    <t>Admin_688</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the import-module-type-forms  of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_689</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the import-module-type-forms  of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_690</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the Question-import-statistics-save  information</t>
+  </si>
+  <si>
+    <t>Admin_691</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the Question-import-statistics-save  of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_692</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the Question-import-statistics-save of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_697</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the exam-export-download format  information</t>
+  </si>
+  <si>
+    <t>Admin_698</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the exam-export-download   of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_699</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the exam-export-download of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_704</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the export-questions-download  information</t>
+  </si>
+  <si>
+    <t>Admin_705</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the export-questions-download   of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_706</t>
+  </si>
+  <si>
+    <t>@API Admin verify  the export-questions-download of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_693</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the question_import-success -information</t>
+  </si>
+  <si>
+    <t>Admin_694</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for question_import-success  information.</t>
+  </si>
+  <si>
+    <t>Admin_695</t>
+  </si>
+  <si>
+    <t>@API Access token validation for question_import-success _information.</t>
+  </si>
+  <si>
+    <t>Admin_700</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the export-questions-form -information</t>
+  </si>
+  <si>
+    <t>Admin_701</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for export-questions-form   information.</t>
+  </si>
+  <si>
+    <t>Admin_702</t>
+  </si>
+  <si>
+    <t>@API Access token validation for export-questions-form _information.</t>
+  </si>
+  <si>
+    <t>Admin_707 @API Admin fetch the export-exams-form-information</t>
+  </si>
+  <si>
+    <t>Admin_708</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for export-exams-form    information.</t>
+  </si>
+  <si>
+    <t>Admin_709</t>
+  </si>
+  <si>
+    <t>@API Access token validation for export-exams-form   _information.</t>
+  </si>
+  <si>
+    <t>Admin_710</t>
+  </si>
+  <si>
+    <t>@API Admin export-exams-form-Header field validation - invalid.</t>
+  </si>
+  <si>
+    <t>AL_001aok</t>
+  </si>
+  <si>
+    <t>Admin_703</t>
+  </si>
+  <si>
+    <t>@API Admin export-questions-form -Header field validation - invalid.</t>
+  </si>
+  <si>
+    <t>AL_001alk</t>
+  </si>
+  <si>
+    <t>Admin_696</t>
+  </si>
+  <si>
+    <t>@API Admin question_import-success -Header field validation - invalid.</t>
   </si>
 </sst>
 </file>
@@ -405,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C137"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -430,6 +1198,1488 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>173</v>
+      </c>
+      <c r="B90" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>175</v>
+      </c>
+      <c r="B91" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>177</v>
+      </c>
+      <c r="B92" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94" t="s">
+        <v>182</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96" t="s">
+        <v>186</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>187</v>
+      </c>
+      <c r="B97" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>191</v>
+      </c>
+      <c r="B99" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>193</v>
+      </c>
+      <c r="B100" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>197</v>
+      </c>
+      <c r="B102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>199</v>
+      </c>
+      <c r="B103" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" t="s">
+        <v>204</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" t="s">
+        <v>182</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" t="s">
+        <v>207</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>208</v>
+      </c>
+      <c r="B108" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" t="s">
+        <v>188</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110" t="s">
+        <v>190</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>212</v>
+      </c>
+      <c r="B111" t="s">
+        <v>192</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>213</v>
+      </c>
+      <c r="B112" t="s">
+        <v>214</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>215</v>
+      </c>
+      <c r="B113" t="s">
+        <v>216</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>217</v>
+      </c>
+      <c r="B114" t="s">
+        <v>218</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>219</v>
+      </c>
+      <c r="B115" t="s">
+        <v>220</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>221</v>
+      </c>
+      <c r="B116" t="s">
+        <v>222</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>223</v>
+      </c>
+      <c r="B117" t="s">
+        <v>224</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>225</v>
+      </c>
+      <c r="B118" t="s">
+        <v>226</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>227</v>
+      </c>
+      <c r="B119" t="s">
+        <v>228</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>229</v>
+      </c>
+      <c r="B120" t="s">
+        <v>230</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>231</v>
+      </c>
+      <c r="B121" t="s">
+        <v>232</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>233</v>
+      </c>
+      <c r="B122" t="s">
+        <v>234</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>235</v>
+      </c>
+      <c r="B123" t="s">
+        <v>236</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>237</v>
+      </c>
+      <c r="B124" t="s">
+        <v>238</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>239</v>
+      </c>
+      <c r="B125" t="s">
+        <v>240</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>241</v>
+      </c>
+      <c r="B126" t="s">
+        <v>242</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>243</v>
+      </c>
+      <c r="B127" t="s">
+        <v>244</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>245</v>
+      </c>
+      <c r="B128" t="s">
+        <v>246</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>247</v>
+      </c>
+      <c r="B129" t="s">
+        <v>248</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>249</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>250</v>
+      </c>
+      <c r="B131" t="s">
+        <v>251</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>252</v>
+      </c>
+      <c r="B132" t="s">
+        <v>253</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>254</v>
+      </c>
+      <c r="B133" t="s">
+        <v>255</v>
+      </c>
+      <c r="C133" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>256</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>257</v>
+      </c>
+      <c r="B135" t="s">
+        <v>258</v>
+      </c>
+      <c r="C135" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>259</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>260</v>
+      </c>
+      <c r="B137" t="s">
+        <v>261</v>
+      </c>
+      <c r="C137" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="476">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -31,772 +31,1414 @@
     <t>passed</t>
   </si>
   <si>
-    <t>Admin_626</t>
-  </si>
-  <si>
-    <t>@API Admin add the Specilaity-Save information</t>
-  </si>
-  <si>
-    <t>Admin_627</t>
-  </si>
-  <si>
-    <t>@API Admin add the  Specilaity-Save _validation of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_628</t>
-  </si>
-  <si>
-    <t>@API Admin add the Specilaity-Save _validation of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_647</t>
-  </si>
-  <si>
-    <t>@API Admin add the Specilaity search information</t>
-  </si>
-  <si>
-    <t>Admin_648</t>
-  </si>
-  <si>
-    <t>@API Admin add the Specilaity search _validation of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_649</t>
-  </si>
-  <si>
-    <t>@API Admin add the Specilaity search _validation of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_662</t>
-  </si>
-  <si>
-    <t>@API Admin fetch the duplicate-specialty  -information</t>
-  </si>
-  <si>
-    <t>Admin_663</t>
-  </si>
-  <si>
-    <t>@API Endpoint validation for duplicate-specialty  information.</t>
-  </si>
-  <si>
-    <t>Admin_664</t>
-  </si>
-  <si>
-    <t>@API Access token validation for duplicate-specialty _information.</t>
-  </si>
-  <si>
-    <t>Admin_637</t>
-  </si>
-  <si>
-    <t>@API Admin fetch the Specilaity-edit-form  information</t>
-  </si>
-  <si>
-    <t>Admin_638</t>
-  </si>
-  <si>
-    <t>@API Admin add the Specilaity-edit-update _validation of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_639</t>
-  </si>
-  <si>
-    <t>@API Admin add the Specilaity-edit-update _validation of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_666</t>
-  </si>
-  <si>
-    <t>@API Admin fetch the delete-specialty-role</t>
-  </si>
-  <si>
-    <t>Admin_667</t>
-  </si>
-  <si>
-    <t>@API Admin delete-specilaity_validation of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@API Endpoint validation for delete-specialty </t>
-  </si>
-  <si>
-    <t>Admin_629</t>
-  </si>
-  <si>
-    <t>@API Admin fetch the specialty-form-information</t>
-  </si>
-  <si>
-    <t>Admin_630</t>
-  </si>
-  <si>
-    <t>@API Endpoint validation for specialty-form   information.</t>
-  </si>
-  <si>
-    <t>Admin_631</t>
-  </si>
-  <si>
-    <t>@API Access token validation for specialty-form _information.</t>
-  </si>
-  <si>
-    <t>Admin_633</t>
-  </si>
-  <si>
-    <t>@API Admin fetch the specialty-edit-form-information</t>
-  </si>
-  <si>
-    <t>Admin_634</t>
-  </si>
-  <si>
-    <t>@API Endpoint validation for specialty-edit-form  information.</t>
-  </si>
-  <si>
-    <t>Admin_635</t>
-  </si>
-  <si>
-    <t>@API Access token validation for specialty-edit-form_information.</t>
-  </si>
-  <si>
-    <t>Admin_636</t>
-  </si>
-  <si>
-    <t>@API Admin specialty-edit-form-Header field validation - invalid.</t>
+    <t>Admin_785</t>
+  </si>
+  <si>
+    <t>@API Admin add the Venue-Save information</t>
+  </si>
+  <si>
+    <t>Admin_786</t>
+  </si>
+  <si>
+    <t>@API Admin add the  Venue-Save _validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_787</t>
+  </si>
+  <si>
+    <t>@API Admin add the Venue-Save _validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_758</t>
+  </si>
+  <si>
+    <t>@API Admin add the Venue search information</t>
+  </si>
+  <si>
+    <t>Admin_759</t>
+  </si>
+  <si>
+    <t>@API Admin add the Venue search _validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_760</t>
+  </si>
+  <si>
+    <t>@API Admin add the Venue search _validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_792</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the Venue-edit-form  information</t>
+  </si>
+  <si>
+    <t>Admin_793</t>
+  </si>
+  <si>
+    <t>@API Admin add the venue-edit-update _validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_794</t>
+  </si>
+  <si>
+    <t>@API Admin add the Venue-edit-update _validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_773</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the duplicate-venue information</t>
+  </si>
+  <si>
+    <t>Admin_774</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for duplicate-venue  information</t>
+  </si>
+  <si>
+    <t>Admin_775</t>
+  </si>
+  <si>
+    <t>@API Access token validation for duplicate-venue_information</t>
+  </si>
+  <si>
+    <t>Admin_777</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the deactivate-Venue-information</t>
+  </si>
+  <si>
+    <t>Admin_778</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for -deactivate-venue information</t>
+  </si>
+  <si>
+    <t>Admin_779</t>
+  </si>
+  <si>
+    <t>@API Access token validation for deactivate-venue_information</t>
+  </si>
+  <si>
+    <t>Admin_780</t>
+  </si>
+  <si>
+    <t>@API Admin deactivate-Venue-Header field validation - invalid</t>
   </si>
   <si>
     <t>failed</t>
   </si>
   <si>
-    <t>AL_001an</t>
-  </si>
-  <si>
-    <t>Admin_632</t>
-  </si>
-  <si>
-    <t>@API Admin specialty-form-Header field validation - invalid.</t>
-  </si>
-  <si>
-    <t>AL_001a</t>
-  </si>
-  <si>
-    <t>Admin_665</t>
-  </si>
-  <si>
-    <t>@API Admin duplicate-specialty-Header field validation - invalid.</t>
-  </si>
-  <si>
-    <t>AL_001aw</t>
-  </si>
-  <si>
-    <t>Admin_640</t>
-  </si>
-  <si>
-    <t>@API Admin create the specialty-list  information</t>
-  </si>
-  <si>
-    <t>Admin_641</t>
-  </si>
-  <si>
-    <t>@API Admin add  the specialty-list  of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_642</t>
-  </si>
-  <si>
-    <t>@API Admin add the specialty-list   of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_643</t>
-  </si>
-  <si>
-    <t>@API Admin fetch the specialty-filter -information</t>
-  </si>
-  <si>
-    <t>Admin_644</t>
-  </si>
-  <si>
-    <t>@API Endpoint validation for specialty-filter  information.</t>
-  </si>
-  <si>
-    <t>Admin_645</t>
-  </si>
-  <si>
-    <t>@API Access token validation for specialty-filter_information.</t>
-  </si>
-  <si>
-    <t>Admin_646</t>
-  </si>
-  <si>
-    <t>@API Admin specialty-filter-Header field validation - invalid.</t>
-  </si>
-  <si>
-    <t>AL_001ax</t>
-  </si>
-  <si>
-    <t>Admin_650</t>
-  </si>
-  <si>
-    <t>@API Admin create the specialty-list-filter-search  information</t>
-  </si>
-  <si>
-    <t>Admin_651</t>
-  </si>
-  <si>
-    <t>@API Admin add  the specialty-list-filter-search  of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_652</t>
-  </si>
-  <si>
-    <t>@API Admin add the specialty-list-filter-search  of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_653</t>
-  </si>
-  <si>
-    <t>@API Admin create the specialty-custom-filter-save  information</t>
-  </si>
-  <si>
-    <t>Admin_654</t>
-  </si>
-  <si>
-    <t>@API Admin add  the specialty-custom-filter-save  of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_655</t>
-  </si>
-  <si>
-    <t>@API Admin add the specialty-custom-filter-save  of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_656</t>
-  </si>
-  <si>
-    <t>@API Admin create the specialty-list-field-cloumn-hide and show  information</t>
-  </si>
-  <si>
-    <t>Admin_657</t>
-  </si>
-  <si>
-    <t>@API Admin add  the specialty-list-field-cloumn-hide and show  of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_658</t>
-  </si>
-  <si>
-    <t>@API Admin add the specialty-list-field-cloumn-hide and show  of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_659</t>
-  </si>
-  <si>
-    <t>@API Admin create the specialty-pagination  information</t>
-  </si>
-  <si>
-    <t>Admin_660</t>
-  </si>
-  <si>
-    <t>@API Admin add  the specialty-pagination  of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_661</t>
-  </si>
-  <si>
-    <t>@API Admin add the specialty-pagination of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_715</t>
-  </si>
-  <si>
-    <t>@API Admin add the notificationemail-save information</t>
-  </si>
-  <si>
-    <t>Admin_716</t>
-  </si>
-  <si>
-    <t>@API Admin add the  notificationemail-save _validation of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_717</t>
-  </si>
-  <si>
-    <t>@API Admin add the notificationemail-save_validation of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_732</t>
-  </si>
-  <si>
-    <t>@API Admin add the  notification_emails-search information</t>
-  </si>
-  <si>
-    <t>Admin_733</t>
-  </si>
-  <si>
-    <t>@API Admin add the  notification_emails-search_validation of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin_734 </t>
-  </si>
-  <si>
-    <t>@API Admin add the  notification_emails-search _validation of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_744</t>
-  </si>
-  <si>
-    <t>@API Admin fetch the notification-email-list-status-update-information</t>
-  </si>
-  <si>
-    <t>Admin_745</t>
-  </si>
-  <si>
-    <t>@API Endpoint validation for notification-email-list-status-update  information.</t>
-  </si>
-  <si>
-    <t>Admin_746</t>
-  </si>
-  <si>
-    <t>@API Access token validation for notification-email-list-status-update _information.</t>
-  </si>
-  <si>
-    <t>Admin_722</t>
-  </si>
-  <si>
-    <t>@API Admin fetch the notification-email-update  information</t>
-  </si>
-  <si>
-    <t>Admin_723</t>
-  </si>
-  <si>
-    <t>@API Admin add the notification-email-update _validation of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_724</t>
-  </si>
-  <si>
-    <t>@API Admin add the notification-email-update_validation of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_748</t>
-  </si>
-  <si>
-    <t>@API Admin fetch the delete-notification-emai-role</t>
-  </si>
-  <si>
-    <t>Admin_749</t>
-  </si>
-  <si>
-    <t>@API Admin delete-notification-emai_validation of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@API Endpoint validation for delete-notification-emai </t>
-  </si>
-  <si>
-    <t>Admin_711</t>
-  </si>
-  <si>
-    <t>@API Admin fetch the notificationemail-form-information</t>
-  </si>
-  <si>
-    <t>Admin_712</t>
-  </si>
-  <si>
-    <t>@API Endpoint validation for notificationemail-form  information.</t>
-  </si>
-  <si>
-    <t>Admin_713</t>
-  </si>
-  <si>
-    <t>@API Access token validation for notificationemail-form _information.</t>
-  </si>
-  <si>
-    <t>Admin_718</t>
-  </si>
-  <si>
-    <t>@API Admin fetch the notification-email-edit-form-information</t>
-  </si>
-  <si>
-    <t>Admin_719</t>
-  </si>
-  <si>
-    <t>@API Endpoint validation for notification-email-edit-form  information.</t>
-  </si>
-  <si>
-    <t>Admin_720</t>
-  </si>
-  <si>
-    <t>@API Access token validation for notification-email-edit-form_information.</t>
-  </si>
-  <si>
-    <t>Admin_721</t>
-  </si>
-  <si>
-    <t>@API Admin notification-email-edit-form-Header field validation - invalid.</t>
-  </si>
-  <si>
-    <t>AL_001ac</t>
-  </si>
-  <si>
-    <t>Admin_714</t>
-  </si>
-  <si>
-    <t>@API Admin notificationemail-form-Header field validation - invalid.</t>
-  </si>
-  <si>
-    <t>AL_001av</t>
-  </si>
-  <si>
-    <t>Admin_747</t>
-  </si>
-  <si>
-    <t>@API Admin notification-email-list-status-update-Header field validation - invalid.</t>
-  </si>
-  <si>
-    <t>AL_001as</t>
-  </si>
-  <si>
-    <t>Admin_725</t>
-  </si>
-  <si>
-    <t>@API Admin create the notification_emails-list information</t>
-  </si>
-  <si>
-    <t>Admin_726</t>
-  </si>
-  <si>
-    <t>@API Admin add  the notification_emails-list  of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_727</t>
-  </si>
-  <si>
-    <t>@API Admin add the notification_emails-list   of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_728</t>
-  </si>
-  <si>
-    <t>@API Admin fetch the notification-email-filter-information</t>
-  </si>
-  <si>
-    <t>Admin_729</t>
-  </si>
-  <si>
-    <t>@API Endpoint validation for notification-email-filter  information.</t>
-  </si>
-  <si>
-    <t>Admin_730</t>
-  </si>
-  <si>
-    <t>@API Access token validation for notification-email-filter_information.</t>
-  </si>
-  <si>
-    <t>Admin_731</t>
-  </si>
-  <si>
-    <t>@API Admin notification-email-filter-Header field validation - invalid.</t>
-  </si>
-  <si>
-    <t>AL_001ak</t>
-  </si>
-  <si>
-    <t>Admin_735</t>
-  </si>
-  <si>
-    <t>@API Admin create the  notification_emails-filter-search  information</t>
-  </si>
-  <si>
-    <t>Admin_736</t>
-  </si>
-  <si>
-    <t>@API Admin add  the  notification_emails-filter-search  of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_737</t>
-  </si>
-  <si>
-    <t>@API Admin add the  notification_emails-filter-search  of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_738</t>
-  </si>
-  <si>
-    <t>@API Admin create the notification custom-filter-save public or private information</t>
-  </si>
-  <si>
-    <t>Admin_739</t>
-  </si>
-  <si>
-    <t>@API Admin add  the notification- custom-filter-save public or private  of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_740</t>
-  </si>
-  <si>
-    <t>@API Admin add the notification- custom-filter-save public or private  of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_741</t>
-  </si>
-  <si>
-    <t>@API Admin create the notification-list-field-cloumn-hide and show  information</t>
-  </si>
-  <si>
-    <t>Admin_742</t>
-  </si>
-  <si>
-    <t>@API Admin add  the notification-list-field-cloumn-hide and show  of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_743</t>
-  </si>
-  <si>
-    <t>@API Admin add the notification-list-field-cloumn-hide and show  of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_669</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the xlsx file download  information</t>
-  </si>
-  <si>
-    <t>Admin_670</t>
-  </si>
-  <si>
-    <t>@API  Admin verify  the xlsx file download  of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_671</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the xlsx file download of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_672</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the csv-file-download format  information</t>
-  </si>
-  <si>
-    <t>Admin_673</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the csv-file-download   of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_674</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the csv-file-download  of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_675</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the exam-statistics-form  information</t>
-  </si>
-  <si>
-    <t>Admin_676</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the exam-statistics-form   of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_677</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the exam-statistics-form  of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_678</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the exam-import-statistics-save  information</t>
-  </si>
-  <si>
-    <t>Admin_679</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the exam-import-statistics-save  of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_680</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the exam-import-statistics-save of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_681</t>
-  </si>
-  <si>
-    <t>Admin_682</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the xlsx file download   of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_683</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the xlsx file download   of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_684</t>
-  </si>
-  <si>
-    <t>Admin_685</t>
-  </si>
-  <si>
-    <t>Admin_686</t>
-  </si>
-  <si>
-    <t>Admin_687</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the import-module-type-forms  information</t>
-  </si>
-  <si>
-    <t>Admin_688</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the import-module-type-forms  of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_689</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the import-module-type-forms  of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_690</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the Question-import-statistics-save  information</t>
-  </si>
-  <si>
-    <t>Admin_691</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the Question-import-statistics-save  of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_692</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the Question-import-statistics-save of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_697</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the exam-export-download format  information</t>
-  </si>
-  <si>
-    <t>Admin_698</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the exam-export-download   of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_699</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the exam-export-download of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_704</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the export-questions-download  information</t>
-  </si>
-  <si>
-    <t>Admin_705</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the export-questions-download   of incorrect HTTP method</t>
-  </si>
-  <si>
-    <t>Admin_706</t>
-  </si>
-  <si>
-    <t>@API Admin verify  the export-questions-download of invalid endpoint</t>
-  </si>
-  <si>
-    <t>Admin_693</t>
-  </si>
-  <si>
-    <t>@API Admin fetch the question_import-success -information</t>
-  </si>
-  <si>
-    <t>Admin_694</t>
-  </si>
-  <si>
-    <t>@API Endpoint validation for question_import-success  information.</t>
-  </si>
-  <si>
-    <t>Admin_695</t>
-  </si>
-  <si>
-    <t>@API Access token validation for question_import-success _information.</t>
-  </si>
-  <si>
-    <t>Admin_700</t>
-  </si>
-  <si>
-    <t>@API Admin fetch the export-questions-form -information</t>
-  </si>
-  <si>
-    <t>Admin_701</t>
-  </si>
-  <si>
-    <t>@API Endpoint validation for export-questions-form   information.</t>
-  </si>
-  <si>
-    <t>Admin_702</t>
-  </si>
-  <si>
-    <t>@API Access token validation for export-questions-form _information.</t>
-  </si>
-  <si>
-    <t>Admin_707 @API Admin fetch the export-exams-form-information</t>
-  </si>
-  <si>
-    <t>Admin_708</t>
-  </si>
-  <si>
-    <t>@API Endpoint validation for export-exams-form    information.</t>
-  </si>
-  <si>
-    <t>Admin_709</t>
-  </si>
-  <si>
-    <t>@API Access token validation for export-exams-form   _information.</t>
-  </si>
-  <si>
-    <t>Admin_710</t>
-  </si>
-  <si>
-    <t>@API Admin export-exams-form-Header field validation - invalid.</t>
-  </si>
-  <si>
-    <t>AL_001aok</t>
-  </si>
-  <si>
-    <t>Admin_703</t>
-  </si>
-  <si>
-    <t>@API Admin export-questions-form -Header field validation - invalid.</t>
-  </si>
-  <si>
-    <t>AL_001alk</t>
-  </si>
-  <si>
-    <t>Admin_696</t>
-  </si>
-  <si>
-    <t>@API Admin question_import-success -Header field validation - invalid.</t>
+    <t>AL_001efo</t>
+  </si>
+  <si>
+    <t>Admin_776</t>
+  </si>
+  <si>
+    <t>@API Admin duplicate-Venue -Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001ef</t>
+  </si>
+  <si>
+    <t>Admin_751</t>
+  </si>
+  <si>
+    <t>@API Admin create the Venues-list information</t>
+  </si>
+  <si>
+    <t>Admin_752</t>
+  </si>
+  <si>
+    <t>@API Admin add  the venues-list of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_753</t>
+  </si>
+  <si>
+    <t>@API Admin add the Venues-list  of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_761</t>
+  </si>
+  <si>
+    <t>@API Admin add the Venue-Filter-search  information</t>
+  </si>
+  <si>
+    <t>Admin_762</t>
+  </si>
+  <si>
+    <t>@API Admin add the  Venue-Filter-search_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_763</t>
+  </si>
+  <si>
+    <t>@API Admin add the  Venue-Filter-search _validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_754</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the Venue-filters-information</t>
+  </si>
+  <si>
+    <t>Admin_755</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for Venue-filters  information</t>
+  </si>
+  <si>
+    <t>Admin_756</t>
+  </si>
+  <si>
+    <t>@API Access token validation for venue-filters_information</t>
+  </si>
+  <si>
+    <t>Admin_757</t>
+  </si>
+  <si>
+    <t>@API Admin  venues-filters-Header field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001bcy</t>
+  </si>
+  <si>
+    <t>Admin_764</t>
+  </si>
+  <si>
+    <t>@API Admin add the Venue-custom-filter-save public or privet information</t>
+  </si>
+  <si>
+    <t>Admin_765</t>
+  </si>
+  <si>
+    <t>@API Admin add the venue-custom-filter-save public or privet_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_766</t>
+  </si>
+  <si>
+    <t>@API Admin add the  venue-custom-filter-save public or privet_validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_767</t>
+  </si>
+  <si>
+    <t>@API Admin add the venue-pagination information</t>
+  </si>
+  <si>
+    <t>Admin_768</t>
+  </si>
+  <si>
+    <t>@API Admin add the Venue-pagination_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_769</t>
+  </si>
+  <si>
+    <t>@API Admin add the Venue-pagination _validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_770</t>
+  </si>
+  <si>
+    <t>@API Admin add the Venues-show-column information</t>
+  </si>
+  <si>
+    <t>Admin_771</t>
+  </si>
+  <si>
+    <t>@API Admin add the Venues-show-column _validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_772</t>
+  </si>
+  <si>
+    <t>@API Admin add the  Venues-show-column _validation of invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Admin_781</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the Venue-create-form  information</t>
+  </si>
+  <si>
+    <t>Admin_782</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for Venue-create-form  information</t>
+  </si>
+  <si>
+    <t>Admin_783</t>
+  </si>
+  <si>
+    <t>@API Access token validatio Venue-create-form for _information</t>
+  </si>
+  <si>
+    <t>Admin_784</t>
+  </si>
+  <si>
+    <t>@API Admin venue-create-form field validation - invalid</t>
+  </si>
+  <si>
+    <t>AL_001dcd</t>
+  </si>
+  <si>
+    <t>Admin_788</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the venue-edit-form  information</t>
+  </si>
+  <si>
+    <t>Admin_789</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for venue-edit-form  information</t>
+  </si>
+  <si>
+    <t>Admin_790</t>
+  </si>
+  <si>
+    <t>@API Access token validatio venue-edit-form_information</t>
+  </si>
+  <si>
+    <t>Admin_791</t>
+  </si>
+  <si>
+    <t>@API Admin add the Venue-edit-form information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fj</t>
+  </si>
+  <si>
+    <t>Admin_818</t>
+  </si>
+  <si>
+    <t>@API Admin add the iExam-Templete  Save information</t>
+  </si>
+  <si>
+    <t>Admin_819</t>
+  </si>
+  <si>
+    <t>@API Admin add the  iExam-Template Save _validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_820</t>
+  </si>
+  <si>
+    <t>@API Admin add the iExam-template Save _validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_802</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-create-exam-section-form information</t>
+  </si>
+  <si>
+    <t>Admin_803</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-create-exam-section-form _validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_804</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-create-exam-section-form  validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_805</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-section-content-form information</t>
+  </si>
+  <si>
+    <t>Admin_806</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-section-content-form_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_807</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-section-content-form  validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_808</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-section-survey-form information</t>
+  </si>
+  <si>
+    <t>Admin_809</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-section-survey-form_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_810</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-section-survey-form  validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_841</t>
+  </si>
+  <si>
+    <t>@API Admin add the iExam-Template search information</t>
+  </si>
+  <si>
+    <t>Admin_842</t>
+  </si>
+  <si>
+    <t>@API Admin add the iExam-template search _validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_843</t>
+  </si>
+  <si>
+    <t>@API Admin add the iExam-Template search _validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_811 @API Admin add the template-exam-save-form information</t>
+  </si>
+  <si>
+    <t>Admin_812</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-save_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_813</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-save  validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_795</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the exam-templates-edit-form  information</t>
+  </si>
+  <si>
+    <t>Admin_796</t>
+  </si>
+  <si>
+    <t>@API Admin add the exam-templates-edit-form _validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_797</t>
+  </si>
+  <si>
+    <t>@API Admin add the exam-templates-edit-form_validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_825</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the template-exam-update  information</t>
+  </si>
+  <si>
+    <t>Admin_826</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-update_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_827</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-update_validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_828</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the exam-templates-editsection-form  information</t>
+  </si>
+  <si>
+    <t>Admin_829</t>
+  </si>
+  <si>
+    <t>@API Admin add the exam-templates-editsection-form_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_830</t>
+  </si>
+  <si>
+    <t>@API Admin add the exam-templates-editsection-form_validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_831</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the template-exam-save-sessions  information</t>
+  </si>
+  <si>
+    <t>Admin_832</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-save-sessions_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_833</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-save-sessions_validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_853</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the template-exam-duplicate  information</t>
+  </si>
+  <si>
+    <t>Admin_854</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for template-exam-duplicate  information</t>
+  </si>
+  <si>
+    <t>Admin_855</t>
+  </si>
+  <si>
+    <t>@API Access token validatio template-exam-duplicate_information</t>
+  </si>
+  <si>
+    <t>Admin_857</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the deactive-template-exams</t>
+  </si>
+  <si>
+    <t>Admin_858</t>
+  </si>
+  <si>
+    <t>@API Admin deactive-emplate-exams_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@API Endpoint validation for deactive-emplate-exams </t>
+  </si>
+  <si>
+    <t>Admin_860</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the template-exams-active</t>
+  </si>
+  <si>
+    <t>Admin_861</t>
+  </si>
+  <si>
+    <t>@API Admin template-exams-active_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@API Endpoint validation for template-exams-active </t>
+  </si>
+  <si>
+    <t>Admin_821</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the exam-sections  information</t>
+  </si>
+  <si>
+    <t>Admin_822</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for exam-sections information</t>
+  </si>
+  <si>
+    <t>Admin_823</t>
+  </si>
+  <si>
+    <t>@API Access token validatio exam-sections _information</t>
+  </si>
+  <si>
+    <t>Admin_824</t>
+  </si>
+  <si>
+    <t>@API Admin add the exam-sections information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fv9</t>
+  </si>
+  <si>
+    <t>Admin_856</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-duplicate  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fvh</t>
+  </si>
+  <si>
+    <t>Admin_814</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the template-exam-create-form   information</t>
+  </si>
+  <si>
+    <t>Admin_815</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for template-exam-create-form   information</t>
+  </si>
+  <si>
+    <t>Admin_816</t>
+  </si>
+  <si>
+    <t>@API Access token validatio template-exam-create-form _information</t>
+  </si>
+  <si>
+    <t>Admin_817</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-create-form  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001f</t>
+  </si>
+  <si>
+    <t>Admin_798</t>
+  </si>
+  <si>
+    <t>Admin_799</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for exam-sections   information</t>
+  </si>
+  <si>
+    <t>Admin_800</t>
+  </si>
+  <si>
+    <t>Admin_801</t>
+  </si>
+  <si>
+    <t>AL_001fv</t>
+  </si>
+  <si>
+    <t>Admin_834</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-list information</t>
+  </si>
+  <si>
+    <t>Admin_835</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-list_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_836</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-list  validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_837</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the template-exam-filters  information</t>
+  </si>
+  <si>
+    <t>Admin_838</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for template-exam-filters  information</t>
+  </si>
+  <si>
+    <t>Admin_839</t>
+  </si>
+  <si>
+    <t>@API Access token validatio template-exam-filters _information</t>
+  </si>
+  <si>
+    <t>Admin_840</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-filters information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fvr</t>
+  </si>
+  <si>
+    <t>Admin_844</t>
+  </si>
+  <si>
+    <t>@API Admin add the iExam-Template-filter search information</t>
+  </si>
+  <si>
+    <t>Admin_845</t>
+  </si>
+  <si>
+    <t>@API Admin add the iExam-template-filter search _validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_846</t>
+  </si>
+  <si>
+    <t>@API Admin add the iExam-Template-filter search _validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_847</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-custom-filter-save information</t>
+  </si>
+  <si>
+    <t>Admin_848</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-custom-filter-save_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_849</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exam-custom-filter-save_validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_850</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exams-field-column-hide and show information</t>
+  </si>
+  <si>
+    <t>Admin_851</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exams-field-column-hide and show validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_852</t>
+  </si>
+  <si>
+    <t>@API Admin add the template-exams-field-column-hide and show validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_867</t>
+  </si>
+  <si>
+    <t>@API Admin add the save-offline-exam  information</t>
+  </si>
+  <si>
+    <t>Admin_868</t>
+  </si>
+  <si>
+    <t>@API Admin add the save-offline-exam _validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_869</t>
+  </si>
+  <si>
+    <t>@API Admin add the save-offline-exam   validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_863</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the create-offline-exam-form   information</t>
+  </si>
+  <si>
+    <t>Admin_864</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for create-offline-exam-form  information</t>
+  </si>
+  <si>
+    <t>Admin_865</t>
+  </si>
+  <si>
+    <t>@API Access token validatio create-offline-exam-form _information</t>
+  </si>
+  <si>
+    <t>Admin_866</t>
+  </si>
+  <si>
+    <t>@API Admin add the create-offline-exam-form  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fvj</t>
+  </si>
+  <si>
+    <t>Admin_874</t>
+  </si>
+  <si>
+    <t>@API Admin add the save-livemonitor-settings  information</t>
+  </si>
+  <si>
+    <t>Admin_875</t>
+  </si>
+  <si>
+    <t>@API Admin add the save-livemonitor-settings _validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_876</t>
+  </si>
+  <si>
+    <t>@API Admin add the save-livemonitor-settings   validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_870</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the livemonitor-settings-form  information</t>
+  </si>
+  <si>
+    <t>Admin_871</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for livemonitor-settings-form  information</t>
+  </si>
+  <si>
+    <t>Admin_872</t>
+  </si>
+  <si>
+    <t>@API Access token validatio livemonitor-settings-form_information</t>
+  </si>
+  <si>
+    <t>Admin_873</t>
+  </si>
+  <si>
+    <t>@API Admin add the livemonitor-settings-form  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fvq</t>
+  </si>
+  <si>
+    <t>Admin_881</t>
+  </si>
+  <si>
+    <t>@API Admin add the offline-action-update  information</t>
+  </si>
+  <si>
+    <t>Admin_882</t>
+  </si>
+  <si>
+    <t>@API Admin add the offline-action-update _validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_883</t>
+  </si>
+  <si>
+    <t>@API Admin add the offline-action-update  validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_877</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the offline-action-form   information</t>
+  </si>
+  <si>
+    <t>Admin_878</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for offline-action-form   information</t>
+  </si>
+  <si>
+    <t>Admin_879</t>
+  </si>
+  <si>
+    <t>@API Access token validatio offline-action-form _information</t>
+  </si>
+  <si>
+    <t>Admin_880</t>
+  </si>
+  <si>
+    <t>@API Admin add the offline-action-form   information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fpq</t>
+  </si>
+  <si>
+    <t>Admin_888</t>
+  </si>
+  <si>
+    <t>@API Admin add the save-Iregistration-List  information</t>
+  </si>
+  <si>
+    <t>Admin_889</t>
+  </si>
+  <si>
+    <t>@API Admin add the save-Iregistration-List _validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_890</t>
+  </si>
+  <si>
+    <t>@API Admin add the save-Iregistration-List   validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_891</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the iRegistration-List   information</t>
+  </si>
+  <si>
+    <t>Admin_892</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for iRegistration-List    information</t>
+  </si>
+  <si>
+    <t>Admin_893</t>
+  </si>
+  <si>
+    <t>@API Access token validatio iRegistration-List   _information</t>
+  </si>
+  <si>
+    <t>Admin_894</t>
+  </si>
+  <si>
+    <t>@API Admin add the iRegistration-List    information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fgq</t>
+  </si>
+  <si>
+    <t>Admin_895</t>
+  </si>
+  <si>
+    <t>@API Admin add the save-isawe-case-setting  information</t>
+  </si>
+  <si>
+    <t>Admin_896</t>
+  </si>
+  <si>
+    <t>@API Admin add the save-isawe-case-setting_validation of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_897</t>
+  </si>
+  <si>
+    <t>@API Admin add the save-isawe-case-setting  validation of invalid endpoint</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the isawe-case-setting-form   information</t>
+  </si>
+  <si>
+    <t>@API Endpoint validation for isawe-case-setting-form   information</t>
+  </si>
+  <si>
+    <t>@API Access token validation  isawe-case-setting-form  _information</t>
+  </si>
+  <si>
+    <t>@API Admin add the isawe-case-setting-form  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fdt</t>
+  </si>
+  <si>
+    <t>Admin_898</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the show-widget response information</t>
+  </si>
+  <si>
+    <t>Admin_899: @API Endpoint validation for show-widget response  information</t>
+  </si>
+  <si>
+    <t>Admin_900</t>
+  </si>
+  <si>
+    <t>@API Access token validation  show-widget response _information</t>
+  </si>
+  <si>
+    <t>Admin_901</t>
+  </si>
+  <si>
+    <t>@API Admin add the show-widget response  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fdq</t>
+  </si>
+  <si>
+    <t>Admin_902</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the user-details response information</t>
+  </si>
+  <si>
+    <t>Admin_903: @API Endpoint validation for user-details response  information</t>
+  </si>
+  <si>
+    <t>Admin_904</t>
+  </si>
+  <si>
+    <t>@API Access token validation  user-details response_information</t>
+  </si>
+  <si>
+    <t>Admin_905</t>
+  </si>
+  <si>
+    <t>@API Admin add the user-details response  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fdi</t>
+  </si>
+  <si>
+    <t>Admin_906</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the exam-marking-listwidget response information</t>
+  </si>
+  <si>
+    <t>Admin_907: @API Endpoint validation for exam-marking-listwidget response  information</t>
+  </si>
+  <si>
+    <t>Admin_908</t>
+  </si>
+  <si>
+    <t>@API Access token validation  exam-marking-listwidget response_information</t>
+  </si>
+  <si>
+    <t>Admin_909</t>
+  </si>
+  <si>
+    <t>@API Admin add the exam-marking-listwidget response  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fdo</t>
+  </si>
+  <si>
+    <t>Admin_910</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the user-exam-listwidget response information</t>
+  </si>
+  <si>
+    <t>Admin_911: @API Endpoint validation for user-exam-listwidget response  information</t>
+  </si>
+  <si>
+    <t>Admin_912</t>
+  </si>
+  <si>
+    <t>@API Access token validation  user-exam-listwidget response_information</t>
+  </si>
+  <si>
+    <t>Admin_913</t>
+  </si>
+  <si>
+    <t>@API Admin add the user-exam-listwidget response  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fdl</t>
+  </si>
+  <si>
+    <t>Admin_914</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the exam-marking-listwidget-pagination response information</t>
+  </si>
+  <si>
+    <t>Admin_915: @API Endpoint validation for exam-marking-listwidget-pagination response  information</t>
+  </si>
+  <si>
+    <t>Admin_916</t>
+  </si>
+  <si>
+    <t>@API Access token validation  exam-marking-listwidget-pagination response_information</t>
+  </si>
+  <si>
+    <t>Admin_917</t>
+  </si>
+  <si>
+    <t>@API Admin add the exam-marking-listwidget-pagination response  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fd1</t>
+  </si>
+  <si>
+    <t>Admin_918</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the showwidget-hide response information</t>
+  </si>
+  <si>
+    <t>Admin_919: @API Endpoint validation for showwidget-hide response  information</t>
+  </si>
+  <si>
+    <t>Admin_920</t>
+  </si>
+  <si>
+    <t>@API Access token validation  showwidget-hide response_information</t>
+  </si>
+  <si>
+    <t>Admin_921</t>
+  </si>
+  <si>
+    <t>@API Admin add the showwidget-hide response  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fs1</t>
+  </si>
+  <si>
+    <t>Admin_922</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the showwidget-shown  response information</t>
+  </si>
+  <si>
+    <t>Admin_923: @API Endpoint validation for showwidget-shown  response  information</t>
+  </si>
+  <si>
+    <t>Admin_924</t>
+  </si>
+  <si>
+    <t>@API Access token validation  showwidget-shown  response_information</t>
+  </si>
+  <si>
+    <t>Admin_925</t>
+  </si>
+  <si>
+    <t>@API Admin add the showwidget-shown  response  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001ft1</t>
+  </si>
+  <si>
+    <t>Admin_926</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the showwidget-list  response information</t>
+  </si>
+  <si>
+    <t>Admin_927: @API Endpoint validation for showwidget-list  response  information</t>
+  </si>
+  <si>
+    <t>Admin_928</t>
+  </si>
+  <si>
+    <t>@API Access token validation  showwidget-list  response_information</t>
+  </si>
+  <si>
+    <t>Admin_929</t>
+  </si>
+  <si>
+    <t>@API Admin add the showwidget-list  response  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fp1</t>
+  </si>
+  <si>
+    <t>Admin_933</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the  login-user-information  response information</t>
+  </si>
+  <si>
+    <t>Admin_934: @API Endpoint validation for login-user-information  response  information</t>
+  </si>
+  <si>
+    <t>Admin_935</t>
+  </si>
+  <si>
+    <t>@API Access token validation  login-user-information  response_information</t>
+  </si>
+  <si>
+    <t>Admin_936</t>
+  </si>
+  <si>
+    <t>@API Admin add the login-user-information  response  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fp2</t>
+  </si>
+  <si>
+    <t>Admin_930</t>
+  </si>
+  <si>
+    <t>@API Admin getAuth-role-permission-list information</t>
+  </si>
+  <si>
+    <t>Admin_931</t>
+  </si>
+  <si>
+    <t>@API Admin add  the getAuth-role-permission-list of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_932</t>
+  </si>
+  <si>
+    <t>@API Admin add the getAuth-role-permission-list  of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_937</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the  todolist-data   response information</t>
+  </si>
+  <si>
+    <t>Admin_938: @API Endpoint validation for   todolist-data  response  information</t>
+  </si>
+  <si>
+    <t>Admin_939</t>
+  </si>
+  <si>
+    <t>@API Access token validation   todolist-data  response_information</t>
+  </si>
+  <si>
+    <t>Admin_940</t>
+  </si>
+  <si>
+    <t>@API Admin add the  todolist-data  response  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fp6</t>
+  </si>
+  <si>
+    <t>Admin_941</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the recent-list-data  response information</t>
+  </si>
+  <si>
+    <t>Admin_942: @API Endpoint validation for recent-list-data  response  information</t>
+  </si>
+  <si>
+    <t>Admin_943</t>
+  </si>
+  <si>
+    <t>@API Access token validation  recent-list-data  response_information</t>
+  </si>
+  <si>
+    <t>Admin_944</t>
+  </si>
+  <si>
+    <t>@API Admin add the recent-list-data  response  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fp8</t>
+  </si>
+  <si>
+    <t>Admin_945</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the user-filteruser-filters   response information</t>
+  </si>
+  <si>
+    <t>Admin_946: @API Endpoint validation for user-filteruser-filters   response  information</t>
+  </si>
+  <si>
+    <t>Admin_947</t>
+  </si>
+  <si>
+    <t>@API Access token validation user-filteruser-filters  response_information</t>
+  </si>
+  <si>
+    <t>Admin_948</t>
+  </si>
+  <si>
+    <t>@API Admin add the user-filteruser-filters   response  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001f42</t>
+  </si>
+  <si>
+    <t>Admin_949</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the question-filters  response information</t>
+  </si>
+  <si>
+    <t>Admin_950: @API Endpoint validation for question-filters response  information</t>
+  </si>
+  <si>
+    <t>Admin_951</t>
+  </si>
+  <si>
+    <t>@API Access token validation  question-filters response_information</t>
+  </si>
+  <si>
+    <t>Admin_952</t>
+  </si>
+  <si>
+    <t>@API Admin add the question-filters  response  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fp0</t>
+  </si>
+  <si>
+    <t>Admin_953</t>
+  </si>
+  <si>
+    <t>@API Admin  questions-status-list information</t>
+  </si>
+  <si>
+    <t>Admin_954</t>
+  </si>
+  <si>
+    <t>@API Admin add  the questions-status-list of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_955</t>
+  </si>
+  <si>
+    <t>@API Admin add the questions-status-list  of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_956</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the show-widget-hide  response information</t>
+  </si>
+  <si>
+    <t>Admin_957: @API Endpoint validation for show-widget-hide response  information</t>
+  </si>
+  <si>
+    <t>Admin_958</t>
+  </si>
+  <si>
+    <t>@API Access token validation  show-widget-hide  response_information</t>
+  </si>
+  <si>
+    <t>Admin_959</t>
+  </si>
+  <si>
+    <t>@API Admin add the show-widget-hide  response  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001f72</t>
+  </si>
+  <si>
+    <t>Admin_960</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the show-widget-shown   response information</t>
+  </si>
+  <si>
+    <t>Admin_961: @API Endpoint validation for show-widget-shown   response  information</t>
+  </si>
+  <si>
+    <t>Admin_962</t>
+  </si>
+  <si>
+    <t>@API Access token validation  show-widget-shown   response_information</t>
+  </si>
+  <si>
+    <t>Admin_963</t>
+  </si>
+  <si>
+    <t>@API Admin add the show-widget-shown   response  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001f12</t>
+  </si>
+  <si>
+    <t>Admin_964</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the user-filters-paggination  response information</t>
+  </si>
+  <si>
+    <t>Admin_965: @API Endpoint validation for user-filters-paggination  response  information</t>
+  </si>
+  <si>
+    <t>Admin_966</t>
+  </si>
+  <si>
+    <t>@API Access token validation  user-filters-paggination  response_information</t>
+  </si>
+  <si>
+    <t>Admin_967</t>
+  </si>
+  <si>
+    <t>@API Admin add the user-filters-paggination  response  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001f52</t>
+  </si>
+  <si>
+    <t>Admin_968</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the recent-list-pagination  response information</t>
+  </si>
+  <si>
+    <t>Admin_969: @API Endpoint validation for recent-list-pagination  response  information</t>
+  </si>
+  <si>
+    <t>Admin_970</t>
+  </si>
+  <si>
+    <t>@API Access token validation recent-list-pagination  response_information</t>
+  </si>
+  <si>
+    <t>Admin_971</t>
+  </si>
+  <si>
+    <t>@API Admin add the recent-list-pagination  response  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001f22</t>
+  </si>
+  <si>
+    <t>Admin_972</t>
+  </si>
+  <si>
+    <t>@API Admin fetch the to-do-list-pagination  response information</t>
+  </si>
+  <si>
+    <t>Admin_973: @API Endpoint validation for to-do-list-pagination  response  information</t>
+  </si>
+  <si>
+    <t>Admin_974</t>
+  </si>
+  <si>
+    <t>@API Access token validation  to-do-list-pagination  response_information</t>
+  </si>
+  <si>
+    <t>Admin_975</t>
+  </si>
+  <si>
+    <t>@API Admin add the to-do-list-pagination  response  information - invalid</t>
+  </si>
+  <si>
+    <t>AL_001fpe</t>
+  </si>
+  <si>
+    <t>Admin_976</t>
+  </si>
+  <si>
+    <t>@API Admin questions-status-filter-search information</t>
+  </si>
+  <si>
+    <t>Admin_977</t>
+  </si>
+  <si>
+    <t>@API Admin add  the questions-status-filter-search of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_978</t>
+  </si>
+  <si>
+    <t>@API Admin add the questions-status-filter-search  of invalid endpoint</t>
+  </si>
+  <si>
+    <t>Admin_979</t>
+  </si>
+  <si>
+    <t>@API Admin save-custom-filter-save-privet information</t>
+  </si>
+  <si>
+    <t>Admin_980</t>
+  </si>
+  <si>
+    <t>@API Admin add  the save-custom-filter-save-privet of incorrect HTTP method</t>
+  </si>
+  <si>
+    <t>Admin_981</t>
+  </si>
+  <si>
+    <t>@API Admin add the save-custom-filter-save-privet  of invalid endpoint</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C266"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1371,15 +2013,15 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1393,7 +2035,7 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1401,7 +2043,7 @@
         <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1409,10 +2051,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1420,10 +2062,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1431,21 +2073,21 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1453,21 +2095,21 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1481,7 +2123,7 @@
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1489,7 +2131,7 @@
         <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1497,10 +2139,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1508,21 +2150,21 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1569,7 +2211,7 @@
         <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1577,7 +2219,7 @@
         <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1585,10 +2227,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1596,10 +2238,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1607,10 +2249,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1618,10 +2260,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1629,10 +2271,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1640,10 +2282,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1651,10 +2293,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1662,21 +2304,21 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1723,7 +2365,7 @@
         <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1731,7 +2373,7 @@
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1739,10 +2381,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
         <v>101</v>
-      </c>
-      <c r="B52" t="s">
-        <v>102</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1750,10 +2392,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
         <v>103</v>
-      </c>
-      <c r="B53" t="s">
-        <v>104</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1761,10 +2403,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
         <v>105</v>
-      </c>
-      <c r="B54" t="s">
-        <v>106</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1772,10 +2414,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
         <v>107</v>
-      </c>
-      <c r="B55" t="s">
-        <v>108</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1783,10 +2425,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
         <v>109</v>
-      </c>
-      <c r="B56" t="s">
-        <v>110</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1794,10 +2436,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
         <v>111</v>
-      </c>
-      <c r="B57" t="s">
-        <v>112</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1805,10 +2447,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
         <v>113</v>
-      </c>
-      <c r="B58" t="s">
-        <v>114</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1816,10 +2458,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
         <v>115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>116</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1827,10 +2469,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
         <v>117</v>
-      </c>
-      <c r="B60" t="s">
-        <v>118</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1838,10 +2480,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
         <v>119</v>
-      </c>
-      <c r="B61" t="s">
-        <v>120</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1849,10 +2491,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
         <v>121</v>
-      </c>
-      <c r="B62" t="s">
-        <v>122</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1860,10 +2502,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
         <v>123</v>
-      </c>
-      <c r="B63" t="s">
-        <v>124</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1871,10 +2513,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
         <v>125</v>
-      </c>
-      <c r="B64" t="s">
-        <v>126</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1882,10 +2524,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
         <v>127</v>
-      </c>
-      <c r="B65" t="s">
-        <v>128</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1893,10 +2535,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
         <v>129</v>
-      </c>
-      <c r="B66" t="s">
-        <v>130</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1904,10 +2546,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1915,10 +2554,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1926,10 +2565,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1937,10 +2576,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1948,21 +2587,21 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1970,21 +2609,21 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" t="s">
         <v>142</v>
       </c>
-      <c r="B73" t="s">
-        <v>143</v>
-      </c>
       <c r="C73" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" t="s">
         <v>144</v>
-      </c>
-      <c r="B74" t="s">
-        <v>4</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1998,7 +2637,7 @@
         <v>146</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2006,7 +2645,7 @@
         <v>147</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2014,10 +2653,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2025,10 +2664,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2036,10 +2675,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B79" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2047,10 +2686,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2058,10 +2697,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2069,10 +2708,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2080,21 +2719,21 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2102,10 +2741,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B85" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2113,10 +2752,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B86" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2124,10 +2763,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B87" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2135,10 +2774,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B88" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2146,10 +2785,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B89" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2157,10 +2796,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B90" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2168,10 +2807,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2179,10 +2818,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B92" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2190,10 +2829,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B93" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2201,21 +2840,21 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B94" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B95" t="s">
-        <v>184</v>
+        <v>4</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2223,21 +2862,21 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B96" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B97" t="s">
-        <v>188</v>
+        <v>4</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2284,7 +2923,7 @@
         <v>196</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2292,7 +2931,7 @@
         <v>197</v>
       </c>
       <c r="B102" t="s">
-        <v>198</v>
+        <v>4</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2300,10 +2939,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B103" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2311,10 +2950,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2322,10 +2961,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B105" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2333,21 +2972,21 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B106" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B107" t="s">
-        <v>207</v>
+        <v>4</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2355,10 +2994,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B108" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2366,10 +3005,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B109" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2377,10 +3016,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B110" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2388,10 +3027,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B111" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2399,10 +3038,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>212</v>
+      </c>
+      <c r="B112" t="s">
         <v>213</v>
-      </c>
-      <c r="B112" t="s">
-        <v>214</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2410,10 +3049,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" t="s">
         <v>215</v>
-      </c>
-      <c r="B113" t="s">
-        <v>216</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2421,21 +3060,21 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>216</v>
+      </c>
+      <c r="B114" t="s">
         <v>217</v>
       </c>
-      <c r="B114" t="s">
-        <v>218</v>
-      </c>
       <c r="C114" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B115" t="s">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2443,10 +3082,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2454,10 +3093,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B117" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2465,10 +3104,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B118" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2476,10 +3115,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B119" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2487,10 +3126,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B120" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2498,10 +3137,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B121" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2509,10 +3148,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B122" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2520,10 +3159,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B123" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2531,10 +3170,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B124" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2542,10 +3181,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B125" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2553,10 +3192,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B126" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2564,10 +3203,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B127" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2575,10 +3214,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B128" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2586,10 +3225,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B129" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2597,7 +3236,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>249</v>
+        <v>247</v>
+      </c>
+      <c r="B130" t="s">
+        <v>248</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2605,21 +3247,21 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>249</v>
+      </c>
+      <c r="B131" t="s">
         <v>250</v>
       </c>
-      <c r="B131" t="s">
-        <v>251</v>
-      </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B132" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2627,21 +3269,21 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B133" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C133" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B134" t="s">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2649,21 +3291,21 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>256</v>
+      </c>
+      <c r="B135" t="s">
         <v>257</v>
       </c>
-      <c r="B135" t="s">
-        <v>258</v>
-      </c>
       <c r="C135" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>258</v>
+      </c>
+      <c r="B136" t="s">
         <v>259</v>
-      </c>
-      <c r="B136" t="s">
-        <v>4</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2677,7 +3319,1372 @@
         <v>261</v>
       </c>
       <c r="C137" t="s">
-        <v>50</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>262</v>
+      </c>
+      <c r="B138" t="s">
+        <v>263</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>264</v>
+      </c>
+      <c r="B139" t="s">
+        <v>265</v>
+      </c>
+      <c r="C139" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>266</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>267</v>
+      </c>
+      <c r="B141" t="s">
+        <v>268</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>269</v>
+      </c>
+      <c r="B142" t="s">
+        <v>270</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>271</v>
+      </c>
+      <c r="B143" t="s">
+        <v>272</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>273</v>
+      </c>
+      <c r="B144" t="s">
+        <v>274</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>275</v>
+      </c>
+      <c r="B145" t="s">
+        <v>276</v>
+      </c>
+      <c r="C145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>277</v>
+      </c>
+      <c r="B146" t="s">
+        <v>278</v>
+      </c>
+      <c r="C146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>279</v>
+      </c>
+      <c r="B147" t="s">
+        <v>280</v>
+      </c>
+      <c r="C147" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>281</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>282</v>
+      </c>
+      <c r="B149" t="s">
+        <v>283</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>284</v>
+      </c>
+      <c r="B150" t="s">
+        <v>285</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>286</v>
+      </c>
+      <c r="B151" t="s">
+        <v>287</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>288</v>
+      </c>
+      <c r="B152" t="s">
+        <v>289</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>290</v>
+      </c>
+      <c r="B153" t="s">
+        <v>291</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>292</v>
+      </c>
+      <c r="B154" t="s">
+        <v>293</v>
+      </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>294</v>
+      </c>
+      <c r="B155" t="s">
+        <v>295</v>
+      </c>
+      <c r="C155" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>296</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>297</v>
+      </c>
+      <c r="B157" t="s">
+        <v>298</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>299</v>
+      </c>
+      <c r="B158" t="s">
+        <v>300</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>301</v>
+      </c>
+      <c r="B159" t="s">
+        <v>302</v>
+      </c>
+      <c r="C159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>288</v>
+      </c>
+      <c r="B160" t="s">
+        <v>303</v>
+      </c>
+      <c r="C160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>290</v>
+      </c>
+      <c r="B161" t="s">
+        <v>304</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>292</v>
+      </c>
+      <c r="B162" t="s">
+        <v>305</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>294</v>
+      </c>
+      <c r="B163" t="s">
+        <v>306</v>
+      </c>
+      <c r="C163" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>307</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>308</v>
+      </c>
+      <c r="B165" t="s">
+        <v>309</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>310</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>311</v>
+      </c>
+      <c r="B167" t="s">
+        <v>312</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>313</v>
+      </c>
+      <c r="B168" t="s">
+        <v>314</v>
+      </c>
+      <c r="C168" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>315</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>316</v>
+      </c>
+      <c r="B170" t="s">
+        <v>317</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>318</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>319</v>
+      </c>
+      <c r="B172" t="s">
+        <v>320</v>
+      </c>
+      <c r="C172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>321</v>
+      </c>
+      <c r="B173" t="s">
+        <v>322</v>
+      </c>
+      <c r="C173" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>323</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>324</v>
+      </c>
+      <c r="B175" t="s">
+        <v>325</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>326</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>327</v>
+      </c>
+      <c r="B177" t="s">
+        <v>328</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>329</v>
+      </c>
+      <c r="B178" t="s">
+        <v>330</v>
+      </c>
+      <c r="C178" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>331</v>
+      </c>
+      <c r="B179" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>332</v>
+      </c>
+      <c r="B180" t="s">
+        <v>333</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>334</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>335</v>
+      </c>
+      <c r="B182" t="s">
+        <v>336</v>
+      </c>
+      <c r="C182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>337</v>
+      </c>
+      <c r="B183" t="s">
+        <v>338</v>
+      </c>
+      <c r="C183" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>339</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>340</v>
+      </c>
+      <c r="B185" t="s">
+        <v>341</v>
+      </c>
+      <c r="C185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>342</v>
+      </c>
+      <c r="C186" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>343</v>
+      </c>
+      <c r="B187" t="s">
+        <v>344</v>
+      </c>
+      <c r="C187" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>345</v>
+      </c>
+      <c r="B188" t="s">
+        <v>346</v>
+      </c>
+      <c r="C188" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>347</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>348</v>
+      </c>
+      <c r="B190" t="s">
+        <v>349</v>
+      </c>
+      <c r="C190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>350</v>
+      </c>
+      <c r="C191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>351</v>
+      </c>
+      <c r="B192" t="s">
+        <v>352</v>
+      </c>
+      <c r="C192" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>353</v>
+      </c>
+      <c r="B193" t="s">
+        <v>354</v>
+      </c>
+      <c r="C193" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>355</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>356</v>
+      </c>
+      <c r="B195" t="s">
+        <v>357</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>358</v>
+      </c>
+      <c r="C196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>359</v>
+      </c>
+      <c r="B197" t="s">
+        <v>360</v>
+      </c>
+      <c r="C197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>361</v>
+      </c>
+      <c r="B198" t="s">
+        <v>362</v>
+      </c>
+      <c r="C198" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>363</v>
+      </c>
+      <c r="B199" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>364</v>
+      </c>
+      <c r="B200" t="s">
+        <v>365</v>
+      </c>
+      <c r="C200" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>366</v>
+      </c>
+      <c r="C201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>367</v>
+      </c>
+      <c r="B202" t="s">
+        <v>368</v>
+      </c>
+      <c r="C202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>369</v>
+      </c>
+      <c r="B203" t="s">
+        <v>370</v>
+      </c>
+      <c r="C203" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>371</v>
+      </c>
+      <c r="B204" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>372</v>
+      </c>
+      <c r="B205" t="s">
+        <v>373</v>
+      </c>
+      <c r="C205" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>374</v>
+      </c>
+      <c r="C206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>375</v>
+      </c>
+      <c r="B207" t="s">
+        <v>376</v>
+      </c>
+      <c r="C207" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>377</v>
+      </c>
+      <c r="B208" t="s">
+        <v>378</v>
+      </c>
+      <c r="C208" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>379</v>
+      </c>
+      <c r="B209" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>380</v>
+      </c>
+      <c r="B210" t="s">
+        <v>381</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>382</v>
+      </c>
+      <c r="B211" t="s">
+        <v>383</v>
+      </c>
+      <c r="C211" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>384</v>
+      </c>
+      <c r="B212" t="s">
+        <v>385</v>
+      </c>
+      <c r="C212" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>386</v>
+      </c>
+      <c r="B213" t="s">
+        <v>387</v>
+      </c>
+      <c r="C213" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>388</v>
+      </c>
+      <c r="C214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>389</v>
+      </c>
+      <c r="B215" t="s">
+        <v>390</v>
+      </c>
+      <c r="C215" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>391</v>
+      </c>
+      <c r="B216" t="s">
+        <v>392</v>
+      </c>
+      <c r="C216" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>393</v>
+      </c>
+      <c r="B217" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>394</v>
+      </c>
+      <c r="B218" t="s">
+        <v>395</v>
+      </c>
+      <c r="C218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>396</v>
+      </c>
+      <c r="C219" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>397</v>
+      </c>
+      <c r="B220" t="s">
+        <v>398</v>
+      </c>
+      <c r="C220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>399</v>
+      </c>
+      <c r="B221" t="s">
+        <v>400</v>
+      </c>
+      <c r="C221" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>401</v>
+      </c>
+      <c r="B222" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>402</v>
+      </c>
+      <c r="B223" t="s">
+        <v>403</v>
+      </c>
+      <c r="C223" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>404</v>
+      </c>
+      <c r="C224" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>405</v>
+      </c>
+      <c r="B225" t="s">
+        <v>406</v>
+      </c>
+      <c r="C225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>407</v>
+      </c>
+      <c r="B226" t="s">
+        <v>408</v>
+      </c>
+      <c r="C226" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>409</v>
+      </c>
+      <c r="B227" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>410</v>
+      </c>
+      <c r="B228" t="s">
+        <v>411</v>
+      </c>
+      <c r="C228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>412</v>
+      </c>
+      <c r="C229" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>413</v>
+      </c>
+      <c r="B230" t="s">
+        <v>414</v>
+      </c>
+      <c r="C230" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>415</v>
+      </c>
+      <c r="B231" t="s">
+        <v>416</v>
+      </c>
+      <c r="C231" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>417</v>
+      </c>
+      <c r="B232" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>418</v>
+      </c>
+      <c r="B233" t="s">
+        <v>419</v>
+      </c>
+      <c r="C233" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>420</v>
+      </c>
+      <c r="B234" t="s">
+        <v>421</v>
+      </c>
+      <c r="C234" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>422</v>
+      </c>
+      <c r="B235" t="s">
+        <v>423</v>
+      </c>
+      <c r="C235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>424</v>
+      </c>
+      <c r="B236" t="s">
+        <v>425</v>
+      </c>
+      <c r="C236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>426</v>
+      </c>
+      <c r="C237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>427</v>
+      </c>
+      <c r="B238" t="s">
+        <v>428</v>
+      </c>
+      <c r="C238" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>429</v>
+      </c>
+      <c r="B239" t="s">
+        <v>430</v>
+      </c>
+      <c r="C239" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>431</v>
+      </c>
+      <c r="B240" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>432</v>
+      </c>
+      <c r="B241" t="s">
+        <v>433</v>
+      </c>
+      <c r="C241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>434</v>
+      </c>
+      <c r="C242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>435</v>
+      </c>
+      <c r="B243" t="s">
+        <v>436</v>
+      </c>
+      <c r="C243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>437</v>
+      </c>
+      <c r="B244" t="s">
+        <v>438</v>
+      </c>
+      <c r="C244" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>439</v>
+      </c>
+      <c r="B245" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>440</v>
+      </c>
+      <c r="B246" t="s">
+        <v>441</v>
+      </c>
+      <c r="C246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>442</v>
+      </c>
+      <c r="C247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>443</v>
+      </c>
+      <c r="B248" t="s">
+        <v>444</v>
+      </c>
+      <c r="C248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>445</v>
+      </c>
+      <c r="B249" t="s">
+        <v>446</v>
+      </c>
+      <c r="C249" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>447</v>
+      </c>
+      <c r="B250" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>448</v>
+      </c>
+      <c r="B251" t="s">
+        <v>449</v>
+      </c>
+      <c r="C251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>450</v>
+      </c>
+      <c r="C252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>451</v>
+      </c>
+      <c r="B253" t="s">
+        <v>452</v>
+      </c>
+      <c r="C253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>453</v>
+      </c>
+      <c r="B254" t="s">
+        <v>454</v>
+      </c>
+      <c r="C254" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>455</v>
+      </c>
+      <c r="B255" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>456</v>
+      </c>
+      <c r="B256" t="s">
+        <v>457</v>
+      </c>
+      <c r="C256" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>458</v>
+      </c>
+      <c r="C257" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>459</v>
+      </c>
+      <c r="B258" t="s">
+        <v>460</v>
+      </c>
+      <c r="C258" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>461</v>
+      </c>
+      <c r="B259" t="s">
+        <v>462</v>
+      </c>
+      <c r="C259" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>463</v>
+      </c>
+      <c r="B260" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>464</v>
+      </c>
+      <c r="B261" t="s">
+        <v>465</v>
+      </c>
+      <c r="C261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>466</v>
+      </c>
+      <c r="B262" t="s">
+        <v>467</v>
+      </c>
+      <c r="C262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>468</v>
+      </c>
+      <c r="B263" t="s">
+        <v>469</v>
+      </c>
+      <c r="C263" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>470</v>
+      </c>
+      <c r="B264" t="s">
+        <v>471</v>
+      </c>
+      <c r="C264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>472</v>
+      </c>
+      <c r="B265" t="s">
+        <v>473</v>
+      </c>
+      <c r="C265" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>474</v>
+      </c>
+      <c r="B266" t="s">
+        <v>475</v>
+      </c>
+      <c r="C266" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
